--- a/data/1.reference/mapping_foas.xlsx
+++ b/data/1.reference/mapping_foas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\1.reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132ECC6-A655-42DD-922C-A263DF450FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E1BD7-15D3-4D09-BAD8-570359637272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Old to new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FoA_SDG!$A$1:$GX$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Old to new'!$B$1:$H$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Old to new'!$B$1:$I$138</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Old to new'!$A$1:$D$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="687">
   <si>
     <t>FoA</t>
   </si>
@@ -2148,9 +2148,6 @@
     <t>FoA_Old</t>
   </si>
   <si>
-    <t>FoA_new</t>
-  </si>
-  <si>
     <t>foa_nlo1_effectiveness</t>
   </si>
   <si>
@@ -2164,6 +2161,24 @@
   </si>
   <si>
     <t>improvement</t>
+  </si>
+  <si>
+    <t>foa_nlo2</t>
+  </si>
+  <si>
+    <t>Increased sustainable crop and improved climate resilience in agriculture</t>
+  </si>
+  <si>
+    <t>Improved food authenticity, quality and reduce contaminants and residues in the food supply</t>
+  </si>
+  <si>
+    <t>Enhanced livestock</t>
+  </si>
+  <si>
+    <t>Improved surveillance, detection, and control of major insect pests of agricultural and veterinary importance, including</t>
+  </si>
+  <si>
+    <t>foa</t>
   </si>
 </sst>
 </file>
@@ -3740,16 +3755,11 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3758,22 +3768,37 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3782,22 +3807,76 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3809,7 +3888,58 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,133 +3960,61 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3968,16 +4026,154 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4022,187 +4218,6 @@
     <xf numFmtId="0" fontId="26" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4663,10 +4678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4674,11 +4689,11 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="7" width="83.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
+    <col min="4" max="8" width="83.7109375" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>561</v>
       </c>
@@ -4689,22 +4704,25 @@
         <v>562</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E1" s="106" t="s">
         <v>626</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G1" s="106" t="s">
         <v>681</v>
       </c>
       <c r="H1" s="106" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1" s="106" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>651</v>
       </c>
@@ -4719,14 +4737,15 @@
         <v>650</v>
       </c>
       <c r="F2" s="109"/>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="109"/>
+      <c r="H2" s="109" t="s">
         <v>652</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>651</v>
       </c>
@@ -4743,14 +4762,15 @@
         <v>640</v>
       </c>
       <c r="F3" s="109"/>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109" t="s">
         <v>653</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
         <v>651</v>
       </c>
@@ -4766,11 +4786,12 @@
       </c>
       <c r="F4" s="109"/>
       <c r="G4" s="109"/>
-      <c r="H4" t="s">
+      <c r="H4" s="109"/>
+      <c r="I4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="134" t="s">
         <v>9</v>
       </c>
@@ -4786,11 +4807,12 @@
       <c r="E5" s="136"/>
       <c r="F5" s="136"/>
       <c r="G5" s="136"/>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="136"/>
+      <c r="I5" s="137" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="138" t="s">
         <v>29</v>
       </c>
@@ -4806,11 +4828,12 @@
       <c r="E6" s="139"/>
       <c r="F6" s="139"/>
       <c r="G6" s="139"/>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="139"/>
+      <c r="I6" s="140" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="138" t="s">
         <v>33</v>
       </c>
@@ -4826,11 +4849,12 @@
       <c r="E7" s="115"/>
       <c r="F7" s="115"/>
       <c r="G7" s="115"/>
-      <c r="H7" s="141" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="138" t="s">
         <v>43</v>
       </c>
@@ -4846,11 +4870,12 @@
       <c r="E8" s="115"/>
       <c r="F8" s="115"/>
       <c r="G8" s="115"/>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="115"/>
+      <c r="I8" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="138" t="s">
         <v>47</v>
       </c>
@@ -4866,11 +4891,12 @@
       <c r="E9" s="139"/>
       <c r="F9" s="139"/>
       <c r="G9" s="139"/>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="140" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="138" t="s">
         <v>49</v>
       </c>
@@ -4886,11 +4912,12 @@
       <c r="E10" s="139"/>
       <c r="F10" s="139"/>
       <c r="G10" s="139"/>
-      <c r="H10" s="140" t="s">
+      <c r="H10" s="139"/>
+      <c r="I10" s="140" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="138" t="s">
         <v>51</v>
       </c>
@@ -4906,11 +4933,12 @@
       <c r="E11" s="115"/>
       <c r="F11" s="115"/>
       <c r="G11" s="115"/>
-      <c r="H11" s="141" t="s">
+      <c r="H11" s="115"/>
+      <c r="I11" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="138" t="s">
         <v>53</v>
       </c>
@@ -4926,11 +4954,12 @@
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
       <c r="G12" s="115"/>
-      <c r="H12" s="141" t="s">
+      <c r="H12" s="115"/>
+      <c r="I12" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="138" t="s">
         <v>55</v>
       </c>
@@ -4946,11 +4975,12 @@
       <c r="E13" s="115"/>
       <c r="F13" s="115"/>
       <c r="G13" s="115"/>
-      <c r="H13" s="141" t="s">
+      <c r="H13" s="115"/>
+      <c r="I13" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="138" t="s">
         <v>61</v>
       </c>
@@ -4966,11 +4996,12 @@
       <c r="E14" s="115"/>
       <c r="F14" s="115"/>
       <c r="G14" s="115"/>
-      <c r="H14" s="141" t="s">
+      <c r="H14" s="115"/>
+      <c r="I14" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="138" t="s">
         <v>63</v>
       </c>
@@ -4986,11 +5017,12 @@
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="115"/>
+      <c r="I15" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="138" t="s">
         <v>65</v>
       </c>
@@ -5006,11 +5038,12 @@
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
-      <c r="H16" s="141" t="s">
+      <c r="H16" s="115"/>
+      <c r="I16" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="138" t="s">
         <v>67</v>
       </c>
@@ -5026,11 +5059,12 @@
       <c r="E17" s="115"/>
       <c r="F17" s="115"/>
       <c r="G17" s="115"/>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="115"/>
+      <c r="I17" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="138" t="s">
         <v>69</v>
       </c>
@@ -5046,11 +5080,12 @@
       <c r="E18" s="115"/>
       <c r="F18" s="115"/>
       <c r="G18" s="115"/>
-      <c r="H18" s="141" t="s">
+      <c r="H18" s="115"/>
+      <c r="I18" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="138" t="s">
         <v>71</v>
       </c>
@@ -5066,11 +5101,12 @@
       <c r="E19" s="115"/>
       <c r="F19" s="115"/>
       <c r="G19" s="115"/>
-      <c r="H19" s="141" t="s">
+      <c r="H19" s="115"/>
+      <c r="I19" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="138" t="s">
         <v>73</v>
       </c>
@@ -5086,11 +5122,12 @@
       <c r="E20" s="115"/>
       <c r="F20" s="115"/>
       <c r="G20" s="115"/>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="115"/>
+      <c r="I20" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="138" t="s">
         <v>75</v>
       </c>
@@ -5106,11 +5143,12 @@
       <c r="E21" s="115"/>
       <c r="F21" s="115"/>
       <c r="G21" s="115"/>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="115"/>
+      <c r="I21" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="138" t="s">
         <v>80</v>
       </c>
@@ -5126,11 +5164,12 @@
       <c r="E22" s="115"/>
       <c r="F22" s="115"/>
       <c r="G22" s="115"/>
-      <c r="H22" s="141" t="s">
+      <c r="H22" s="115"/>
+      <c r="I22" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="138" t="s">
         <v>88</v>
       </c>
@@ -5146,11 +5185,12 @@
       <c r="E23" s="115"/>
       <c r="F23" s="115"/>
       <c r="G23" s="115"/>
-      <c r="H23" s="141" t="s">
+      <c r="H23" s="115"/>
+      <c r="I23" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="138" t="s">
         <v>90</v>
       </c>
@@ -5166,11 +5206,12 @@
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="115"/>
-      <c r="H24" s="141" t="s">
+      <c r="H24" s="115"/>
+      <c r="I24" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="138" t="s">
         <v>125</v>
       </c>
@@ -5186,11 +5227,12 @@
       <c r="E25" s="115"/>
       <c r="F25" s="115"/>
       <c r="G25" s="115"/>
-      <c r="H25" s="141" t="s">
+      <c r="H25" s="115"/>
+      <c r="I25" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="138" t="s">
         <v>137</v>
       </c>
@@ -5206,11 +5248,12 @@
       <c r="E26" s="115"/>
       <c r="F26" s="115"/>
       <c r="G26" s="115"/>
-      <c r="H26" s="141" t="s">
+      <c r="H26" s="115"/>
+      <c r="I26" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="138" t="s">
         <v>145</v>
       </c>
@@ -5226,11 +5269,12 @@
       <c r="E27" s="115"/>
       <c r="F27" s="115"/>
       <c r="G27" s="115"/>
-      <c r="H27" s="141" t="s">
+      <c r="H27" s="115"/>
+      <c r="I27" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="138" t="s">
         <v>227</v>
       </c>
@@ -5246,11 +5290,12 @@
       <c r="E28" s="139"/>
       <c r="F28" s="139"/>
       <c r="G28" s="139"/>
-      <c r="H28" s="140" t="s">
+      <c r="H28" s="139"/>
+      <c r="I28" s="140" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="142" t="s">
         <v>258</v>
       </c>
@@ -5266,11 +5311,12 @@
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
       <c r="G29" s="144"/>
-      <c r="H29" s="145" t="s">
+      <c r="H29" s="144"/>
+      <c r="I29" s="145" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="107" t="s">
         <v>651</v>
       </c>
@@ -5287,14 +5333,15 @@
         <v>641</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="107"/>
+      <c r="H30" s="107" t="s">
         <v>654</v>
       </c>
-      <c r="H30" s="110" t="s">
+      <c r="I30" s="110" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="134" t="s">
         <v>23</v>
       </c>
@@ -5310,11 +5357,12 @@
       <c r="E31" s="146"/>
       <c r="F31" s="146"/>
       <c r="G31" s="146"/>
-      <c r="H31" s="147" t="s">
+      <c r="H31" s="146"/>
+      <c r="I31" s="147" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="138" t="s">
         <v>27</v>
       </c>
@@ -5330,11 +5378,12 @@
       <c r="E32" s="115"/>
       <c r="F32" s="115"/>
       <c r="G32" s="115"/>
-      <c r="H32" s="141" t="s">
+      <c r="H32" s="115"/>
+      <c r="I32" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="138" t="s">
         <v>31</v>
       </c>
@@ -5350,11 +5399,12 @@
       <c r="E33" s="115"/>
       <c r="F33" s="115"/>
       <c r="G33" s="115"/>
-      <c r="H33" s="141" t="s">
+      <c r="H33" s="115"/>
+      <c r="I33" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="138" t="s">
         <v>37</v>
       </c>
@@ -5370,11 +5420,12 @@
       <c r="E34" s="115"/>
       <c r="F34" s="115"/>
       <c r="G34" s="115"/>
-      <c r="H34" s="141" t="s">
+      <c r="H34" s="115"/>
+      <c r="I34" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="138" t="s">
         <v>39</v>
       </c>
@@ -5390,11 +5441,12 @@
       <c r="E35" s="115"/>
       <c r="F35" s="115"/>
       <c r="G35" s="115"/>
-      <c r="H35" s="141" t="s">
+      <c r="H35" s="115"/>
+      <c r="I35" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="138" t="s">
         <v>41</v>
       </c>
@@ -5410,11 +5462,12 @@
       <c r="E36" s="115"/>
       <c r="F36" s="115"/>
       <c r="G36" s="115"/>
-      <c r="H36" s="141" t="s">
+      <c r="H36" s="115"/>
+      <c r="I36" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="138" t="s">
         <v>45</v>
       </c>
@@ -5430,11 +5483,12 @@
       <c r="E37" s="115"/>
       <c r="F37" s="115"/>
       <c r="G37" s="115"/>
-      <c r="H37" s="141" t="s">
+      <c r="H37" s="115"/>
+      <c r="I37" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="138" t="s">
         <v>151</v>
       </c>
@@ -5450,11 +5504,12 @@
       <c r="E38" s="115"/>
       <c r="F38" s="115"/>
       <c r="G38" s="115"/>
-      <c r="H38" s="141" t="s">
+      <c r="H38" s="115"/>
+      <c r="I38" s="141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="142" t="s">
         <v>310</v>
       </c>
@@ -5470,11 +5525,12 @@
       <c r="E39" s="144"/>
       <c r="F39" s="144"/>
       <c r="G39" s="144"/>
-      <c r="H39" s="145" t="s">
+      <c r="H39" s="144"/>
+      <c r="I39" s="145" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="148" t="s">
         <v>19</v>
       </c>
@@ -5491,14 +5547,15 @@
         <v>637</v>
       </c>
       <c r="F40" s="149"/>
-      <c r="G40" s="149" t="s">
+      <c r="G40" s="149"/>
+      <c r="H40" s="149" t="s">
         <v>655</v>
       </c>
-      <c r="H40" s="150" t="s">
+      <c r="I40" s="150" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="119" t="s">
         <v>5</v>
       </c>
@@ -5515,14 +5572,15 @@
         <v>639</v>
       </c>
       <c r="F41" s="121"/>
-      <c r="G41" s="121" t="s">
+      <c r="G41" s="121"/>
+      <c r="H41" s="121" t="s">
         <v>656</v>
       </c>
-      <c r="H41" s="122" t="s">
+      <c r="I41" s="122" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="123" t="s">
         <v>35</v>
       </c>
@@ -5539,14 +5597,15 @@
         <v>639</v>
       </c>
       <c r="F42" s="107"/>
-      <c r="G42" s="107" t="s">
+      <c r="G42" s="107"/>
+      <c r="H42" s="107" t="s">
         <v>656</v>
       </c>
-      <c r="H42" s="124" t="s">
+      <c r="I42" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="123" t="s">
         <v>149</v>
       </c>
@@ -5563,14 +5622,15 @@
         <v>639</v>
       </c>
       <c r="F43" s="107"/>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="107"/>
+      <c r="H43" s="107" t="s">
         <v>656</v>
       </c>
-      <c r="H43" s="124" t="s">
+      <c r="I43" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="123" t="s">
         <v>153</v>
       </c>
@@ -5587,14 +5647,15 @@
         <v>639</v>
       </c>
       <c r="F44" s="107"/>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="107"/>
+      <c r="H44" s="107" t="s">
         <v>656</v>
       </c>
-      <c r="H44" s="124" t="s">
+      <c r="I44" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="125" t="s">
         <v>161</v>
       </c>
@@ -5611,14 +5672,15 @@
         <v>639</v>
       </c>
       <c r="F45" s="127"/>
-      <c r="G45" s="127" t="s">
+      <c r="G45" s="127"/>
+      <c r="H45" s="127" t="s">
         <v>656</v>
       </c>
-      <c r="H45" s="128" t="s">
+      <c r="I45" s="128" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="119" t="s">
         <v>129</v>
       </c>
@@ -5635,14 +5697,15 @@
         <v>638</v>
       </c>
       <c r="F46" s="129"/>
-      <c r="G46" s="129" t="s">
+      <c r="G46" s="129"/>
+      <c r="H46" s="129" t="s">
         <v>657</v>
       </c>
-      <c r="H46" s="130" t="s">
+      <c r="I46" s="130" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="123" t="s">
         <v>133</v>
       </c>
@@ -5659,14 +5722,15 @@
         <v>638</v>
       </c>
       <c r="F47" s="109"/>
-      <c r="G47" s="109" t="s">
+      <c r="G47" s="109"/>
+      <c r="H47" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H47" s="131" t="s">
+      <c r="I47" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="123" t="s">
         <v>135</v>
       </c>
@@ -5683,14 +5747,15 @@
         <v>638</v>
       </c>
       <c r="F48" s="109"/>
-      <c r="G48" s="109" t="s">
+      <c r="G48" s="109"/>
+      <c r="H48" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H48" s="131" t="s">
+      <c r="I48" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="123" t="s">
         <v>139</v>
       </c>
@@ -5707,14 +5772,15 @@
         <v>638</v>
       </c>
       <c r="F49" s="109"/>
-      <c r="G49" s="109" t="s">
+      <c r="G49" s="109"/>
+      <c r="H49" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H49" s="131" t="s">
+      <c r="I49" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="123" t="s">
         <v>143</v>
       </c>
@@ -5731,14 +5797,15 @@
         <v>638</v>
       </c>
       <c r="F50" s="109"/>
-      <c r="G50" s="109" t="s">
+      <c r="G50" s="109"/>
+      <c r="H50" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H50" s="131" t="s">
+      <c r="I50" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="123" t="s">
         <v>147</v>
       </c>
@@ -5755,14 +5822,15 @@
         <v>638</v>
       </c>
       <c r="F51" s="109"/>
-      <c r="G51" s="109" t="s">
+      <c r="G51" s="109"/>
+      <c r="H51" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H51" s="131" t="s">
+      <c r="I51" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="123" t="s">
         <v>155</v>
       </c>
@@ -5779,14 +5847,15 @@
         <v>638</v>
       </c>
       <c r="F52" s="109"/>
-      <c r="G52" s="109" t="s">
+      <c r="G52" s="109"/>
+      <c r="H52" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H52" s="131" t="s">
+      <c r="I52" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="123" t="s">
         <v>157</v>
       </c>
@@ -5803,14 +5872,15 @@
         <v>638</v>
       </c>
       <c r="F53" s="109"/>
-      <c r="G53" s="109" t="s">
+      <c r="G53" s="109"/>
+      <c r="H53" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H53" s="124" t="s">
+      <c r="I53" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="123" t="s">
         <v>159</v>
       </c>
@@ -5827,14 +5897,15 @@
         <v>638</v>
       </c>
       <c r="F54" s="109"/>
-      <c r="G54" s="109" t="s">
+      <c r="G54" s="109"/>
+      <c r="H54" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H54" s="124" t="s">
+      <c r="I54" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="123" t="s">
         <v>163</v>
       </c>
@@ -5851,14 +5922,15 @@
         <v>638</v>
       </c>
       <c r="F55" s="109"/>
-      <c r="G55" s="109" t="s">
+      <c r="G55" s="109"/>
+      <c r="H55" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H55" s="124" t="s">
+      <c r="I55" s="124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="154" t="s">
         <v>165</v>
       </c>
@@ -5875,14 +5947,15 @@
         <v>638</v>
       </c>
       <c r="F56" s="109"/>
-      <c r="G56" s="109" t="s">
+      <c r="G56" s="109"/>
+      <c r="H56" s="109" t="s">
         <v>657</v>
       </c>
-      <c r="H56" s="131" t="s">
+      <c r="I56" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="119" t="s">
         <v>92</v>
       </c>
@@ -5899,14 +5972,15 @@
         <v>639</v>
       </c>
       <c r="F57" s="129"/>
-      <c r="G57" s="129" t="s">
+      <c r="G57" s="129"/>
+      <c r="H57" s="129" t="s">
         <v>656</v>
       </c>
-      <c r="H57" s="130" t="s">
+      <c r="I57" s="130" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="123" t="s">
         <v>96</v>
       </c>
@@ -5923,14 +5997,15 @@
         <v>639</v>
       </c>
       <c r="F58" s="109"/>
-      <c r="G58" s="109" t="s">
+      <c r="G58" s="109"/>
+      <c r="H58" s="109" t="s">
         <v>656</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="I58" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="123" t="s">
         <v>98</v>
       </c>
@@ -5947,14 +6022,15 @@
         <v>639</v>
       </c>
       <c r="F59" s="109"/>
-      <c r="G59" s="109" t="s">
+      <c r="G59" s="109"/>
+      <c r="H59" s="109" t="s">
         <v>656</v>
       </c>
-      <c r="H59" s="131" t="s">
+      <c r="I59" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="123" t="s">
         <v>117</v>
       </c>
@@ -5971,14 +6047,15 @@
         <v>639</v>
       </c>
       <c r="F60" s="109"/>
-      <c r="G60" s="109" t="s">
+      <c r="G60" s="109"/>
+      <c r="H60" s="109" t="s">
         <v>656</v>
       </c>
-      <c r="H60" s="131" t="s">
+      <c r="I60" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="123" t="s">
         <v>119</v>
       </c>
@@ -5995,14 +6072,15 @@
         <v>639</v>
       </c>
       <c r="F61" s="109"/>
-      <c r="G61" s="109" t="s">
+      <c r="G61" s="109"/>
+      <c r="H61" s="109" t="s">
         <v>656</v>
       </c>
-      <c r="H61" s="131" t="s">
+      <c r="I61" s="131" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="125" t="s">
         <v>121</v>
       </c>
@@ -6019,14 +6097,15 @@
         <v>639</v>
       </c>
       <c r="F62" s="109"/>
-      <c r="G62" s="109" t="s">
+      <c r="G62" s="109"/>
+      <c r="H62" s="109" t="s">
         <v>656</v>
       </c>
-      <c r="H62" s="151" t="s">
+      <c r="I62" s="151" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="119" t="s">
         <v>57</v>
       </c>
@@ -6043,14 +6122,15 @@
         <v>642</v>
       </c>
       <c r="F63" s="121"/>
-      <c r="G63" s="121" t="s">
+      <c r="G63" s="121"/>
+      <c r="H63" s="121" t="s">
         <v>658</v>
       </c>
-      <c r="H63" s="155" t="s">
+      <c r="I63" s="155" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="123" t="s">
         <v>123</v>
       </c>
@@ -6067,14 +6147,15 @@
         <v>642</v>
       </c>
       <c r="F64" s="107"/>
-      <c r="G64" s="107" t="s">
+      <c r="G64" s="107"/>
+      <c r="H64" s="107" t="s">
         <v>658</v>
       </c>
-      <c r="H64" s="156" t="s">
+      <c r="I64" s="156" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="154" t="s">
         <v>127</v>
       </c>
@@ -6091,14 +6172,15 @@
         <v>642</v>
       </c>
       <c r="F65" s="107"/>
-      <c r="G65" s="107" t="s">
+      <c r="G65" s="107"/>
+      <c r="H65" s="107" t="s">
         <v>658</v>
       </c>
-      <c r="H65" s="156" t="s">
+      <c r="I65" s="156" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="158" t="s">
         <v>16</v>
       </c>
@@ -6113,14 +6195,15 @@
       </c>
       <c r="E66" s="164"/>
       <c r="F66" s="164"/>
-      <c r="G66" s="129" t="s">
+      <c r="G66" s="164"/>
+      <c r="H66" s="129" t="s">
         <v>659</v>
       </c>
-      <c r="H66" s="159" t="s">
+      <c r="I66" s="159" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="160" t="s">
         <v>268</v>
       </c>
@@ -6135,14 +6218,15 @@
       </c>
       <c r="E67" s="165"/>
       <c r="F67" s="165"/>
-      <c r="G67" s="109" t="s">
+      <c r="G67" s="165"/>
+      <c r="H67" s="109" t="s">
         <v>659</v>
       </c>
-      <c r="H67" s="161" t="s">
+      <c r="I67" s="161" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="160" t="s">
         <v>276</v>
       </c>
@@ -6157,14 +6241,15 @@
       </c>
       <c r="E68" s="165"/>
       <c r="F68" s="165"/>
-      <c r="G68" s="109" t="s">
+      <c r="G68" s="165"/>
+      <c r="H68" s="109" t="s">
         <v>659</v>
       </c>
-      <c r="H68" s="161" t="s">
+      <c r="I68" s="161" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="162" t="s">
         <v>284</v>
       </c>
@@ -6179,14 +6264,15 @@
       </c>
       <c r="E69" s="166"/>
       <c r="F69" s="166"/>
-      <c r="G69" s="132" t="s">
+      <c r="G69" s="166"/>
+      <c r="H69" s="132" t="s">
         <v>659</v>
       </c>
-      <c r="H69" s="163" t="s">
+      <c r="I69" s="163" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="119" t="s">
         <v>264</v>
       </c>
@@ -6203,14 +6289,15 @@
         <v>645</v>
       </c>
       <c r="F70" s="121"/>
-      <c r="G70" s="121" t="s">
+      <c r="G70" s="121"/>
+      <c r="H70" s="121" t="s">
         <v>660</v>
       </c>
-      <c r="H70" s="155" t="s">
+      <c r="I70" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="125" t="s">
         <v>272</v>
       </c>
@@ -6227,14 +6314,15 @@
         <v>645</v>
       </c>
       <c r="F71" s="127"/>
-      <c r="G71" s="127" t="s">
+      <c r="G71" s="127"/>
+      <c r="H71" s="127" t="s">
         <v>660</v>
       </c>
-      <c r="H71" s="157" t="s">
+      <c r="I71" s="157" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="148" t="s">
         <v>274</v>
       </c>
@@ -6249,14 +6337,15 @@
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="168"/>
-      <c r="G72" s="149" t="s">
+      <c r="G72" s="168"/>
+      <c r="H72" s="149" t="s">
         <v>661</v>
       </c>
-      <c r="H72" s="167" t="s">
+      <c r="I72" s="167" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="119" t="s">
         <v>286</v>
       </c>
@@ -6271,14 +6360,15 @@
       </c>
       <c r="E73" s="169"/>
       <c r="F73" s="169"/>
-      <c r="G73" s="121" t="s">
+      <c r="G73" s="169"/>
+      <c r="H73" s="121" t="s">
         <v>660</v>
       </c>
-      <c r="H73" s="155" t="s">
+      <c r="I73" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="123" t="s">
         <v>288</v>
       </c>
@@ -6293,14 +6383,15 @@
       </c>
       <c r="E74" s="170"/>
       <c r="F74" s="170"/>
-      <c r="G74" s="107" t="s">
+      <c r="G74" s="170"/>
+      <c r="H74" s="107" t="s">
         <v>660</v>
       </c>
-      <c r="H74" s="156" t="s">
+      <c r="I74" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="123" t="s">
         <v>290</v>
       </c>
@@ -6315,14 +6406,15 @@
       </c>
       <c r="E75" s="170"/>
       <c r="F75" s="170"/>
-      <c r="G75" s="107" t="s">
+      <c r="G75" s="170"/>
+      <c r="H75" s="107" t="s">
         <v>660</v>
       </c>
-      <c r="H75" s="156" t="s">
+      <c r="I75" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="123" t="s">
         <v>292</v>
       </c>
@@ -6337,14 +6429,15 @@
       </c>
       <c r="E76" s="170"/>
       <c r="F76" s="170"/>
-      <c r="G76" s="107" t="s">
+      <c r="G76" s="170"/>
+      <c r="H76" s="107" t="s">
         <v>660</v>
       </c>
-      <c r="H76" s="156" t="s">
+      <c r="I76" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="125" t="s">
         <v>296</v>
       </c>
@@ -6359,14 +6452,15 @@
       </c>
       <c r="E77" s="171"/>
       <c r="F77" s="171"/>
-      <c r="G77" s="127" t="s">
+      <c r="G77" s="171"/>
+      <c r="H77" s="127" t="s">
         <v>660</v>
       </c>
-      <c r="H77" s="157" t="s">
+      <c r="I77" s="157" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="119" t="s">
         <v>112</v>
       </c>
@@ -6383,14 +6477,15 @@
         <v>647</v>
       </c>
       <c r="F78" s="121"/>
-      <c r="G78" s="121" t="s">
+      <c r="G78" s="121"/>
+      <c r="H78" s="121" t="s">
         <v>659</v>
       </c>
-      <c r="H78" s="155" t="s">
+      <c r="I78" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="125" t="s">
         <v>302</v>
       </c>
@@ -6407,14 +6502,15 @@
         <v>647</v>
       </c>
       <c r="F79" s="127"/>
-      <c r="G79" s="127" t="s">
+      <c r="G79" s="127"/>
+      <c r="H79" s="127" t="s">
         <v>659</v>
       </c>
-      <c r="H79" s="157" t="s">
+      <c r="I79" s="157" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="118" t="s">
         <v>220</v>
       </c>
@@ -6431,14 +6527,15 @@
         <v>650</v>
       </c>
       <c r="F80" s="107"/>
-      <c r="G80" s="107" t="s">
+      <c r="G80" s="107"/>
+      <c r="H80" s="107" t="s">
         <v>652</v>
       </c>
-      <c r="H80" s="110" t="s">
+      <c r="I80" s="110" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>223</v>
       </c>
@@ -6455,14 +6552,15 @@
         <v>650</v>
       </c>
       <c r="F81" s="107"/>
-      <c r="G81" s="107" t="s">
+      <c r="G81" s="107"/>
+      <c r="H81" s="107" t="s">
         <v>652</v>
       </c>
-      <c r="H81" s="110" t="s">
+      <c r="I81" s="110" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>278</v>
       </c>
@@ -6479,14 +6577,15 @@
         <v>650</v>
       </c>
       <c r="F82" s="107"/>
-      <c r="G82" s="107" t="s">
+      <c r="G82" s="107"/>
+      <c r="H82" s="107" t="s">
         <v>652</v>
       </c>
-      <c r="H82" s="110" t="s">
+      <c r="I82" s="110" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117" t="s">
         <v>280</v>
       </c>
@@ -6503,14 +6602,15 @@
         <v>650</v>
       </c>
       <c r="F83" s="107"/>
-      <c r="G83" s="107" t="s">
+      <c r="G83" s="107"/>
+      <c r="H83" s="107" t="s">
         <v>652</v>
       </c>
-      <c r="H83" s="110" t="s">
+      <c r="I83" s="110" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="148" t="s">
         <v>298</v>
       </c>
@@ -6527,14 +6627,15 @@
         <v>646</v>
       </c>
       <c r="F84" s="149"/>
-      <c r="G84" s="149" t="s">
+      <c r="G84" s="149"/>
+      <c r="H84" s="149" t="s">
         <v>662</v>
       </c>
-      <c r="H84" s="167" t="s">
+      <c r="I84" s="167" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="119" t="s">
         <v>12</v>
       </c>
@@ -6551,14 +6652,15 @@
         <v>646</v>
       </c>
       <c r="F85" s="121"/>
-      <c r="G85" s="121" t="s">
+      <c r="G85" s="121"/>
+      <c r="H85" s="121" t="s">
         <v>662</v>
       </c>
-      <c r="H85" s="155" t="s">
+      <c r="I85" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="123" t="s">
         <v>304</v>
       </c>
@@ -6575,14 +6677,15 @@
         <v>646</v>
       </c>
       <c r="F86" s="107"/>
-      <c r="G86" s="107" t="s">
+      <c r="G86" s="107"/>
+      <c r="H86" s="107" t="s">
         <v>662</v>
       </c>
-      <c r="H86" s="156" t="s">
+      <c r="I86" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="123" t="s">
         <v>306</v>
       </c>
@@ -6599,14 +6702,15 @@
         <v>646</v>
       </c>
       <c r="F87" s="107"/>
-      <c r="G87" s="107" t="s">
+      <c r="G87" s="107"/>
+      <c r="H87" s="107" t="s">
         <v>662</v>
       </c>
-      <c r="H87" s="156" t="s">
+      <c r="I87" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="125" t="s">
         <v>308</v>
       </c>
@@ -6623,14 +6727,15 @@
         <v>646</v>
       </c>
       <c r="F88" s="127"/>
-      <c r="G88" s="127" t="s">
+      <c r="G88" s="127"/>
+      <c r="H88" s="127" t="s">
         <v>662</v>
       </c>
-      <c r="H88" s="157" t="s">
+      <c r="I88" s="157" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="119" t="s">
         <v>243</v>
       </c>
@@ -6647,14 +6752,15 @@
         <v>643</v>
       </c>
       <c r="F89" s="121"/>
-      <c r="G89" s="121" t="s">
+      <c r="G89" s="121"/>
+      <c r="H89" s="121" t="s">
         <v>663</v>
       </c>
-      <c r="H89" s="122" t="s">
+      <c r="I89" s="122" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="123" t="s">
         <v>254</v>
       </c>
@@ -6671,14 +6777,15 @@
         <v>643</v>
       </c>
       <c r="F90" s="107"/>
-      <c r="G90" s="107" t="s">
+      <c r="G90" s="107"/>
+      <c r="H90" s="107" t="s">
         <v>663</v>
       </c>
-      <c r="H90" s="124" t="s">
+      <c r="I90" s="124" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="125" t="s">
         <v>256</v>
       </c>
@@ -6695,14 +6802,15 @@
         <v>643</v>
       </c>
       <c r="F91" s="127"/>
-      <c r="G91" s="127" t="s">
+      <c r="G91" s="127"/>
+      <c r="H91" s="127" t="s">
         <v>663</v>
       </c>
-      <c r="H91" s="128" t="s">
+      <c r="I91" s="128" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="148" t="s">
         <v>651</v>
       </c>
@@ -6717,14 +6825,15 @@
         <v>648</v>
       </c>
       <c r="F92" s="149"/>
-      <c r="G92" s="149" t="s">
+      <c r="G92" s="149"/>
+      <c r="H92" s="149" t="s">
         <v>664</v>
       </c>
-      <c r="H92" s="167" t="s">
+      <c r="I92" s="167" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="119" t="s">
         <v>217</v>
       </c>
@@ -6741,14 +6850,15 @@
         <v>644</v>
       </c>
       <c r="F93" s="121"/>
-      <c r="G93" s="121" t="s">
+      <c r="G93" s="121"/>
+      <c r="H93" s="121" t="s">
         <v>665</v>
       </c>
-      <c r="H93" s="122" t="s">
+      <c r="I93" s="122" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="123" t="s">
         <v>237</v>
       </c>
@@ -6765,14 +6875,15 @@
         <v>644</v>
       </c>
       <c r="F94" s="107"/>
-      <c r="G94" s="107" t="s">
+      <c r="G94" s="107"/>
+      <c r="H94" s="107" t="s">
         <v>665</v>
       </c>
-      <c r="H94" s="124" t="s">
+      <c r="I94" s="124" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="125" t="s">
         <v>239</v>
       </c>
@@ -6789,14 +6900,15 @@
         <v>644</v>
       </c>
       <c r="F95" s="127"/>
-      <c r="G95" s="127" t="s">
+      <c r="G95" s="127"/>
+      <c r="H95" s="127" t="s">
         <v>665</v>
       </c>
-      <c r="H95" s="128" t="s">
+      <c r="I95" s="128" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="119" t="s">
         <v>247</v>
       </c>
@@ -6813,14 +6925,15 @@
         <v>640</v>
       </c>
       <c r="F96" s="129"/>
-      <c r="G96" s="129" t="s">
+      <c r="G96" s="129"/>
+      <c r="H96" s="129" t="s">
         <v>653</v>
       </c>
-      <c r="H96" s="159" t="s">
+      <c r="I96" s="159" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="123" t="s">
         <v>250</v>
       </c>
@@ -6837,14 +6950,15 @@
         <v>640</v>
       </c>
       <c r="F97" s="109"/>
-      <c r="G97" s="109" t="s">
+      <c r="G97" s="109"/>
+      <c r="H97" s="109" t="s">
         <v>653</v>
       </c>
-      <c r="H97" s="161" t="s">
+      <c r="I97" s="161" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="123" t="s">
         <v>252</v>
       </c>
@@ -6861,14 +6975,15 @@
         <v>640</v>
       </c>
       <c r="F98" s="109"/>
-      <c r="G98" s="109" t="s">
+      <c r="G98" s="109"/>
+      <c r="H98" s="109" t="s">
         <v>653</v>
       </c>
-      <c r="H98" s="156" t="s">
+      <c r="I98" s="156" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="123" t="s">
         <v>260</v>
       </c>
@@ -6885,14 +7000,15 @@
         <v>640</v>
       </c>
       <c r="F99" s="109"/>
-      <c r="G99" s="109" t="s">
+      <c r="G99" s="109"/>
+      <c r="H99" s="109" t="s">
         <v>653</v>
       </c>
-      <c r="H99" s="156" t="s">
+      <c r="I99" s="156" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="125" t="s">
         <v>262</v>
       </c>
@@ -6909,14 +7025,15 @@
         <v>640</v>
       </c>
       <c r="F100" s="132"/>
-      <c r="G100" s="132" t="s">
+      <c r="G100" s="132"/>
+      <c r="H100" s="132" t="s">
         <v>653</v>
       </c>
-      <c r="H100" s="157" t="s">
+      <c r="I100" s="157" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="119" t="s">
         <v>100</v>
       </c>
@@ -6933,14 +7050,15 @@
         <v>649</v>
       </c>
       <c r="F101" s="121"/>
-      <c r="G101" s="121" t="s">
+      <c r="G101" s="121"/>
+      <c r="H101" s="121" t="s">
         <v>661</v>
       </c>
-      <c r="H101" s="155" t="s">
+      <c r="I101" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="123" t="s">
         <v>104</v>
       </c>
@@ -6957,14 +7075,15 @@
         <v>649</v>
       </c>
       <c r="F102" s="107"/>
-      <c r="G102" s="107" t="s">
+      <c r="G102" s="107"/>
+      <c r="H102" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H102" s="156" t="s">
+      <c r="I102" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="123" t="s">
         <v>106</v>
       </c>
@@ -6981,14 +7100,15 @@
         <v>649</v>
       </c>
       <c r="F103" s="107"/>
-      <c r="G103" s="107" t="s">
+      <c r="G103" s="107"/>
+      <c r="H103" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H103" s="161" t="s">
+      <c r="I103" s="161" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="123" t="s">
         <v>108</v>
       </c>
@@ -7005,14 +7125,15 @@
         <v>649</v>
       </c>
       <c r="F104" s="107"/>
-      <c r="G104" s="107" t="s">
+      <c r="G104" s="107"/>
+      <c r="H104" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H104" s="156" t="s">
+      <c r="I104" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="123" t="s">
         <v>110</v>
       </c>
@@ -7029,14 +7150,15 @@
         <v>649</v>
       </c>
       <c r="F105" s="107"/>
-      <c r="G105" s="107" t="s">
+      <c r="G105" s="107"/>
+      <c r="H105" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H105" s="156" t="s">
+      <c r="I105" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="123" t="s">
         <v>115</v>
       </c>
@@ -7053,14 +7175,15 @@
         <v>649</v>
       </c>
       <c r="F106" s="107"/>
-      <c r="G106" s="107" t="s">
+      <c r="G106" s="107"/>
+      <c r="H106" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H106" s="156" t="s">
+      <c r="I106" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="123" t="s">
         <v>235</v>
       </c>
@@ -7077,14 +7200,15 @@
         <v>649</v>
       </c>
       <c r="F107" s="107"/>
-      <c r="G107" s="107" t="s">
+      <c r="G107" s="107"/>
+      <c r="H107" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H107" s="156" t="s">
+      <c r="I107" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="123" t="s">
         <v>270</v>
       </c>
@@ -7101,14 +7225,15 @@
         <v>649</v>
       </c>
       <c r="F108" s="107"/>
-      <c r="G108" s="107" t="s">
+      <c r="G108" s="107"/>
+      <c r="H108" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H108" s="161" t="s">
+      <c r="I108" s="161" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="123" t="s">
         <v>282</v>
       </c>
@@ -7125,14 +7250,15 @@
         <v>649</v>
       </c>
       <c r="F109" s="107"/>
-      <c r="G109" s="107" t="s">
+      <c r="G109" s="107"/>
+      <c r="H109" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="H109" s="161" t="s">
+      <c r="I109" s="161" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="125" t="s">
         <v>294</v>
       </c>
@@ -7149,14 +7275,15 @@
         <v>649</v>
       </c>
       <c r="F110" s="127"/>
-      <c r="G110" s="127" t="s">
+      <c r="G110" s="127"/>
+      <c r="H110" s="127" t="s">
         <v>661</v>
       </c>
-      <c r="H110" s="163" t="s">
+      <c r="I110" s="163" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="148" t="s">
         <v>175</v>
       </c>
@@ -7173,16 +7300,19 @@
         <v>630</v>
       </c>
       <c r="F111" s="149" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G111" s="149" t="s">
+        <v>682</v>
+      </c>
+      <c r="H111" s="149" t="s">
         <v>666</v>
       </c>
-      <c r="H111" s="150" t="s">
+      <c r="I111" s="150" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="148" t="s">
         <v>171</v>
       </c>
@@ -7199,16 +7329,17 @@
         <v>629</v>
       </c>
       <c r="F112" s="149" t="s">
-        <v>680</v>
-      </c>
-      <c r="G112" s="149" t="s">
+        <v>679</v>
+      </c>
+      <c r="G112" s="149"/>
+      <c r="H112" s="149" t="s">
         <v>667</v>
       </c>
-      <c r="H112" s="150" t="s">
+      <c r="I112" s="150" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="119" t="s">
         <v>183</v>
       </c>
@@ -7228,13 +7359,16 @@
         <v>668</v>
       </c>
       <c r="G113" s="121" t="s">
+        <v>684</v>
+      </c>
+      <c r="H113" s="121" t="s">
         <v>668</v>
       </c>
-      <c r="H113" s="122" t="s">
+      <c r="I113" s="122" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="125" t="s">
         <v>187</v>
       </c>
@@ -7252,13 +7386,16 @@
       </c>
       <c r="F114" s="127"/>
       <c r="G114" s="127" t="s">
+        <v>684</v>
+      </c>
+      <c r="H114" s="127" t="s">
         <v>668</v>
       </c>
-      <c r="H114" s="151" t="s">
+      <c r="I114" s="151" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="148" t="s">
         <v>179</v>
       </c>
@@ -7278,13 +7415,16 @@
         <v>669</v>
       </c>
       <c r="G115" s="172" t="s">
+        <v>685</v>
+      </c>
+      <c r="H115" s="172" t="s">
         <v>669</v>
       </c>
-      <c r="H115" s="173" t="s">
+      <c r="I115" s="173" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="119" t="s">
         <v>167</v>
       </c>
@@ -7301,16 +7441,19 @@
         <v>627</v>
       </c>
       <c r="F116" s="174" t="s">
-        <v>679</v>
-      </c>
-      <c r="G116" s="331" t="s">
+        <v>678</v>
+      </c>
+      <c r="G116" s="174" t="s">
+        <v>683</v>
+      </c>
+      <c r="H116" s="177" t="s">
         <v>670</v>
       </c>
-      <c r="H116" s="130" t="s">
+      <c r="I116" s="130" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="123" t="s">
         <v>189</v>
       </c>
@@ -7327,14 +7470,15 @@
         <v>627</v>
       </c>
       <c r="F117" s="175"/>
-      <c r="G117" s="175" t="s">
+      <c r="G117" s="175"/>
+      <c r="H117" s="175" t="s">
         <v>670</v>
       </c>
-      <c r="H117" s="131" t="s">
+      <c r="I117" s="131" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="123" t="s">
         <v>191</v>
       </c>
@@ -7351,14 +7495,15 @@
         <v>627</v>
       </c>
       <c r="F118" s="175"/>
-      <c r="G118" s="175" t="s">
+      <c r="G118" s="175"/>
+      <c r="H118" s="175" t="s">
         <v>670</v>
       </c>
-      <c r="H118" s="131" t="s">
+      <c r="I118" s="131" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="125" t="s">
         <v>206</v>
       </c>
@@ -7375,14 +7520,15 @@
         <v>627</v>
       </c>
       <c r="F119" s="176"/>
-      <c r="G119" s="176" t="s">
+      <c r="G119" s="176"/>
+      <c r="H119" s="176" t="s">
         <v>670</v>
       </c>
-      <c r="H119" s="151" t="s">
+      <c r="I119" s="151" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="148" t="s">
         <v>197</v>
       </c>
@@ -7399,14 +7545,15 @@
         <v>636</v>
       </c>
       <c r="F120" s="172"/>
-      <c r="G120" s="172" t="s">
+      <c r="G120" s="172"/>
+      <c r="H120" s="172" t="s">
         <v>671</v>
       </c>
-      <c r="H120" s="173" t="s">
+      <c r="I120" s="173" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="119" t="s">
         <v>84</v>
       </c>
@@ -7423,14 +7570,15 @@
         <v>636</v>
       </c>
       <c r="F121" s="129"/>
-      <c r="G121" s="129" t="s">
+      <c r="G121" s="129"/>
+      <c r="H121" s="129" t="s">
         <v>671</v>
       </c>
-      <c r="H121" s="130" t="s">
+      <c r="I121" s="130" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="123" t="s">
         <v>193</v>
       </c>
@@ -7447,14 +7595,15 @@
         <v>636</v>
       </c>
       <c r="F122" s="109"/>
-      <c r="G122" s="109" t="s">
+      <c r="G122" s="109"/>
+      <c r="H122" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="H122" s="131" t="s">
+      <c r="I122" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="123" t="s">
         <v>195</v>
       </c>
@@ -7471,14 +7620,15 @@
         <v>636</v>
       </c>
       <c r="F123" s="109"/>
-      <c r="G123" s="109" t="s">
+      <c r="G123" s="109"/>
+      <c r="H123" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="H123" s="131" t="s">
+      <c r="I123" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="125" t="s">
         <v>204</v>
       </c>
@@ -7495,14 +7645,15 @@
         <v>636</v>
       </c>
       <c r="F124" s="132"/>
-      <c r="G124" s="132" t="s">
+      <c r="G124" s="132"/>
+      <c r="H124" s="132" t="s">
         <v>671</v>
       </c>
-      <c r="H124" s="151" t="s">
+      <c r="I124" s="151" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="119" t="s">
         <v>77</v>
       </c>
@@ -7519,14 +7670,15 @@
         <v>635</v>
       </c>
       <c r="F125" s="129"/>
-      <c r="G125" s="129" t="s">
+      <c r="G125" s="129"/>
+      <c r="H125" s="129" t="s">
         <v>672</v>
       </c>
-      <c r="H125" s="130" t="s">
+      <c r="I125" s="130" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="123" t="s">
         <v>82</v>
       </c>
@@ -7543,14 +7695,15 @@
         <v>635</v>
       </c>
       <c r="F126" s="109"/>
-      <c r="G126" s="109" t="s">
+      <c r="G126" s="109"/>
+      <c r="H126" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="H126" s="131" t="s">
+      <c r="I126" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="123" t="s">
         <v>141</v>
       </c>
@@ -7567,14 +7720,15 @@
         <v>635</v>
       </c>
       <c r="F127" s="109"/>
-      <c r="G127" s="109" t="s">
+      <c r="G127" s="109"/>
+      <c r="H127" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="H127" s="131" t="s">
+      <c r="I127" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="123" t="s">
         <v>215</v>
       </c>
@@ -7591,14 +7745,15 @@
         <v>635</v>
       </c>
       <c r="F128" s="109"/>
-      <c r="G128" s="109" t="s">
+      <c r="G128" s="109"/>
+      <c r="H128" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="H128" s="131" t="s">
+      <c r="I128" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="123" t="s">
         <v>225</v>
       </c>
@@ -7615,14 +7770,15 @@
         <v>635</v>
       </c>
       <c r="F129" s="109"/>
-      <c r="G129" s="109" t="s">
+      <c r="G129" s="109"/>
+      <c r="H129" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="H129" s="131" t="s">
+      <c r="I129" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="123" t="s">
         <v>231</v>
       </c>
@@ -7639,14 +7795,15 @@
         <v>635</v>
       </c>
       <c r="F130" s="109"/>
-      <c r="G130" s="109" t="s">
+      <c r="G130" s="109"/>
+      <c r="H130" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="H130" s="131" t="s">
+      <c r="I130" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="125" t="s">
         <v>233</v>
       </c>
@@ -7663,14 +7820,15 @@
         <v>635</v>
       </c>
       <c r="F131" s="132"/>
-      <c r="G131" s="132" t="s">
+      <c r="G131" s="132"/>
+      <c r="H131" s="132" t="s">
         <v>672</v>
       </c>
-      <c r="H131" s="151" t="s">
+      <c r="I131" s="151" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="119" t="s">
         <v>201</v>
       </c>
@@ -7687,14 +7845,15 @@
         <v>636</v>
       </c>
       <c r="F132" s="129"/>
-      <c r="G132" s="129" t="s">
+      <c r="G132" s="129"/>
+      <c r="H132" s="129" t="s">
         <v>671</v>
       </c>
-      <c r="H132" s="130" t="s">
+      <c r="I132" s="130" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="123" t="s">
         <v>229</v>
       </c>
@@ -7711,14 +7870,15 @@
         <v>636</v>
       </c>
       <c r="F133" s="109"/>
-      <c r="G133" s="109" t="s">
+      <c r="G133" s="109"/>
+      <c r="H133" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="H133" s="131" t="s">
+      <c r="I133" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="125" t="s">
         <v>241</v>
       </c>
@@ -7735,14 +7895,15 @@
         <v>636</v>
       </c>
       <c r="F134" s="132"/>
-      <c r="G134" s="132" t="s">
+      <c r="G134" s="132"/>
+      <c r="H134" s="132" t="s">
         <v>671</v>
       </c>
-      <c r="H134" s="151" t="s">
+      <c r="I134" s="151" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="119" t="s">
         <v>208</v>
       </c>
@@ -7759,14 +7920,15 @@
         <v>634</v>
       </c>
       <c r="F135" s="129"/>
-      <c r="G135" s="129" t="s">
+      <c r="G135" s="129"/>
+      <c r="H135" s="129" t="s">
         <v>673</v>
       </c>
-      <c r="H135" s="130" t="s">
+      <c r="I135" s="130" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="123" t="s">
         <v>211</v>
       </c>
@@ -7783,14 +7945,15 @@
         <v>634</v>
       </c>
       <c r="F136" s="109"/>
-      <c r="G136" s="109" t="s">
+      <c r="G136" s="109"/>
+      <c r="H136" s="109" t="s">
         <v>673</v>
       </c>
-      <c r="H136" s="131" t="s">
+      <c r="I136" s="131" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="125" t="s">
         <v>213</v>
       </c>
@@ -7807,14 +7970,15 @@
         <v>634</v>
       </c>
       <c r="F137" s="132"/>
-      <c r="G137" s="132" t="s">
+      <c r="G137" s="132"/>
+      <c r="H137" s="132" t="s">
         <v>673</v>
       </c>
-      <c r="H137" s="128" t="s">
+      <c r="I137" s="128" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="107" t="s">
         <v>651</v>
       </c>
@@ -7829,22 +7993,23 @@
         <v>633</v>
       </c>
       <c r="F138" s="111"/>
-      <c r="G138" s="111" t="s">
+      <c r="G138" s="111"/>
+      <c r="H138" s="111" t="s">
         <v>674</v>
       </c>
-      <c r="H138" s="107" t="s">
+      <c r="I138" s="107" t="s">
         <v>332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H138" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}">
-    <filterColumn colId="6">
+  <autoFilter ref="B1:I138" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}">
+    <filterColumn colId="7">
       <filters>
         <filter val="Food and Agriculture"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H137">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I137">
     <sortCondition ref="C2:C137"/>
   </sortState>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8641,22 +8806,22 @@
       </c>
     </row>
     <row r="4" spans="1:206" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="223" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="223" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="219" t="s">
         <v>549</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="E4" s="199" t="s">
+      <c r="E4" s="221" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="219" t="s">
         <v>457</v>
       </c>
       <c r="G4" s="88" t="s">
@@ -8664,12 +8829,12 @@
       </c>
     </row>
     <row r="5" spans="1:206" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="193"/>
+      <c r="A5" s="246"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="235"/>
       <c r="G5" s="88" t="s">
         <v>429</v>
       </c>
@@ -8912,22 +9077,22 @@
       <c r="GX7" s="9"/>
     </row>
     <row r="8" spans="1:206" s="41" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="240" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="240" t="s">
         <v>543</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="242" t="s">
         <v>542</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="242" t="s">
         <v>534</v>
       </c>
-      <c r="E8" s="205" t="s">
+      <c r="E8" s="244" t="s">
         <v>533</v>
       </c>
-      <c r="F8" s="203" t="s">
+      <c r="F8" s="242" t="s">
         <v>532</v>
       </c>
       <c r="G8" s="67" t="s">
@@ -9134,12 +9299,12 @@
       <c r="GX8" s="9"/>
     </row>
     <row r="9" spans="1:206" s="41" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="204"/>
+      <c r="A9" s="241"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="243"/>
       <c r="G9" s="67" t="s">
         <v>530</v>
       </c>
@@ -11944,22 +12109,22 @@
       <c r="GX21" s="9"/>
     </row>
     <row r="22" spans="1:206" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="191" t="s">
+      <c r="B22" s="229" t="s">
         <v>524</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="230" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="E22" s="207" t="s">
+      <c r="E22" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="F22" s="192" t="s">
+      <c r="F22" s="230" t="s">
         <v>448</v>
       </c>
       <c r="G22" s="87" t="s">
@@ -11967,12 +12132,12 @@
       </c>
     </row>
     <row r="23" spans="1:206" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="193"/>
+      <c r="A23" s="246"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="235"/>
       <c r="G23" s="87" t="s">
         <v>359</v>
       </c>
@@ -12869,22 +13034,22 @@
       <c r="GX28" s="9"/>
     </row>
     <row r="29" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="189" t="s">
+      <c r="A29" s="193" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="193" t="s">
         <v>516</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="195" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="195" t="s">
         <v>371</v>
       </c>
-      <c r="E29" s="210" t="s">
+      <c r="E29" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="208" t="s">
+      <c r="F29" s="195" t="s">
         <v>369</v>
       </c>
       <c r="G29" s="76" t="s">
@@ -13091,12 +13256,12 @@
       <c r="GX29" s="9"/>
     </row>
     <row r="30" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="190"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="209"/>
+      <c r="A30" s="194"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="196"/>
       <c r="G30" s="76" t="s">
         <v>367</v>
       </c>
@@ -13737,22 +13902,22 @@
       <c r="GX32" s="9"/>
     </row>
     <row r="33" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="212" t="s">
+      <c r="A33" s="237" t="s">
         <v>460</v>
       </c>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="237" t="s">
         <v>503</v>
       </c>
-      <c r="C33" s="213" t="s">
+      <c r="C33" s="238" t="s">
         <v>509</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="238" t="s">
         <v>492</v>
       </c>
-      <c r="E33" s="214" t="s">
+      <c r="E33" s="239" t="s">
         <v>491</v>
       </c>
-      <c r="F33" s="213" t="s">
+      <c r="F33" s="238" t="s">
         <v>490</v>
       </c>
       <c r="G33" s="32" t="s">
@@ -13959,12 +14124,12 @@
       <c r="GX33" s="9"/>
     </row>
     <row r="34" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="177"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="178"/>
+      <c r="A34" s="234"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="27" t="s">
         <v>488</v>
       </c>
@@ -14169,22 +14334,22 @@
       <c r="GX34" s="9"/>
     </row>
     <row r="35" spans="1:206" s="25" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="234" t="s">
         <v>460</v>
       </c>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="C35" s="178" t="s">
+      <c r="C35" s="232" t="s">
         <v>508</v>
       </c>
-      <c r="D35" s="178" t="s">
+      <c r="D35" s="232" t="s">
         <v>492</v>
       </c>
-      <c r="E35" s="215" t="s">
+      <c r="E35" s="233" t="s">
         <v>507</v>
       </c>
-      <c r="F35" s="178" t="s">
+      <c r="F35" s="232" t="s">
         <v>506</v>
       </c>
       <c r="G35" s="27" t="s">
@@ -14391,12 +14556,12 @@
       <c r="GX35" s="9"/>
     </row>
     <row r="36" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="178"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="232"/>
       <c r="G36" s="27" t="s">
         <v>504</v>
       </c>
@@ -15269,16 +15434,16 @@
       <c r="B40" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="232" t="s">
         <v>494</v>
       </c>
-      <c r="D40" s="178" t="s">
+      <c r="D40" s="232" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="233" t="s">
         <v>432</v>
       </c>
-      <c r="F40" s="178" t="s">
+      <c r="F40" s="232" t="s">
         <v>457</v>
       </c>
       <c r="G40" s="27" t="s">
@@ -15491,10 +15656,10 @@
       <c r="B41" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="178"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="232"/>
       <c r="G41" s="27" t="s">
         <v>429</v>
       </c>
@@ -15705,16 +15870,16 @@
       <c r="B42" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="232" t="s">
         <v>493</v>
       </c>
-      <c r="D42" s="178" t="s">
+      <c r="D42" s="232" t="s">
         <v>492</v>
       </c>
-      <c r="E42" s="215" t="s">
+      <c r="E42" s="233" t="s">
         <v>491</v>
       </c>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="232" t="s">
         <v>490</v>
       </c>
       <c r="G42" s="27" t="s">
@@ -15927,10 +16092,10 @@
       <c r="B43" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="178"/>
+      <c r="C43" s="232"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="232"/>
       <c r="G43" s="27" t="s">
         <v>488</v>
       </c>
@@ -16135,22 +16300,22 @@
       <c r="GX43" s="9"/>
     </row>
     <row r="44" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="234" t="s">
         <v>460</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="232" t="s">
         <v>487</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="232" t="s">
         <v>433</v>
       </c>
-      <c r="E44" s="215" t="s">
+      <c r="E44" s="233" t="s">
         <v>432</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="232" t="s">
         <v>457</v>
       </c>
       <c r="G44" s="27" t="s">
@@ -16357,12 +16522,12 @@
       <c r="GX44" s="9"/>
     </row>
     <row r="45" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="178"/>
+      <c r="A45" s="234"/>
+      <c r="B45" s="234"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="232"/>
       <c r="G45" s="27" t="s">
         <v>429</v>
       </c>
@@ -17011,22 +17176,22 @@
       <c r="GX47" s="9"/>
     </row>
     <row r="48" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="177" t="s">
+      <c r="A48" s="234" t="s">
         <v>460</v>
       </c>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="C48" s="178" t="s">
+      <c r="C48" s="232" t="s">
         <v>477</v>
       </c>
-      <c r="D48" s="178" t="s">
+      <c r="D48" s="232" t="s">
         <v>476</v>
       </c>
-      <c r="E48" s="215" t="s">
+      <c r="E48" s="233" t="s">
         <v>475</v>
       </c>
-      <c r="F48" s="178" t="s">
+      <c r="F48" s="232" t="s">
         <v>474</v>
       </c>
       <c r="G48" s="27" t="s">
@@ -17233,12 +17398,12 @@
       <c r="GX48" s="9"/>
     </row>
     <row r="49" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="177"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="215"/>
-      <c r="F49" s="178"/>
+      <c r="A49" s="234"/>
+      <c r="B49" s="234"/>
+      <c r="C49" s="232"/>
+      <c r="D49" s="232"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="232"/>
       <c r="G49" s="27" t="s">
         <v>472</v>
       </c>
@@ -17443,12 +17608,12 @@
       <c r="GX49" s="9"/>
     </row>
     <row r="50" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="178"/>
+      <c r="A50" s="234"/>
+      <c r="B50" s="234"/>
+      <c r="C50" s="232"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="232"/>
       <c r="G50" s="27" t="s">
         <v>471</v>
       </c>
@@ -17653,22 +17818,22 @@
       <c r="GX50" s="9"/>
     </row>
     <row r="51" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="234" t="s">
         <v>460</v>
       </c>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="C51" s="178" t="s">
+      <c r="C51" s="232" t="s">
         <v>470</v>
       </c>
-      <c r="D51" s="178" t="s">
+      <c r="D51" s="232" t="s">
         <v>355</v>
       </c>
-      <c r="E51" s="215" t="s">
+      <c r="E51" s="233" t="s">
         <v>354</v>
       </c>
-      <c r="F51" s="178" t="s">
+      <c r="F51" s="232" t="s">
         <v>469</v>
       </c>
       <c r="G51" s="27" t="s">
@@ -17875,12 +18040,12 @@
       <c r="GX51" s="9"/>
     </row>
     <row r="52" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="177"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="178"/>
+      <c r="A52" s="234"/>
+      <c r="B52" s="234"/>
+      <c r="C52" s="232"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="232"/>
       <c r="G52" s="27" t="s">
         <v>351</v>
       </c>
@@ -18085,22 +18250,22 @@
       <c r="GX52" s="9"/>
     </row>
     <row r="53" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="177" t="s">
+      <c r="A53" s="234" t="s">
         <v>460</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="178" t="s">
+      <c r="C53" s="232" t="s">
         <v>468</v>
       </c>
-      <c r="D53" s="178" t="s">
+      <c r="D53" s="232" t="s">
         <v>467</v>
       </c>
-      <c r="E53" s="215" t="s">
+      <c r="E53" s="233" t="s">
         <v>466</v>
       </c>
-      <c r="F53" s="178" t="s">
+      <c r="F53" s="232" t="s">
         <v>465</v>
       </c>
       <c r="G53" s="27" t="s">
@@ -18307,12 +18472,12 @@
       <c r="GX53" s="9"/>
     </row>
     <row r="54" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="177"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="178"/>
+      <c r="A54" s="234"/>
+      <c r="B54" s="234"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="232"/>
       <c r="G54" s="27" t="s">
         <v>463</v>
       </c>
@@ -18517,12 +18682,12 @@
       <c r="GX54" s="9"/>
     </row>
     <row r="55" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="178"/>
+      <c r="A55" s="234"/>
+      <c r="B55" s="234"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="232"/>
+      <c r="E55" s="233"/>
+      <c r="F55" s="232"/>
       <c r="G55" s="27" t="s">
         <v>462</v>
       </c>
@@ -18727,22 +18892,22 @@
       <c r="GX55" s="9"/>
     </row>
     <row r="56" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="177" t="s">
+      <c r="A56" s="234" t="s">
         <v>460</v>
       </c>
-      <c r="B56" s="177" t="s">
+      <c r="B56" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="C56" s="178" t="s">
+      <c r="C56" s="232" t="s">
         <v>461</v>
       </c>
-      <c r="D56" s="178" t="s">
+      <c r="D56" s="232" t="s">
         <v>433</v>
       </c>
-      <c r="E56" s="215" t="s">
+      <c r="E56" s="233" t="s">
         <v>432</v>
       </c>
-      <c r="F56" s="178" t="s">
+      <c r="F56" s="232" t="s">
         <v>457</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -18949,12 +19114,12 @@
       <c r="GX56" s="9"/>
     </row>
     <row r="57" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="177"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="215"/>
-      <c r="F57" s="178"/>
+      <c r="A57" s="234"/>
+      <c r="B57" s="234"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="232"/>
+      <c r="E57" s="233"/>
+      <c r="F57" s="232"/>
       <c r="G57" s="27" t="s">
         <v>429</v>
       </c>
@@ -19159,22 +19324,22 @@
       <c r="GX57" s="9"/>
     </row>
     <row r="58" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="179" t="s">
+      <c r="A58" s="247" t="s">
         <v>460</v>
       </c>
-      <c r="B58" s="185" t="s">
+      <c r="B58" s="249" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="194" t="s">
+      <c r="C58" s="225" t="s">
         <v>458</v>
       </c>
-      <c r="D58" s="194" t="s">
+      <c r="D58" s="225" t="s">
         <v>433</v>
       </c>
-      <c r="E58" s="216" t="s">
+      <c r="E58" s="227" t="s">
         <v>432</v>
       </c>
-      <c r="F58" s="194" t="s">
+      <c r="F58" s="225" t="s">
         <v>457</v>
       </c>
       <c r="G58" s="27" t="s">
@@ -19381,12 +19546,12 @@
       <c r="GX58" s="9"/>
     </row>
     <row r="59" spans="1:206" s="25" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="180"/>
-      <c r="B59" s="186"/>
-      <c r="C59" s="195"/>
-      <c r="D59" s="195"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="195"/>
+      <c r="A59" s="248"/>
+      <c r="B59" s="250"/>
+      <c r="C59" s="226"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="228"/>
+      <c r="F59" s="226"/>
       <c r="G59" s="26" t="s">
         <v>429</v>
       </c>
@@ -19591,22 +19756,22 @@
       <c r="GX59" s="9"/>
     </row>
     <row r="60" spans="1:206" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="191" t="s">
+      <c r="A60" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="B60" s="191" t="s">
+      <c r="B60" s="229" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="192" t="s">
+      <c r="C60" s="230" t="s">
         <v>456</v>
       </c>
-      <c r="D60" s="192" t="s">
+      <c r="D60" s="230" t="s">
         <v>433</v>
       </c>
-      <c r="E60" s="207" t="s">
+      <c r="E60" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="F60" s="192" t="s">
+      <c r="F60" s="230" t="s">
         <v>454</v>
       </c>
       <c r="G60" s="87" t="s">
@@ -19614,12 +19779,12 @@
       </c>
     </row>
     <row r="61" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="196"/>
-      <c r="B61" s="196"/>
-      <c r="C61" s="198"/>
-      <c r="D61" s="198"/>
-      <c r="E61" s="218"/>
-      <c r="F61" s="198"/>
+      <c r="A61" s="224"/>
+      <c r="B61" s="224"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="220"/>
+      <c r="E61" s="222"/>
+      <c r="F61" s="220"/>
       <c r="G61" s="87" t="s">
         <v>452</v>
       </c>
@@ -19843,22 +20008,22 @@
       <c r="G62" s="88"/>
     </row>
     <row r="63" spans="1:206" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="187" t="s">
+      <c r="A63" s="223" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="187" t="s">
+      <c r="B63" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C63" s="197" t="s">
+      <c r="C63" s="219" t="s">
         <v>449</v>
       </c>
-      <c r="D63" s="197" t="s">
+      <c r="D63" s="219" t="s">
         <v>363</v>
       </c>
-      <c r="E63" s="199" t="s">
+      <c r="E63" s="221" t="s">
         <v>362</v>
       </c>
-      <c r="F63" s="197" t="s">
+      <c r="F63" s="219" t="s">
         <v>448</v>
       </c>
       <c r="G63" s="23" t="s">
@@ -19866,12 +20031,12 @@
       </c>
     </row>
     <row r="64" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="196"/>
-      <c r="B64" s="196"/>
-      <c r="C64" s="198"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="218"/>
-      <c r="F64" s="198"/>
+      <c r="A64" s="224"/>
+      <c r="B64" s="224"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
+      <c r="E64" s="222"/>
+      <c r="F64" s="220"/>
       <c r="G64" s="23" t="s">
         <v>359</v>
       </c>
@@ -20076,22 +20241,22 @@
       <c r="GX64" s="9"/>
     </row>
     <row r="65" spans="1:206" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="187" t="s">
+      <c r="A65" s="223" t="s">
         <v>358</v>
       </c>
-      <c r="B65" s="187" t="s">
+      <c r="B65" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="197" t="s">
+      <c r="C65" s="219" t="s">
         <v>447</v>
       </c>
-      <c r="D65" s="197" t="s">
+      <c r="D65" s="219" t="s">
         <v>382</v>
       </c>
-      <c r="E65" s="199" t="s">
+      <c r="E65" s="221" t="s">
         <v>389</v>
       </c>
-      <c r="F65" s="197" t="s">
+      <c r="F65" s="219" t="s">
         <v>388</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -20099,12 +20264,12 @@
       </c>
     </row>
     <row r="66" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="196"/>
-      <c r="B66" s="196"/>
-      <c r="C66" s="198"/>
-      <c r="D66" s="198"/>
-      <c r="E66" s="218"/>
-      <c r="F66" s="198"/>
+      <c r="A66" s="224"/>
+      <c r="B66" s="224"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="222"/>
+      <c r="F66" s="220"/>
       <c r="G66" s="23" t="s">
         <v>386</v>
       </c>
@@ -20309,22 +20474,22 @@
       <c r="GX66" s="9"/>
     </row>
     <row r="67" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A67" s="187" t="s">
+      <c r="A67" s="223" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="187" t="s">
+      <c r="B67" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C67" s="197" t="s">
+      <c r="C67" s="219" t="s">
         <v>446</v>
       </c>
-      <c r="D67" s="197" t="s">
+      <c r="D67" s="219" t="s">
         <v>426</v>
       </c>
-      <c r="E67" s="199" t="s">
+      <c r="E67" s="221" t="s">
         <v>425</v>
       </c>
-      <c r="F67" s="197" t="s">
+      <c r="F67" s="219" t="s">
         <v>424</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -20332,12 +20497,12 @@
       </c>
     </row>
     <row r="68" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="218"/>
-      <c r="F68" s="198"/>
+      <c r="A68" s="224"/>
+      <c r="B68" s="224"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
+      <c r="E68" s="222"/>
+      <c r="F68" s="220"/>
       <c r="G68" s="23" t="s">
         <v>445</v>
       </c>
@@ -20588,22 +20753,22 @@
       </c>
     </row>
     <row r="71" spans="1:206" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="189" t="s">
+      <c r="A71" s="193" t="s">
         <v>374</v>
       </c>
-      <c r="B71" s="189" t="s">
+      <c r="B71" s="193" t="s">
         <v>435</v>
       </c>
-      <c r="C71" s="208" t="s">
+      <c r="C71" s="195" t="s">
         <v>434</v>
       </c>
-      <c r="D71" s="208" t="s">
+      <c r="D71" s="195" t="s">
         <v>433</v>
       </c>
-      <c r="E71" s="210" t="s">
+      <c r="E71" s="197" t="s">
         <v>432</v>
       </c>
-      <c r="F71" s="208" t="s">
+      <c r="F71" s="195" t="s">
         <v>431</v>
       </c>
       <c r="G71" s="77" t="s">
@@ -20810,12 +20975,12 @@
       <c r="GX71" s="9"/>
     </row>
     <row r="72" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="190"/>
-      <c r="B72" s="190"/>
-      <c r="C72" s="209"/>
-      <c r="D72" s="209"/>
-      <c r="E72" s="211"/>
-      <c r="F72" s="209"/>
+      <c r="A72" s="194"/>
+      <c r="B72" s="194"/>
+      <c r="C72" s="196"/>
+      <c r="D72" s="196"/>
+      <c r="E72" s="198"/>
+      <c r="F72" s="196"/>
       <c r="G72" s="77" t="s">
         <v>429</v>
       </c>
@@ -21020,25 +21185,25 @@
       <c r="GX72" s="9"/>
     </row>
     <row r="73" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="231" t="s">
+      <c r="A73" s="199" t="s">
         <v>411</v>
       </c>
-      <c r="B73" s="231" t="s">
+      <c r="B73" s="199" t="s">
         <v>428</v>
       </c>
-      <c r="C73" s="219" t="s">
+      <c r="C73" s="201" t="s">
         <v>417</v>
       </c>
-      <c r="D73" s="219" t="s">
+      <c r="D73" s="201" t="s">
         <v>416</v>
       </c>
-      <c r="E73" s="221" t="s">
+      <c r="E73" s="203" t="s">
         <v>415</v>
       </c>
-      <c r="F73" s="219" t="s">
+      <c r="F73" s="201" t="s">
         <v>414</v>
       </c>
-      <c r="G73" s="223" t="s">
+      <c r="G73" s="213" t="s">
         <v>413</v>
       </c>
       <c r="H73" s="9"/>
@@ -21242,13 +21407,13 @@
       <c r="GX73" s="9"/>
     </row>
     <row r="74" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="232"/>
-      <c r="B74" s="232"/>
-      <c r="C74" s="220"/>
-      <c r="D74" s="220"/>
-      <c r="E74" s="222"/>
-      <c r="F74" s="220"/>
-      <c r="G74" s="224"/>
+      <c r="A74" s="200"/>
+      <c r="B74" s="200"/>
+      <c r="C74" s="202"/>
+      <c r="D74" s="202"/>
+      <c r="E74" s="204"/>
+      <c r="F74" s="202"/>
+      <c r="G74" s="214"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -21450,22 +21615,22 @@
       <c r="GX74" s="9"/>
     </row>
     <row r="75" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="225" t="s">
+      <c r="A75" s="211" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="225" t="s">
+      <c r="B75" s="211" t="s">
         <v>421</v>
       </c>
-      <c r="C75" s="227" t="s">
+      <c r="C75" s="212" t="s">
         <v>427</v>
       </c>
-      <c r="D75" s="227" t="s">
+      <c r="D75" s="212" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="229" t="s">
+      <c r="E75" s="215" t="s">
         <v>425</v>
       </c>
-      <c r="F75" s="227" t="s">
+      <c r="F75" s="212" t="s">
         <v>424</v>
       </c>
       <c r="G75" s="80" t="s">
@@ -21672,12 +21837,12 @@
       <c r="GX75" s="9"/>
     </row>
     <row r="76" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="226"/>
-      <c r="B76" s="226"/>
-      <c r="C76" s="228"/>
-      <c r="D76" s="228"/>
-      <c r="E76" s="230"/>
-      <c r="F76" s="228"/>
+      <c r="A76" s="206"/>
+      <c r="B76" s="206"/>
+      <c r="C76" s="208"/>
+      <c r="D76" s="208"/>
+      <c r="E76" s="210"/>
+      <c r="F76" s="208"/>
       <c r="G76" s="80" t="s">
         <v>422</v>
       </c>
@@ -21882,25 +22047,25 @@
       <c r="GX76" s="9"/>
     </row>
     <row r="77" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="233" t="s">
+      <c r="A77" s="205" t="s">
         <v>411</v>
       </c>
-      <c r="B77" s="233" t="s">
+      <c r="B77" s="205" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="234" t="s">
+      <c r="C77" s="207" t="s">
         <v>420</v>
       </c>
-      <c r="D77" s="234" t="s">
+      <c r="D77" s="207" t="s">
         <v>416</v>
       </c>
-      <c r="E77" s="235" t="s">
+      <c r="E77" s="209" t="s">
         <v>415</v>
       </c>
-      <c r="F77" s="234" t="s">
+      <c r="F77" s="207" t="s">
         <v>414</v>
       </c>
-      <c r="G77" s="236" t="s">
+      <c r="G77" s="216" t="s">
         <v>413</v>
       </c>
       <c r="H77" s="9"/>
@@ -22104,13 +22269,13 @@
       <c r="GX77" s="9"/>
     </row>
     <row r="78" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="232"/>
-      <c r="B78" s="232"/>
-      <c r="C78" s="220"/>
-      <c r="D78" s="220"/>
-      <c r="E78" s="222"/>
-      <c r="F78" s="220"/>
-      <c r="G78" s="224"/>
+      <c r="A78" s="200"/>
+      <c r="B78" s="200"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="204"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="214"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -22312,25 +22477,25 @@
       <c r="GX78" s="9"/>
     </row>
     <row r="79" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="231" t="s">
+      <c r="A79" s="199" t="s">
         <v>411</v>
       </c>
-      <c r="B79" s="231" t="s">
+      <c r="B79" s="199" t="s">
         <v>419</v>
       </c>
-      <c r="C79" s="219" t="s">
+      <c r="C79" s="201" t="s">
         <v>417</v>
       </c>
-      <c r="D79" s="219" t="s">
+      <c r="D79" s="201" t="s">
         <v>416</v>
       </c>
-      <c r="E79" s="221" t="s">
+      <c r="E79" s="203" t="s">
         <v>415</v>
       </c>
-      <c r="F79" s="219" t="s">
+      <c r="F79" s="201" t="s">
         <v>418</v>
       </c>
-      <c r="G79" s="223" t="s">
+      <c r="G79" s="213" t="s">
         <v>413</v>
       </c>
       <c r="H79" s="9"/>
@@ -22534,13 +22699,13 @@
       <c r="GX79" s="9"/>
     </row>
     <row r="80" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="232"/>
-      <c r="B80" s="232"/>
-      <c r="C80" s="220"/>
-      <c r="D80" s="220"/>
-      <c r="E80" s="222"/>
-      <c r="F80" s="220"/>
-      <c r="G80" s="224"/>
+      <c r="A80" s="200"/>
+      <c r="B80" s="200"/>
+      <c r="C80" s="202"/>
+      <c r="D80" s="202"/>
+      <c r="E80" s="204"/>
+      <c r="F80" s="202"/>
+      <c r="G80" s="214"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -22742,25 +22907,25 @@
       <c r="GX80" s="9"/>
     </row>
     <row r="81" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="225" t="s">
+      <c r="A81" s="211" t="s">
         <v>411</v>
       </c>
-      <c r="B81" s="225" t="s">
+      <c r="B81" s="211" t="s">
         <v>412</v>
       </c>
-      <c r="C81" s="227" t="s">
+      <c r="C81" s="212" t="s">
         <v>417</v>
       </c>
-      <c r="D81" s="227" t="s">
+      <c r="D81" s="212" t="s">
         <v>416</v>
       </c>
-      <c r="E81" s="229" t="s">
+      <c r="E81" s="215" t="s">
         <v>415</v>
       </c>
-      <c r="F81" s="227" t="s">
+      <c r="F81" s="212" t="s">
         <v>414</v>
       </c>
-      <c r="G81" s="237" t="s">
+      <c r="G81" s="217" t="s">
         <v>413</v>
       </c>
       <c r="H81" s="9"/>
@@ -22964,13 +23129,13 @@
       <c r="GX81" s="9"/>
     </row>
     <row r="82" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="226"/>
-      <c r="B82" s="226"/>
-      <c r="C82" s="228"/>
-      <c r="D82" s="228"/>
-      <c r="E82" s="230"/>
-      <c r="F82" s="228"/>
-      <c r="G82" s="238"/>
+      <c r="A82" s="206"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="208"/>
+      <c r="D82" s="208"/>
+      <c r="E82" s="210"/>
+      <c r="F82" s="208"/>
+      <c r="G82" s="218"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -23172,22 +23337,22 @@
       <c r="GX82" s="9"/>
     </row>
     <row r="83" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="233" t="s">
+      <c r="A83" s="205" t="s">
         <v>411</v>
       </c>
-      <c r="B83" s="233" t="s">
+      <c r="B83" s="205" t="s">
         <v>412</v>
       </c>
-      <c r="C83" s="234" t="s">
+      <c r="C83" s="207" t="s">
         <v>400</v>
       </c>
-      <c r="D83" s="234" t="s">
+      <c r="D83" s="207" t="s">
         <v>382</v>
       </c>
-      <c r="E83" s="235" t="s">
+      <c r="E83" s="209" t="s">
         <v>381</v>
       </c>
-      <c r="F83" s="234" t="s">
+      <c r="F83" s="207" t="s">
         <v>380</v>
       </c>
       <c r="G83" s="81" t="s">
@@ -23394,12 +23559,12 @@
       <c r="GX83" s="9"/>
     </row>
     <row r="84" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="226"/>
-      <c r="B84" s="226"/>
-      <c r="C84" s="228"/>
-      <c r="D84" s="228"/>
-      <c r="E84" s="230"/>
-      <c r="F84" s="228"/>
+      <c r="A84" s="206"/>
+      <c r="B84" s="206"/>
+      <c r="C84" s="208"/>
+      <c r="D84" s="208"/>
+      <c r="E84" s="210"/>
+      <c r="F84" s="208"/>
       <c r="G84" s="81" t="s">
         <v>378</v>
       </c>
@@ -23604,12 +23769,12 @@
       <c r="GX84" s="9"/>
     </row>
     <row r="85" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="226"/>
-      <c r="B85" s="226"/>
-      <c r="C85" s="228"/>
-      <c r="D85" s="228"/>
-      <c r="E85" s="230"/>
-      <c r="F85" s="228"/>
+      <c r="A85" s="206"/>
+      <c r="B85" s="206"/>
+      <c r="C85" s="208"/>
+      <c r="D85" s="208"/>
+      <c r="E85" s="210"/>
+      <c r="F85" s="208"/>
       <c r="G85" s="81" t="s">
         <v>377</v>
       </c>
@@ -23814,12 +23979,12 @@
       <c r="GX85" s="9"/>
     </row>
     <row r="86" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="226"/>
-      <c r="B86" s="226"/>
-      <c r="C86" s="228"/>
-      <c r="D86" s="228"/>
-      <c r="E86" s="230"/>
-      <c r="F86" s="228"/>
+      <c r="A86" s="206"/>
+      <c r="B86" s="206"/>
+      <c r="C86" s="208"/>
+      <c r="D86" s="208"/>
+      <c r="E86" s="210"/>
+      <c r="F86" s="208"/>
       <c r="G86" s="81" t="s">
         <v>376</v>
       </c>
@@ -24024,12 +24189,12 @@
       <c r="GX86" s="9"/>
     </row>
     <row r="87" spans="1:206" s="21" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="232"/>
-      <c r="B87" s="232"/>
-      <c r="C87" s="220"/>
-      <c r="D87" s="220"/>
-      <c r="E87" s="222"/>
-      <c r="F87" s="220"/>
+      <c r="A87" s="200"/>
+      <c r="B87" s="200"/>
+      <c r="C87" s="202"/>
+      <c r="D87" s="202"/>
+      <c r="E87" s="204"/>
+      <c r="F87" s="202"/>
       <c r="G87" s="81" t="s">
         <v>375</v>
       </c>
@@ -24234,22 +24399,22 @@
       <c r="GX87" s="9"/>
     </row>
     <row r="88" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="231" t="s">
+      <c r="A88" s="199" t="s">
         <v>411</v>
       </c>
-      <c r="B88" s="231" t="s">
+      <c r="B88" s="199" t="s">
         <v>410</v>
       </c>
-      <c r="C88" s="219" t="s">
+      <c r="C88" s="201" t="s">
         <v>409</v>
       </c>
-      <c r="D88" s="219" t="s">
+      <c r="D88" s="201" t="s">
         <v>396</v>
       </c>
-      <c r="E88" s="221" t="s">
+      <c r="E88" s="203" t="s">
         <v>408</v>
       </c>
-      <c r="F88" s="219" t="s">
+      <c r="F88" s="201" t="s">
         <v>407</v>
       </c>
       <c r="G88" s="82" t="s">
@@ -24456,12 +24621,12 @@
       <c r="GX88" s="9"/>
     </row>
     <row r="89" spans="1:206" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="232"/>
-      <c r="B89" s="232"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="222"/>
-      <c r="F89" s="220"/>
+      <c r="A89" s="200"/>
+      <c r="B89" s="200"/>
+      <c r="C89" s="202"/>
+      <c r="D89" s="202"/>
+      <c r="E89" s="204"/>
+      <c r="F89" s="202"/>
       <c r="G89" s="82" t="s">
         <v>405</v>
       </c>
@@ -24666,22 +24831,22 @@
       <c r="GX89" s="9"/>
     </row>
     <row r="90" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="183" t="s">
+      <c r="A90" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="183" t="s">
+      <c r="B90" s="184" t="s">
         <v>404</v>
       </c>
-      <c r="C90" s="239" t="s">
+      <c r="C90" s="187" t="s">
         <v>400</v>
       </c>
-      <c r="D90" s="239" t="s">
+      <c r="D90" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="241" t="s">
+      <c r="E90" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="F90" s="239" t="s">
+      <c r="F90" s="187" t="s">
         <v>388</v>
       </c>
       <c r="G90" s="79" t="s">
@@ -24888,12 +25053,12 @@
       <c r="GX90" s="9"/>
     </row>
     <row r="91" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="184"/>
-      <c r="B91" s="184"/>
-      <c r="C91" s="240"/>
-      <c r="D91" s="240"/>
-      <c r="E91" s="242"/>
-      <c r="F91" s="240"/>
+      <c r="A91" s="186"/>
+      <c r="B91" s="186"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="189"/>
+      <c r="E91" s="192"/>
+      <c r="F91" s="189"/>
       <c r="G91" s="79" t="s">
         <v>386</v>
       </c>
@@ -25098,22 +25263,22 @@
       <c r="GX91" s="9"/>
     </row>
     <row r="92" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="183" t="s">
+      <c r="A92" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B92" s="183" t="s">
+      <c r="B92" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="C92" s="239" t="s">
+      <c r="C92" s="187" t="s">
         <v>400</v>
       </c>
-      <c r="D92" s="239" t="s">
+      <c r="D92" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="241" t="s">
+      <c r="E92" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="F92" s="239" t="s">
+      <c r="F92" s="187" t="s">
         <v>388</v>
       </c>
       <c r="G92" s="79" t="s">
@@ -25320,12 +25485,12 @@
       <c r="GX92" s="9"/>
     </row>
     <row r="93" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="184"/>
-      <c r="B93" s="184"/>
-      <c r="C93" s="240"/>
-      <c r="D93" s="240"/>
-      <c r="E93" s="242"/>
-      <c r="F93" s="240"/>
+      <c r="A93" s="186"/>
+      <c r="B93" s="186"/>
+      <c r="C93" s="189"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="192"/>
+      <c r="F93" s="189"/>
       <c r="G93" s="79" t="s">
         <v>386</v>
       </c>
@@ -25530,22 +25695,22 @@
       <c r="GX93" s="9"/>
     </row>
     <row r="94" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="183" t="s">
+      <c r="A94" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B94" s="183" t="s">
+      <c r="B94" s="184" t="s">
         <v>402</v>
       </c>
-      <c r="C94" s="239" t="s">
+      <c r="C94" s="187" t="s">
         <v>400</v>
       </c>
-      <c r="D94" s="239" t="s">
+      <c r="D94" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="241" t="s">
+      <c r="E94" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="F94" s="239" t="s">
+      <c r="F94" s="187" t="s">
         <v>388</v>
       </c>
       <c r="G94" s="79" t="s">
@@ -25752,12 +25917,12 @@
       <c r="GX94" s="9"/>
     </row>
     <row r="95" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="184"/>
-      <c r="B95" s="184"/>
-      <c r="C95" s="240"/>
-      <c r="D95" s="240"/>
-      <c r="E95" s="242"/>
-      <c r="F95" s="240"/>
+      <c r="A95" s="186"/>
+      <c r="B95" s="186"/>
+      <c r="C95" s="189"/>
+      <c r="D95" s="189"/>
+      <c r="E95" s="192"/>
+      <c r="F95" s="189"/>
       <c r="G95" s="79" t="s">
         <v>386</v>
       </c>
@@ -25962,22 +26127,22 @@
       <c r="GX95" s="9"/>
     </row>
     <row r="96" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="183" t="s">
+      <c r="A96" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B96" s="183" t="s">
+      <c r="B96" s="184" t="s">
         <v>401</v>
       </c>
-      <c r="C96" s="239" t="s">
+      <c r="C96" s="187" t="s">
         <v>400</v>
       </c>
-      <c r="D96" s="239" t="s">
+      <c r="D96" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E96" s="241" t="s">
+      <c r="E96" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="F96" s="239" t="s">
+      <c r="F96" s="187" t="s">
         <v>388</v>
       </c>
       <c r="G96" s="79" t="s">
@@ -26184,12 +26349,12 @@
       <c r="GX96" s="9"/>
     </row>
     <row r="97" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="184"/>
-      <c r="B97" s="184"/>
-      <c r="C97" s="240"/>
-      <c r="D97" s="240"/>
-      <c r="E97" s="242"/>
-      <c r="F97" s="240"/>
+      <c r="A97" s="186"/>
+      <c r="B97" s="186"/>
+      <c r="C97" s="189"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="192"/>
+      <c r="F97" s="189"/>
       <c r="G97" s="79" t="s">
         <v>386</v>
       </c>
@@ -26394,22 +26559,22 @@
       <c r="GX97" s="9"/>
     </row>
     <row r="98" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="183" t="s">
+      <c r="A98" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="183" t="s">
+      <c r="B98" s="184" t="s">
         <v>399</v>
       </c>
-      <c r="C98" s="239" t="s">
+      <c r="C98" s="187" t="s">
         <v>398</v>
       </c>
-      <c r="D98" s="239" t="s">
+      <c r="D98" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E98" s="241" t="s">
+      <c r="E98" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="F98" s="239" t="s">
+      <c r="F98" s="187" t="s">
         <v>388</v>
       </c>
       <c r="G98" s="79" t="s">
@@ -26616,12 +26781,12 @@
       <c r="GX98" s="9"/>
     </row>
     <row r="99" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="184"/>
-      <c r="B99" s="184"/>
-      <c r="C99" s="240"/>
-      <c r="D99" s="240"/>
-      <c r="E99" s="242"/>
-      <c r="F99" s="240"/>
+      <c r="A99" s="186"/>
+      <c r="B99" s="186"/>
+      <c r="C99" s="189"/>
+      <c r="D99" s="189"/>
+      <c r="E99" s="192"/>
+      <c r="F99" s="189"/>
       <c r="G99" s="79" t="s">
         <v>386</v>
       </c>
@@ -26826,22 +26991,22 @@
       <c r="GX99" s="9"/>
     </row>
     <row r="100" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="183" t="s">
+      <c r="A100" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B100" s="183" t="s">
+      <c r="B100" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="C100" s="239" t="s">
+      <c r="C100" s="187" t="s">
         <v>397</v>
       </c>
-      <c r="D100" s="239" t="s">
+      <c r="D100" s="187" t="s">
         <v>396</v>
       </c>
-      <c r="E100" s="241" t="s">
+      <c r="E100" s="190" t="s">
         <v>395</v>
       </c>
-      <c r="F100" s="239" t="s">
+      <c r="F100" s="187" t="s">
         <v>394</v>
       </c>
       <c r="G100" s="79" t="s">
@@ -27048,12 +27213,12 @@
       <c r="GX100" s="9"/>
     </row>
     <row r="101" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="243"/>
-      <c r="B101" s="243"/>
-      <c r="C101" s="244"/>
-      <c r="D101" s="244"/>
-      <c r="E101" s="245"/>
-      <c r="F101" s="244"/>
+      <c r="A101" s="185"/>
+      <c r="B101" s="185"/>
+      <c r="C101" s="188"/>
+      <c r="D101" s="188"/>
+      <c r="E101" s="191"/>
+      <c r="F101" s="188"/>
       <c r="G101" s="79" t="s">
         <v>392</v>
       </c>
@@ -27258,12 +27423,12 @@
       <c r="GX101" s="9"/>
     </row>
     <row r="102" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="184"/>
-      <c r="B102" s="184"/>
-      <c r="C102" s="240"/>
-      <c r="D102" s="240"/>
-      <c r="E102" s="242"/>
-      <c r="F102" s="240"/>
+      <c r="A102" s="186"/>
+      <c r="B102" s="186"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="189"/>
+      <c r="E102" s="192"/>
+      <c r="F102" s="189"/>
       <c r="G102" s="79" t="s">
         <v>391</v>
       </c>
@@ -27468,22 +27633,22 @@
       <c r="GX102" s="9"/>
     </row>
     <row r="103" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="183" t="s">
+      <c r="A103" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B103" s="183" t="s">
+      <c r="B103" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="C103" s="239" t="s">
+      <c r="C103" s="187" t="s">
         <v>390</v>
       </c>
-      <c r="D103" s="239" t="s">
+      <c r="D103" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="241" t="s">
+      <c r="E103" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="F103" s="239" t="s">
+      <c r="F103" s="187" t="s">
         <v>388</v>
       </c>
       <c r="G103" s="79" t="s">
@@ -27690,12 +27855,12 @@
       <c r="GX103" s="9"/>
     </row>
     <row r="104" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="184"/>
-      <c r="B104" s="184"/>
-      <c r="C104" s="240"/>
-      <c r="D104" s="240"/>
-      <c r="E104" s="242"/>
-      <c r="F104" s="240"/>
+      <c r="A104" s="186"/>
+      <c r="B104" s="186"/>
+      <c r="C104" s="189"/>
+      <c r="D104" s="189"/>
+      <c r="E104" s="192"/>
+      <c r="F104" s="189"/>
       <c r="G104" s="79" t="s">
         <v>386</v>
       </c>
@@ -27900,22 +28065,22 @@
       <c r="GX104" s="9"/>
     </row>
     <row r="105" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="183" t="s">
+      <c r="A105" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="183" t="s">
+      <c r="B105" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="C105" s="239" t="s">
+      <c r="C105" s="187" t="s">
         <v>383</v>
       </c>
-      <c r="D105" s="239" t="s">
+      <c r="D105" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="E105" s="241" t="s">
+      <c r="E105" s="190" t="s">
         <v>381</v>
       </c>
-      <c r="F105" s="239" t="s">
+      <c r="F105" s="187" t="s">
         <v>380</v>
       </c>
       <c r="G105" s="79" t="s">
@@ -28122,12 +28287,12 @@
       <c r="GX105" s="9"/>
     </row>
     <row r="106" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="243"/>
-      <c r="B106" s="243"/>
-      <c r="C106" s="244"/>
-      <c r="D106" s="244"/>
-      <c r="E106" s="245"/>
-      <c r="F106" s="244"/>
+      <c r="A106" s="185"/>
+      <c r="B106" s="185"/>
+      <c r="C106" s="188"/>
+      <c r="D106" s="188"/>
+      <c r="E106" s="191"/>
+      <c r="F106" s="188"/>
       <c r="G106" s="79" t="s">
         <v>378</v>
       </c>
@@ -28332,12 +28497,12 @@
       <c r="GX106" s="9"/>
     </row>
     <row r="107" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="243"/>
-      <c r="B107" s="243"/>
-      <c r="C107" s="244"/>
-      <c r="D107" s="244"/>
-      <c r="E107" s="245"/>
-      <c r="F107" s="244"/>
+      <c r="A107" s="185"/>
+      <c r="B107" s="185"/>
+      <c r="C107" s="188"/>
+      <c r="D107" s="188"/>
+      <c r="E107" s="191"/>
+      <c r="F107" s="188"/>
       <c r="G107" s="79" t="s">
         <v>377</v>
       </c>
@@ -28542,12 +28707,12 @@
       <c r="GX107" s="9"/>
     </row>
     <row r="108" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="243"/>
-      <c r="B108" s="243"/>
-      <c r="C108" s="244"/>
-      <c r="D108" s="244"/>
-      <c r="E108" s="245"/>
-      <c r="F108" s="244"/>
+      <c r="A108" s="185"/>
+      <c r="B108" s="185"/>
+      <c r="C108" s="188"/>
+      <c r="D108" s="188"/>
+      <c r="E108" s="191"/>
+      <c r="F108" s="188"/>
       <c r="G108" s="79" t="s">
         <v>376</v>
       </c>
@@ -28752,12 +28917,12 @@
       <c r="GX108" s="9"/>
     </row>
     <row r="109" spans="1:206" s="20" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="184"/>
-      <c r="B109" s="184"/>
-      <c r="C109" s="240"/>
-      <c r="D109" s="240"/>
-      <c r="E109" s="242"/>
-      <c r="F109" s="240"/>
+      <c r="A109" s="186"/>
+      <c r="B109" s="186"/>
+      <c r="C109" s="189"/>
+      <c r="D109" s="189"/>
+      <c r="E109" s="192"/>
+      <c r="F109" s="189"/>
       <c r="G109" s="79" t="s">
         <v>375</v>
       </c>
@@ -28962,22 +29127,22 @@
       <c r="GX109" s="9"/>
     </row>
     <row r="110" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="189" t="s">
+      <c r="A110" s="193" t="s">
         <v>374</v>
       </c>
-      <c r="B110" s="189" t="s">
+      <c r="B110" s="193" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="208" t="s">
+      <c r="C110" s="195" t="s">
         <v>372</v>
       </c>
-      <c r="D110" s="208" t="s">
+      <c r="D110" s="195" t="s">
         <v>371</v>
       </c>
-      <c r="E110" s="210" t="s">
+      <c r="E110" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="F110" s="208" t="s">
+      <c r="F110" s="195" t="s">
         <v>369</v>
       </c>
       <c r="G110" s="78" t="s">
@@ -29184,12 +29349,12 @@
       <c r="GX110" s="9"/>
     </row>
     <row r="111" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="190"/>
-      <c r="B111" s="190"/>
-      <c r="C111" s="209"/>
-      <c r="D111" s="209"/>
-      <c r="E111" s="211"/>
-      <c r="F111" s="209"/>
+      <c r="A111" s="194"/>
+      <c r="B111" s="194"/>
+      <c r="C111" s="196"/>
+      <c r="D111" s="196"/>
+      <c r="E111" s="198"/>
+      <c r="F111" s="196"/>
       <c r="G111" s="78" t="s">
         <v>367</v>
       </c>
@@ -29394,22 +29559,22 @@
       <c r="GX111" s="9"/>
     </row>
     <row r="112" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="181" t="s">
+      <c r="A112" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="181" t="s">
+      <c r="B112" s="180" t="s">
         <v>366</v>
       </c>
-      <c r="C112" s="246" t="s">
+      <c r="C112" s="178" t="s">
         <v>365</v>
       </c>
-      <c r="D112" s="246" t="s">
+      <c r="D112" s="178" t="s">
         <v>363</v>
       </c>
-      <c r="E112" s="248" t="s">
+      <c r="E112" s="182" t="s">
         <v>362</v>
       </c>
-      <c r="F112" s="246" t="s">
+      <c r="F112" s="178" t="s">
         <v>361</v>
       </c>
       <c r="G112" s="19" t="s">
@@ -29417,12 +29582,12 @@
       </c>
     </row>
     <row r="113" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="182"/>
-      <c r="B113" s="182"/>
-      <c r="C113" s="247"/>
-      <c r="D113" s="247"/>
-      <c r="E113" s="249"/>
-      <c r="F113" s="247"/>
+      <c r="A113" s="181"/>
+      <c r="B113" s="181"/>
+      <c r="C113" s="179"/>
+      <c r="D113" s="179"/>
+      <c r="E113" s="183"/>
+      <c r="F113" s="179"/>
       <c r="G113" s="19" t="s">
         <v>359</v>
       </c>
@@ -29627,22 +29792,22 @@
       <c r="GX113" s="9"/>
     </row>
     <row r="114" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="181" t="s">
+      <c r="A114" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="B114" s="181" t="s">
+      <c r="B114" s="180" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="246" t="s">
+      <c r="C114" s="178" t="s">
         <v>364</v>
       </c>
-      <c r="D114" s="246" t="s">
+      <c r="D114" s="178" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="248" t="s">
+      <c r="E114" s="182" t="s">
         <v>362</v>
       </c>
-      <c r="F114" s="246" t="s">
+      <c r="F114" s="178" t="s">
         <v>361</v>
       </c>
       <c r="G114" s="19" t="s">
@@ -29650,12 +29815,12 @@
       </c>
     </row>
     <row r="115" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="182"/>
-      <c r="B115" s="182"/>
-      <c r="C115" s="247"/>
-      <c r="D115" s="247"/>
-      <c r="E115" s="249"/>
-      <c r="F115" s="247"/>
+      <c r="A115" s="181"/>
+      <c r="B115" s="181"/>
+      <c r="C115" s="179"/>
+      <c r="D115" s="179"/>
+      <c r="E115" s="183"/>
+      <c r="F115" s="179"/>
       <c r="G115" s="19" t="s">
         <v>359</v>
       </c>
@@ -29860,22 +30025,22 @@
       <c r="GX115" s="9"/>
     </row>
     <row r="116" spans="1:206" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="181" t="s">
+      <c r="A116" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="181" t="s">
+      <c r="B116" s="180" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="246" t="s">
+      <c r="C116" s="178" t="s">
         <v>356</v>
       </c>
-      <c r="D116" s="246" t="s">
+      <c r="D116" s="178" t="s">
         <v>355</v>
       </c>
-      <c r="E116" s="248" t="s">
+      <c r="E116" s="182" t="s">
         <v>354</v>
       </c>
-      <c r="F116" s="246" t="s">
+      <c r="F116" s="178" t="s">
         <v>353</v>
       </c>
       <c r="G116" s="40" t="s">
@@ -29883,12 +30048,12 @@
       </c>
     </row>
     <row r="117" spans="1:206" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="182"/>
-      <c r="B117" s="182"/>
-      <c r="C117" s="247"/>
-      <c r="D117" s="247"/>
-      <c r="E117" s="249"/>
-      <c r="F117" s="247"/>
+      <c r="A117" s="181"/>
+      <c r="B117" s="181"/>
+      <c r="C117" s="179"/>
+      <c r="D117" s="179"/>
+      <c r="E117" s="183"/>
+      <c r="F117" s="179"/>
       <c r="G117" s="19" t="s">
         <v>351</v>
       </c>
@@ -30150,210 +30315,6 @@
   </sheetData>
   <autoFilter ref="A1:GX117" xr:uid="{C19CED52-092A-4B65-8B9F-589DB1FD1B9C}"/>
   <mergeCells count="228">
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="F105:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="A58:A59"/>
@@ -30378,6 +30339,210 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30403,55 +30568,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="265" t="s">
         <v>613</v>
       </c>
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="325" t="s">
+      <c r="C1" s="254" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="265" t="s">
         <v>614</v>
       </c>
-      <c r="E1" s="250" t="s">
+      <c r="E1" s="265" t="s">
         <v>615</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="F1" s="265" t="s">
         <v>616</v>
       </c>
-      <c r="G1" s="250"/>
+      <c r="G1" s="265"/>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251"/>
-      <c r="B2" s="323"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
-      <c r="B3" s="324"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
+      <c r="A3" s="267"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="257" t="s">
         <v>564</v>
       </c>
       <c r="B4" s="50">
@@ -30463,7 +30628,7 @@
       <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="328"/>
+      <c r="A5" s="258"/>
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
         <v>565</v>
@@ -30471,7 +30636,7 @@
       <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="259" t="s">
         <v>566</v>
       </c>
       <c r="B6" s="50">
@@ -30480,10 +30645,10 @@
       <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="253" t="s">
+      <c r="D6" s="316" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="255" t="s">
+      <c r="E6" s="308" t="s">
         <v>584</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -30502,13 +30667,13 @@
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="330"/>
-      <c r="B7" s="288"/>
-      <c r="C7" s="308" t="s">
+      <c r="A7" s="260"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="263" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="256"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="309"/>
       <c r="F7" s="46"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
@@ -30521,11 +30686,11 @@
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="330"/>
-      <c r="B8" s="289"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="256"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="317"/>
+      <c r="E8" s="309"/>
       <c r="F8" s="29" t="s">
         <v>432</v>
       </c>
@@ -30542,11 +30707,11 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="330"/>
+      <c r="A9" s="260"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="309"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="256"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="309"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -30559,7 +30724,7 @@
       <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="317" t="s">
+      <c r="A10" s="257" t="s">
         <v>564</v>
       </c>
       <c r="B10" s="50">
@@ -30571,21 +30736,21 @@
       <c r="D10" s="105"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="318"/>
-      <c r="B11" s="288"/>
-      <c r="C11" s="308" t="s">
+      <c r="A11" s="268"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="263" t="s">
         <v>568</v>
       </c>
       <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="318"/>
-      <c r="B12" s="289"/>
-      <c r="C12" s="309"/>
+      <c r="A12" s="268"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="319" t="s">
+      <c r="A13" s="269" t="s">
         <v>569</v>
       </c>
       <c r="B13" s="50">
@@ -30594,146 +30759,146 @@
       <c r="C13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="269" t="s">
+      <c r="D13" s="330" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="319"/>
-      <c r="B14" s="288"/>
-      <c r="C14" s="308" t="s">
+      <c r="A14" s="269"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="263" t="s">
         <v>570</v>
       </c>
-      <c r="D14" s="269"/>
+      <c r="D14" s="330"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="319"/>
-      <c r="B15" s="289"/>
-      <c r="C15" s="309"/>
-      <c r="D15" s="269"/>
+      <c r="A15" s="269"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="330"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="319"/>
+      <c r="A16" s="269"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="309"/>
-      <c r="D16" s="269"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="330"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="319"/>
+      <c r="A17" s="269"/>
       <c r="B17" s="50">
         <v>5</v>
       </c>
       <c r="C17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="269"/>
+      <c r="D17" s="330"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="319"/>
-      <c r="B18" s="288"/>
-      <c r="C18" s="299" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="270" t="s">
         <v>571</v>
       </c>
-      <c r="D18" s="269"/>
+      <c r="D18" s="330"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="319"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="269"/>
+      <c r="A19" s="269"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="330"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="319"/>
+      <c r="A20" s="269"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="269"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="330"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="319"/>
+      <c r="A21" s="269"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="269"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="330"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="319"/>
+      <c r="A22" s="269"/>
       <c r="B22" s="50">
         <v>6</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="269"/>
+      <c r="D22" s="330"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="319"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="299" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="261"/>
+      <c r="C23" s="270" t="s">
         <v>572</v>
       </c>
-      <c r="D23" s="269"/>
+      <c r="D23" s="330"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="319"/>
-      <c r="B24" s="289"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="269"/>
+      <c r="A24" s="269"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="330"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="319"/>
+      <c r="A25" s="269"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="269"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="330"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="319"/>
+      <c r="A26" s="269"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="269"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="330"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="319"/>
+      <c r="A27" s="269"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="269"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="330"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="319"/>
+      <c r="A28" s="269"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="269"/>
+      <c r="C28" s="271"/>
+      <c r="D28" s="330"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="319"/>
+      <c r="A29" s="269"/>
       <c r="B29" s="50">
         <v>7</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="269"/>
+      <c r="D29" s="330"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="319"/>
-      <c r="B30" s="288"/>
-      <c r="C30" s="320" t="s">
+      <c r="A30" s="269"/>
+      <c r="B30" s="261"/>
+      <c r="C30" s="272" t="s">
         <v>573</v>
       </c>
-      <c r="D30" s="269"/>
+      <c r="D30" s="330"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="319"/>
-      <c r="B31" s="289"/>
-      <c r="C31" s="321"/>
-      <c r="D31" s="269"/>
+      <c r="A31" s="269"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="330"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="319"/>
+      <c r="A32" s="269"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="321"/>
-      <c r="D32" s="270"/>
+      <c r="C32" s="273"/>
+      <c r="D32" s="331"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="296" t="s">
+      <c r="A33" s="274" t="s">
         <v>566</v>
       </c>
       <c r="B33" s="50">
@@ -30742,38 +30907,38 @@
       <c r="C33" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="266" t="s">
+      <c r="D33" s="327" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="297"/>
-      <c r="B34" s="288"/>
-      <c r="C34" s="299" t="s">
+      <c r="A34" s="275"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="270" t="s">
         <v>574</v>
       </c>
-      <c r="D34" s="267"/>
+      <c r="D34" s="328"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="297"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="300"/>
-      <c r="D35" s="267"/>
+      <c r="A35" s="275"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="328"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="297"/>
+      <c r="A36" s="275"/>
       <c r="B36" s="54"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="267"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="328"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="298"/>
+      <c r="A37" s="276"/>
       <c r="B37" s="54"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="267"/>
+      <c r="C37" s="271"/>
+      <c r="D37" s="328"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="302" t="s">
+      <c r="A38" s="277" t="s">
         <v>575</v>
       </c>
       <c r="B38" s="50">
@@ -30782,162 +30947,162 @@
       <c r="C38" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D38" s="261" t="s">
+      <c r="D38" s="322" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="303"/>
-      <c r="B39" s="288"/>
-      <c r="C39" s="308" t="s">
+      <c r="A39" s="278"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="263" t="s">
         <v>576</v>
       </c>
-      <c r="D39" s="263"/>
+      <c r="D39" s="324"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="303"/>
-      <c r="B40" s="289"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="263"/>
+      <c r="A40" s="278"/>
+      <c r="B40" s="262"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="324"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="303"/>
+      <c r="A41" s="278"/>
       <c r="B41" s="54"/>
-      <c r="C41" s="309"/>
-      <c r="D41" s="263"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="324"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="303"/>
+      <c r="A42" s="278"/>
       <c r="B42" s="50">
         <v>10</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="D42" s="263"/>
+      <c r="D42" s="324"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="303"/>
-      <c r="B43" s="288"/>
-      <c r="C43" s="308" t="s">
+      <c r="A43" s="278"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="263" t="s">
         <v>578</v>
       </c>
-      <c r="D43" s="263"/>
+      <c r="D43" s="324"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="303"/>
-      <c r="B44" s="289"/>
-      <c r="C44" s="309"/>
-      <c r="D44" s="263"/>
+      <c r="A44" s="278"/>
+      <c r="B44" s="262"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="324"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="303"/>
+      <c r="A45" s="278"/>
       <c r="B45" s="54"/>
-      <c r="C45" s="309"/>
-      <c r="D45" s="263"/>
+      <c r="C45" s="264"/>
+      <c r="D45" s="324"/>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="303"/>
+      <c r="A46" s="278"/>
       <c r="B46" s="50">
         <v>11</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>579</v>
       </c>
-      <c r="D46" s="268" t="s">
+      <c r="D46" s="329" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="303"/>
-      <c r="B47" s="288"/>
-      <c r="C47" s="308" t="s">
+      <c r="A47" s="278"/>
+      <c r="B47" s="261"/>
+      <c r="C47" s="263" t="s">
         <v>580</v>
       </c>
-      <c r="D47" s="268"/>
+      <c r="D47" s="329"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="303"/>
-      <c r="B48" s="289"/>
-      <c r="C48" s="309"/>
-      <c r="D48" s="268"/>
+      <c r="A48" s="278"/>
+      <c r="B48" s="262"/>
+      <c r="C48" s="264"/>
+      <c r="D48" s="329"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="303"/>
+      <c r="A49" s="278"/>
       <c r="B49" s="50">
         <v>12</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D49" s="261" t="s">
+      <c r="D49" s="322" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="303"/>
-      <c r="B50" s="288"/>
-      <c r="C50" s="308" t="s">
+      <c r="A50" s="278"/>
+      <c r="B50" s="261"/>
+      <c r="C50" s="263" t="s">
         <v>581</v>
       </c>
-      <c r="D50" s="263"/>
+      <c r="D50" s="324"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="303"/>
-      <c r="B51" s="289"/>
-      <c r="C51" s="309"/>
-      <c r="D51" s="263"/>
+      <c r="A51" s="278"/>
+      <c r="B51" s="262"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="324"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="303"/>
+      <c r="A52" s="278"/>
       <c r="B52" s="54"/>
-      <c r="C52" s="309"/>
-      <c r="D52" s="263"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="324"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="303"/>
+      <c r="A53" s="278"/>
       <c r="B53" s="50">
         <v>13</v>
       </c>
       <c r="C53" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="263"/>
+      <c r="D53" s="324"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="303"/>
-      <c r="B54" s="288"/>
-      <c r="C54" s="308" t="s">
+      <c r="A54" s="278"/>
+      <c r="B54" s="261"/>
+      <c r="C54" s="263" t="s">
         <v>582</v>
       </c>
-      <c r="D54" s="263"/>
+      <c r="D54" s="324"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="303"/>
-      <c r="B55" s="289"/>
-      <c r="C55" s="309"/>
-      <c r="D55" s="263"/>
+      <c r="A55" s="278"/>
+      <c r="B55" s="262"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="324"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="303"/>
+      <c r="A56" s="278"/>
       <c r="B56" s="50">
         <v>14</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="263"/>
+      <c r="D56" s="324"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="304"/>
+      <c r="A57" s="279"/>
       <c r="B57" s="52"/>
       <c r="C57" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="D57" s="262"/>
+      <c r="D57" s="323"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="314" t="s">
+      <c r="A58" s="280" t="s">
         <v>584</v>
       </c>
       <c r="B58" s="50">
@@ -30946,38 +31111,38 @@
       <c r="C58" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="D58" s="255" t="s">
+      <c r="D58" s="308" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="315"/>
-      <c r="B59" s="288"/>
-      <c r="C59" s="308" t="s">
+      <c r="A59" s="281"/>
+      <c r="B59" s="261"/>
+      <c r="C59" s="263" t="s">
         <v>585</v>
       </c>
-      <c r="D59" s="256"/>
+      <c r="D59" s="309"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="315"/>
-      <c r="B60" s="289"/>
-      <c r="C60" s="309"/>
-      <c r="D60" s="256"/>
+      <c r="A60" s="281"/>
+      <c r="B60" s="262"/>
+      <c r="C60" s="264"/>
+      <c r="D60" s="309"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="315"/>
+      <c r="A61" s="281"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="309"/>
-      <c r="D61" s="256"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="309"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="316"/>
+      <c r="A62" s="282"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="300"/>
-      <c r="D62" s="273"/>
+      <c r="C62" s="271"/>
+      <c r="D62" s="310"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="302" t="s">
+      <c r="A63" s="277" t="s">
         <v>586</v>
       </c>
       <c r="B63" s="50">
@@ -30986,20 +31151,20 @@
       <c r="C63" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="D63" s="261" t="s">
+      <c r="D63" s="322" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="304"/>
+      <c r="A64" s="279"/>
       <c r="B64" s="52"/>
       <c r="C64" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="D64" s="262"/>
+      <c r="D64" s="323"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="314" t="s">
+      <c r="A65" s="280" t="s">
         <v>588</v>
       </c>
       <c r="B65" s="50">
@@ -31008,74 +31173,74 @@
       <c r="C65" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D65" s="274" t="s">
+      <c r="D65" s="311" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="315"/>
+      <c r="A66" s="281"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="299" t="s">
+      <c r="C66" s="270" t="s">
         <v>589</v>
       </c>
-      <c r="D66" s="275"/>
+      <c r="D66" s="312"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="315"/>
+      <c r="A67" s="281"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="300"/>
-      <c r="D67" s="275"/>
+      <c r="C67" s="271"/>
+      <c r="D67" s="312"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="315"/>
+      <c r="A68" s="281"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="300"/>
-      <c r="D68" s="275"/>
+      <c r="C68" s="271"/>
+      <c r="D68" s="312"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="315"/>
+      <c r="A69" s="281"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="300"/>
-      <c r="D69" s="275"/>
+      <c r="C69" s="271"/>
+      <c r="D69" s="312"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="315"/>
+      <c r="A70" s="281"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="300"/>
-      <c r="D70" s="275"/>
+      <c r="C70" s="271"/>
+      <c r="D70" s="312"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="315"/>
+      <c r="A71" s="281"/>
       <c r="B71" s="56"/>
-      <c r="C71" s="300"/>
-      <c r="D71" s="275"/>
+      <c r="C71" s="271"/>
+      <c r="D71" s="312"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="315"/>
+      <c r="A72" s="281"/>
       <c r="B72" s="54"/>
-      <c r="C72" s="300"/>
-      <c r="D72" s="275"/>
+      <c r="C72" s="271"/>
+      <c r="D72" s="312"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="315"/>
+      <c r="A73" s="281"/>
       <c r="B73" s="54"/>
-      <c r="C73" s="300"/>
-      <c r="D73" s="275"/>
+      <c r="C73" s="271"/>
+      <c r="D73" s="312"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="315"/>
+      <c r="A74" s="281"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="300"/>
-      <c r="D74" s="275"/>
+      <c r="C74" s="271"/>
+      <c r="D74" s="312"/>
     </row>
     <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="315"/>
+      <c r="A75" s="281"/>
       <c r="B75" s="56"/>
-      <c r="C75" s="300"/>
-      <c r="D75" s="275"/>
+      <c r="C75" s="271"/>
+      <c r="D75" s="312"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="296" t="s">
+      <c r="A76" s="274" t="s">
         <v>566</v>
       </c>
       <c r="B76" s="50">
@@ -31084,50 +31249,50 @@
       <c r="C76" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="D76" s="264" t="s">
+      <c r="D76" s="325" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="297"/>
-      <c r="B77" s="288"/>
-      <c r="C77" s="299" t="s">
+      <c r="A77" s="275"/>
+      <c r="B77" s="261"/>
+      <c r="C77" s="270" t="s">
         <v>591</v>
       </c>
-      <c r="D77" s="265"/>
+      <c r="D77" s="326"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="297"/>
-      <c r="B78" s="289"/>
-      <c r="C78" s="300"/>
-      <c r="D78" s="265"/>
+      <c r="A78" s="275"/>
+      <c r="B78" s="262"/>
+      <c r="C78" s="271"/>
+      <c r="D78" s="326"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="297"/>
+      <c r="A79" s="275"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="300"/>
-      <c r="D79" s="265"/>
+      <c r="C79" s="271"/>
+      <c r="D79" s="326"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="297"/>
+      <c r="A80" s="275"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="300"/>
-      <c r="D80" s="265"/>
+      <c r="C80" s="271"/>
+      <c r="D80" s="326"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="297"/>
+      <c r="A81" s="275"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="300"/>
-      <c r="D81" s="265"/>
+      <c r="C81" s="271"/>
+      <c r="D81" s="326"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="298"/>
+      <c r="A82" s="276"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="301"/>
-      <c r="D82" s="265"/>
+      <c r="C82" s="286"/>
+      <c r="D82" s="326"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="302" t="s">
+      <c r="A83" s="277" t="s">
         <v>592</v>
       </c>
       <c r="B83" s="50">
@@ -31136,38 +31301,38 @@
       <c r="C83" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="258" t="s">
+      <c r="D83" s="319" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="303"/>
+      <c r="A84" s="278"/>
       <c r="B84" s="52"/>
-      <c r="C84" s="299" t="s">
+      <c r="C84" s="270" t="s">
         <v>593</v>
       </c>
-      <c r="D84" s="259"/>
+      <c r="D84" s="320"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="303"/>
+      <c r="A85" s="278"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="300"/>
-      <c r="D85" s="259"/>
+      <c r="C85" s="271"/>
+      <c r="D85" s="320"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="303"/>
+      <c r="A86" s="278"/>
       <c r="B86" s="54"/>
-      <c r="C86" s="300"/>
-      <c r="D86" s="259"/>
+      <c r="C86" s="271"/>
+      <c r="D86" s="320"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="304"/>
+      <c r="A87" s="279"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="301"/>
-      <c r="D87" s="260"/>
+      <c r="C87" s="286"/>
+      <c r="D87" s="321"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="305" t="s">
+      <c r="A88" s="283" t="s">
         <v>594</v>
       </c>
       <c r="B88" s="50">
@@ -31176,173 +31341,173 @@
       <c r="C88" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="257" t="s">
+      <c r="D88" s="318" t="s">
         <v>594</v>
       </c>
       <c r="I88" s="60"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="306"/>
-      <c r="B89" s="288"/>
-      <c r="C89" s="299" t="s">
+      <c r="A89" s="284"/>
+      <c r="B89" s="261"/>
+      <c r="C89" s="270" t="s">
         <v>595</v>
       </c>
-      <c r="D89" s="257"/>
+      <c r="D89" s="318"/>
       <c r="I89" s="60"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="306"/>
-      <c r="B90" s="289"/>
-      <c r="C90" s="300"/>
-      <c r="D90" s="257"/>
+      <c r="A90" s="284"/>
+      <c r="B90" s="262"/>
+      <c r="C90" s="271"/>
+      <c r="D90" s="318"/>
       <c r="I90" s="60"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="306"/>
+      <c r="A91" s="284"/>
       <c r="B91" s="54"/>
-      <c r="C91" s="300"/>
-      <c r="D91" s="257"/>
+      <c r="C91" s="271"/>
+      <c r="D91" s="318"/>
       <c r="I91" s="60"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="306"/>
+      <c r="A92" s="284"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="301"/>
-      <c r="D92" s="257"/>
+      <c r="C92" s="286"/>
+      <c r="D92" s="318"/>
       <c r="I92" s="60"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="306"/>
+      <c r="A93" s="284"/>
       <c r="B93" s="50">
         <v>21</v>
       </c>
       <c r="C93" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="257"/>
+      <c r="D93" s="318"/>
       <c r="I93" s="60"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="306"/>
-      <c r="B94" s="288"/>
-      <c r="C94" s="308" t="s">
+      <c r="A94" s="284"/>
+      <c r="B94" s="261"/>
+      <c r="C94" s="263" t="s">
         <v>596</v>
       </c>
-      <c r="D94" s="257"/>
+      <c r="D94" s="318"/>
       <c r="I94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="306"/>
-      <c r="B95" s="289"/>
-      <c r="C95" s="309"/>
-      <c r="D95" s="257"/>
+      <c r="A95" s="284"/>
+      <c r="B95" s="262"/>
+      <c r="C95" s="264"/>
+      <c r="D95" s="318"/>
       <c r="I95" s="60"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="306"/>
+      <c r="A96" s="284"/>
       <c r="B96" s="54"/>
-      <c r="C96" s="309"/>
-      <c r="D96" s="257"/>
+      <c r="C96" s="264"/>
+      <c r="D96" s="318"/>
       <c r="I96" s="60"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="306"/>
+      <c r="A97" s="284"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="300"/>
-      <c r="D97" s="257"/>
+      <c r="C97" s="271"/>
+      <c r="D97" s="318"/>
       <c r="I97" s="60"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="306"/>
+      <c r="A98" s="284"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="300"/>
-      <c r="D98" s="257"/>
+      <c r="C98" s="271"/>
+      <c r="D98" s="318"/>
       <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="306"/>
+      <c r="A99" s="284"/>
       <c r="B99" s="54"/>
-      <c r="C99" s="300"/>
-      <c r="D99" s="257"/>
+      <c r="C99" s="271"/>
+      <c r="D99" s="318"/>
       <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="306"/>
+      <c r="A100" s="284"/>
       <c r="B100" s="54"/>
-      <c r="C100" s="309"/>
-      <c r="D100" s="257"/>
+      <c r="C100" s="264"/>
+      <c r="D100" s="318"/>
       <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="306"/>
+      <c r="A101" s="284"/>
       <c r="B101" s="50">
         <v>22</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="257"/>
+      <c r="D101" s="318"/>
       <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="306"/>
-      <c r="B102" s="288"/>
-      <c r="C102" s="308" t="s">
+      <c r="A102" s="284"/>
+      <c r="B102" s="261"/>
+      <c r="C102" s="263" t="s">
         <v>597</v>
       </c>
-      <c r="D102" s="257"/>
+      <c r="D102" s="318"/>
       <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="306"/>
-      <c r="B103" s="289"/>
-      <c r="C103" s="309"/>
-      <c r="D103" s="257"/>
+      <c r="A103" s="284"/>
+      <c r="B103" s="262"/>
+      <c r="C103" s="264"/>
+      <c r="D103" s="318"/>
       <c r="I103" s="60"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="306"/>
+      <c r="A104" s="284"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="309"/>
-      <c r="D104" s="257"/>
+      <c r="C104" s="264"/>
+      <c r="D104" s="318"/>
       <c r="I104" s="60"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="306"/>
+      <c r="A105" s="284"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="300"/>
-      <c r="D105" s="257"/>
+      <c r="C105" s="271"/>
+      <c r="D105" s="318"/>
       <c r="I105" s="60"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="306"/>
+      <c r="A106" s="284"/>
       <c r="B106" s="54"/>
-      <c r="C106" s="300"/>
-      <c r="D106" s="257"/>
+      <c r="C106" s="271"/>
+      <c r="D106" s="318"/>
       <c r="I106" s="60"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="306"/>
+      <c r="A107" s="284"/>
       <c r="B107" s="50">
         <v>23</v>
       </c>
       <c r="C107" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D107" s="257"/>
-      <c r="E107" s="276" t="s">
+      <c r="D107" s="318"/>
+      <c r="E107" s="313" t="s">
         <v>600</v>
       </c>
       <c r="I107" s="60"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="306"/>
-      <c r="B108" s="288"/>
-      <c r="C108" s="311" t="s">
+      <c r="A108" s="284"/>
+      <c r="B108" s="261"/>
+      <c r="C108" s="288" t="s">
         <v>598</v>
       </c>
-      <c r="D108" s="257"/>
-      <c r="E108" s="276"/>
+      <c r="D108" s="318"/>
+      <c r="E108" s="313"/>
       <c r="F108" s="96" t="s">
         <v>415</v>
       </c>
@@ -31361,19 +31526,19 @@
       <c r="Q108" s="97"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="306"/>
-      <c r="B109" s="289"/>
-      <c r="C109" s="312"/>
-      <c r="D109" s="257"/>
-      <c r="E109" s="276"/>
+      <c r="A109" s="284"/>
+      <c r="B109" s="262"/>
+      <c r="C109" s="289"/>
+      <c r="D109" s="318"/>
+      <c r="E109" s="313"/>
       <c r="I109" s="60"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="306"/>
+      <c r="A110" s="284"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="312"/>
-      <c r="D110" s="257"/>
-      <c r="E110" s="276"/>
+      <c r="C110" s="289"/>
+      <c r="D110" s="318"/>
+      <c r="E110" s="313"/>
       <c r="F110" s="98" t="s">
         <v>381</v>
       </c>
@@ -31391,100 +31556,100 @@
       <c r="P110" s="99"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="306"/>
+      <c r="A111" s="284"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="312"/>
-      <c r="D111" s="257"/>
-      <c r="E111" s="276"/>
+      <c r="C111" s="289"/>
+      <c r="D111" s="318"/>
+      <c r="E111" s="313"/>
       <c r="I111" s="60"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="306"/>
+      <c r="A112" s="284"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="312"/>
-      <c r="D112" s="257"/>
-      <c r="E112" s="276"/>
+      <c r="C112" s="289"/>
+      <c r="D112" s="318"/>
+      <c r="E112" s="313"/>
       <c r="I112" s="60"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="306"/>
+      <c r="A113" s="284"/>
       <c r="B113" s="54"/>
-      <c r="C113" s="313"/>
-      <c r="D113" s="257"/>
-      <c r="E113" s="276"/>
+      <c r="C113" s="290"/>
+      <c r="D113" s="318"/>
+      <c r="E113" s="313"/>
       <c r="I113" s="60"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="306"/>
+      <c r="A114" s="284"/>
       <c r="B114" s="50">
         <v>24</v>
       </c>
       <c r="C114" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="257"/>
+      <c r="D114" s="318"/>
       <c r="I114" s="60"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="306"/>
-      <c r="B115" s="288"/>
-      <c r="C115" s="308" t="s">
+      <c r="A115" s="284"/>
+      <c r="B115" s="261"/>
+      <c r="C115" s="263" t="s">
         <v>599</v>
       </c>
-      <c r="D115" s="257"/>
+      <c r="D115" s="318"/>
       <c r="I115" s="60"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="306"/>
-      <c r="B116" s="289"/>
-      <c r="C116" s="309"/>
-      <c r="D116" s="257"/>
+      <c r="A116" s="284"/>
+      <c r="B116" s="262"/>
+      <c r="C116" s="264"/>
+      <c r="D116" s="318"/>
       <c r="I116" s="60"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="306"/>
+      <c r="A117" s="284"/>
       <c r="B117" s="54"/>
-      <c r="C117" s="309"/>
-      <c r="D117" s="257"/>
+      <c r="C117" s="264"/>
+      <c r="D117" s="318"/>
       <c r="I117" s="60"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="306"/>
+      <c r="A118" s="284"/>
       <c r="B118" s="54"/>
-      <c r="C118" s="309"/>
-      <c r="D118" s="257"/>
+      <c r="C118" s="264"/>
+      <c r="D118" s="318"/>
       <c r="I118" s="60"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="306"/>
+      <c r="A119" s="284"/>
       <c r="B119" s="54"/>
-      <c r="C119" s="309"/>
-      <c r="D119" s="257"/>
+      <c r="C119" s="264"/>
+      <c r="D119" s="318"/>
       <c r="I119" s="60"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="306"/>
+      <c r="A120" s="284"/>
       <c r="B120" s="54"/>
-      <c r="C120" s="309"/>
-      <c r="D120" s="257"/>
+      <c r="C120" s="264"/>
+      <c r="D120" s="318"/>
       <c r="I120" s="60"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="306"/>
+      <c r="A121" s="284"/>
       <c r="B121" s="54"/>
-      <c r="C121" s="309"/>
-      <c r="D121" s="257"/>
+      <c r="C121" s="264"/>
+      <c r="D121" s="318"/>
       <c r="I121" s="60"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="307"/>
+      <c r="A122" s="285"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="310"/>
-      <c r="D122" s="257"/>
+      <c r="C122" s="287"/>
+      <c r="D122" s="318"/>
       <c r="I122" s="60"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="286" t="s">
+      <c r="A123" s="291" t="s">
         <v>600</v>
       </c>
       <c r="B123" s="50">
@@ -31493,299 +31658,299 @@
       <c r="C123" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D123" s="276" t="s">
+      <c r="D123" s="313" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="287"/>
-      <c r="B124" s="288"/>
-      <c r="C124" s="290" t="s">
+      <c r="A124" s="292"/>
+      <c r="B124" s="261"/>
+      <c r="C124" s="293" t="s">
         <v>601</v>
       </c>
-      <c r="D124" s="276"/>
+      <c r="D124" s="313"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="287"/>
-      <c r="B125" s="289"/>
-      <c r="C125" s="291"/>
-      <c r="D125" s="276"/>
+      <c r="A125" s="292"/>
+      <c r="B125" s="262"/>
+      <c r="C125" s="294"/>
+      <c r="D125" s="313"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="287"/>
+      <c r="A126" s="292"/>
       <c r="B126" s="54"/>
-      <c r="C126" s="291"/>
-      <c r="D126" s="276"/>
+      <c r="C126" s="294"/>
+      <c r="D126" s="313"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="287"/>
+      <c r="A127" s="292"/>
       <c r="B127" s="54"/>
-      <c r="C127" s="291"/>
-      <c r="D127" s="276"/>
+      <c r="C127" s="294"/>
+      <c r="D127" s="313"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="287"/>
+      <c r="A128" s="292"/>
       <c r="B128" s="54"/>
-      <c r="C128" s="291"/>
-      <c r="D128" s="276"/>
+      <c r="C128" s="294"/>
+      <c r="D128" s="313"/>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="287"/>
+      <c r="A129" s="292"/>
       <c r="B129" s="54"/>
-      <c r="C129" s="291"/>
-      <c r="D129" s="276"/>
+      <c r="C129" s="294"/>
+      <c r="D129" s="313"/>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="287"/>
+      <c r="A130" s="292"/>
       <c r="B130" s="54"/>
-      <c r="C130" s="291"/>
-      <c r="D130" s="276"/>
+      <c r="C130" s="294"/>
+      <c r="D130" s="313"/>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="287"/>
+      <c r="A131" s="292"/>
       <c r="B131" s="57"/>
-      <c r="C131" s="292"/>
-      <c r="D131" s="276"/>
+      <c r="C131" s="295"/>
+      <c r="D131" s="313"/>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="287"/>
+      <c r="A132" s="292"/>
       <c r="B132" s="50">
         <v>26</v>
       </c>
       <c r="C132" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="276"/>
+      <c r="D132" s="313"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="287"/>
-      <c r="B133" s="288"/>
-      <c r="C133" s="290" t="s">
+      <c r="A133" s="292"/>
+      <c r="B133" s="261"/>
+      <c r="C133" s="293" t="s">
         <v>602</v>
       </c>
-      <c r="D133" s="276"/>
+      <c r="D133" s="313"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="287"/>
-      <c r="B134" s="289"/>
-      <c r="C134" s="291"/>
-      <c r="D134" s="276"/>
+      <c r="A134" s="292"/>
+      <c r="B134" s="262"/>
+      <c r="C134" s="294"/>
+      <c r="D134" s="313"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="287"/>
+      <c r="A135" s="292"/>
       <c r="B135" s="54"/>
-      <c r="C135" s="291"/>
-      <c r="D135" s="276"/>
+      <c r="C135" s="294"/>
+      <c r="D135" s="313"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="287"/>
+      <c r="A136" s="292"/>
       <c r="B136" s="54"/>
-      <c r="C136" s="291"/>
-      <c r="D136" s="276"/>
+      <c r="C136" s="294"/>
+      <c r="D136" s="313"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="287"/>
+      <c r="A137" s="292"/>
       <c r="B137" s="54"/>
-      <c r="C137" s="291"/>
-      <c r="D137" s="276"/>
+      <c r="C137" s="294"/>
+      <c r="D137" s="313"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="287"/>
+      <c r="A138" s="292"/>
       <c r="B138" s="54"/>
-      <c r="C138" s="291"/>
-      <c r="D138" s="276"/>
+      <c r="C138" s="294"/>
+      <c r="D138" s="313"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="287"/>
+      <c r="A139" s="292"/>
       <c r="B139" s="54"/>
-      <c r="C139" s="291"/>
-      <c r="D139" s="276"/>
+      <c r="C139" s="294"/>
+      <c r="D139" s="313"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="287"/>
+      <c r="A140" s="292"/>
       <c r="B140" s="57"/>
-      <c r="C140" s="292"/>
-      <c r="D140" s="276"/>
+      <c r="C140" s="295"/>
+      <c r="D140" s="313"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="287"/>
+      <c r="A141" s="292"/>
       <c r="B141" s="50">
         <v>27</v>
       </c>
       <c r="C141" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D141" s="276"/>
+      <c r="D141" s="313"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="287"/>
-      <c r="B142" s="288"/>
-      <c r="C142" s="290" t="s">
+      <c r="A142" s="292"/>
+      <c r="B142" s="261"/>
+      <c r="C142" s="293" t="s">
         <v>603</v>
       </c>
-      <c r="D142" s="276"/>
+      <c r="D142" s="313"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="287"/>
-      <c r="B143" s="289"/>
-      <c r="C143" s="291"/>
-      <c r="D143" s="276"/>
+      <c r="A143" s="292"/>
+      <c r="B143" s="262"/>
+      <c r="C143" s="294"/>
+      <c r="D143" s="313"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="287"/>
+      <c r="A144" s="292"/>
       <c r="B144" s="54"/>
-      <c r="C144" s="291"/>
-      <c r="D144" s="276"/>
+      <c r="C144" s="294"/>
+      <c r="D144" s="313"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="287"/>
+      <c r="A145" s="292"/>
       <c r="B145" s="54"/>
-      <c r="C145" s="291"/>
-      <c r="D145" s="276"/>
+      <c r="C145" s="294"/>
+      <c r="D145" s="313"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="287"/>
+      <c r="A146" s="292"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="291"/>
-      <c r="D146" s="276"/>
+      <c r="C146" s="294"/>
+      <c r="D146" s="313"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="287"/>
+      <c r="A147" s="292"/>
       <c r="B147" s="54"/>
-      <c r="C147" s="291"/>
-      <c r="D147" s="276"/>
+      <c r="C147" s="294"/>
+      <c r="D147" s="313"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="287"/>
+      <c r="A148" s="292"/>
       <c r="B148" s="54"/>
-      <c r="C148" s="291"/>
-      <c r="D148" s="276"/>
+      <c r="C148" s="294"/>
+      <c r="D148" s="313"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="287"/>
+      <c r="A149" s="292"/>
       <c r="B149" s="57"/>
-      <c r="C149" s="292"/>
-      <c r="D149" s="276"/>
+      <c r="C149" s="295"/>
+      <c r="D149" s="313"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="287"/>
+      <c r="A150" s="292"/>
       <c r="B150" s="50">
         <v>28</v>
       </c>
       <c r="C150" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D150" s="276"/>
-      <c r="E150" s="271" t="s">
+      <c r="D150" s="313"/>
+      <c r="E150" s="306" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="287"/>
-      <c r="B151" s="288"/>
-      <c r="C151" s="290" t="s">
+      <c r="A151" s="292"/>
+      <c r="B151" s="261"/>
+      <c r="C151" s="293" t="s">
         <v>604</v>
       </c>
-      <c r="D151" s="276"/>
-      <c r="E151" s="272"/>
+      <c r="D151" s="313"/>
+      <c r="E151" s="307"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="287"/>
-      <c r="B152" s="289"/>
-      <c r="C152" s="291"/>
-      <c r="D152" s="276"/>
-      <c r="E152" s="272"/>
+      <c r="A152" s="292"/>
+      <c r="B152" s="262"/>
+      <c r="C152" s="294"/>
+      <c r="D152" s="313"/>
+      <c r="E152" s="307"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="287"/>
+      <c r="A153" s="292"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="291"/>
-      <c r="D153" s="276"/>
-      <c r="E153" s="272"/>
+      <c r="C153" s="294"/>
+      <c r="D153" s="313"/>
+      <c r="E153" s="307"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="287"/>
+      <c r="A154" s="292"/>
       <c r="B154" s="54"/>
-      <c r="C154" s="291"/>
-      <c r="D154" s="276"/>
-      <c r="E154" s="272"/>
+      <c r="C154" s="294"/>
+      <c r="D154" s="313"/>
+      <c r="E154" s="307"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="287"/>
+      <c r="A155" s="292"/>
       <c r="B155" s="54"/>
-      <c r="C155" s="291"/>
-      <c r="D155" s="276"/>
-      <c r="E155" s="272"/>
+      <c r="C155" s="294"/>
+      <c r="D155" s="313"/>
+      <c r="E155" s="307"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="287"/>
+      <c r="A156" s="292"/>
       <c r="B156" s="54"/>
-      <c r="C156" s="291"/>
-      <c r="D156" s="276"/>
-      <c r="E156" s="272"/>
+      <c r="C156" s="294"/>
+      <c r="D156" s="313"/>
+      <c r="E156" s="307"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="287"/>
+      <c r="A157" s="292"/>
       <c r="B157" s="54"/>
-      <c r="C157" s="291"/>
-      <c r="D157" s="276"/>
-      <c r="E157" s="272"/>
+      <c r="C157" s="294"/>
+      <c r="D157" s="313"/>
+      <c r="E157" s="307"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="287"/>
+      <c r="A158" s="292"/>
       <c r="B158" s="57"/>
-      <c r="C158" s="292"/>
-      <c r="D158" s="276"/>
-      <c r="E158" s="272"/>
+      <c r="C158" s="295"/>
+      <c r="D158" s="313"/>
+      <c r="E158" s="307"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="287"/>
+      <c r="A159" s="292"/>
       <c r="B159" s="50">
         <v>29</v>
       </c>
       <c r="C159" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="D159" s="276"/>
+      <c r="D159" s="313"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="287"/>
-      <c r="B160" s="288"/>
-      <c r="C160" s="290" t="s">
+      <c r="A160" s="292"/>
+      <c r="B160" s="261"/>
+      <c r="C160" s="293" t="s">
         <v>605</v>
       </c>
-      <c r="D160" s="276"/>
+      <c r="D160" s="313"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="287"/>
-      <c r="B161" s="289"/>
-      <c r="C161" s="291"/>
-      <c r="D161" s="276"/>
+      <c r="A161" s="292"/>
+      <c r="B161" s="262"/>
+      <c r="C161" s="294"/>
+      <c r="D161" s="313"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="287"/>
+      <c r="A162" s="292"/>
       <c r="B162" s="54"/>
-      <c r="C162" s="291"/>
-      <c r="D162" s="276"/>
+      <c r="C162" s="294"/>
+      <c r="D162" s="313"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="287"/>
+      <c r="A163" s="292"/>
       <c r="B163" s="54"/>
-      <c r="C163" s="292"/>
-      <c r="D163" s="276"/>
+      <c r="C163" s="295"/>
+      <c r="D163" s="313"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="287"/>
+      <c r="A164" s="292"/>
       <c r="B164" s="50">
         <v>30</v>
       </c>
       <c r="C164" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="D164" s="278" t="s">
+      <c r="D164" s="315" t="s">
         <v>594</v>
       </c>
-      <c r="E164" s="277" t="s">
+      <c r="E164" s="314" t="s">
         <v>600</v>
       </c>
       <c r="F164" s="102" t="s">
@@ -31800,20 +31965,20 @@
       <c r="K164" s="103"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="287"/>
+      <c r="A165" s="292"/>
       <c r="B165" s="58"/>
-      <c r="C165" s="293" t="s">
+      <c r="C165" s="296" t="s">
         <v>606</v>
       </c>
-      <c r="D165" s="278"/>
-      <c r="E165" s="277"/>
+      <c r="D165" s="315"/>
+      <c r="E165" s="314"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="287"/>
+      <c r="A166" s="292"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="294"/>
-      <c r="D166" s="278"/>
-      <c r="E166" s="277"/>
+      <c r="C166" s="297"/>
+      <c r="D166" s="315"/>
+      <c r="E166" s="314"/>
       <c r="F166" s="100" t="s">
         <v>381</v>
       </c>
@@ -31826,11 +31991,11 @@
       <c r="K166" s="104"/>
     </row>
     <row r="167" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="287"/>
+      <c r="A167" s="292"/>
       <c r="B167" s="54"/>
-      <c r="C167" s="295"/>
-      <c r="D167" s="278"/>
-      <c r="E167" s="277"/>
+      <c r="C167" s="298"/>
+      <c r="D167" s="315"/>
+      <c r="E167" s="314"/>
       <c r="F167" s="100" t="s">
         <v>389</v>
       </c>
@@ -31843,7 +32008,7 @@
       <c r="K167" s="104"/>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="279" t="s">
+      <c r="A168" s="299" t="s">
         <v>607</v>
       </c>
       <c r="B168" s="50">
@@ -31852,62 +32017,62 @@
       <c r="C168" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D168" s="277" t="s">
+      <c r="D168" s="314" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="279"/>
-      <c r="B169" s="280"/>
-      <c r="C169" s="282" t="s">
+      <c r="A169" s="299"/>
+      <c r="B169" s="300"/>
+      <c r="C169" s="302" t="s">
         <v>608</v>
       </c>
-      <c r="D169" s="277"/>
+      <c r="D169" s="314"/>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="279"/>
-      <c r="B170" s="281"/>
-      <c r="C170" s="283"/>
-      <c r="D170" s="277"/>
+      <c r="A170" s="299"/>
+      <c r="B170" s="301"/>
+      <c r="C170" s="303"/>
+      <c r="D170" s="314"/>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="279"/>
+      <c r="A171" s="299"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="283"/>
-      <c r="D171" s="277"/>
+      <c r="C171" s="303"/>
+      <c r="D171" s="314"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="279"/>
+      <c r="A172" s="299"/>
       <c r="B172" s="54"/>
-      <c r="C172" s="283"/>
-      <c r="D172" s="277"/>
+      <c r="C172" s="303"/>
+      <c r="D172" s="314"/>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="279"/>
+      <c r="A173" s="299"/>
       <c r="B173" s="54"/>
-      <c r="C173" s="283"/>
-      <c r="D173" s="277"/>
+      <c r="C173" s="303"/>
+      <c r="D173" s="314"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="279"/>
+      <c r="A174" s="299"/>
       <c r="B174" s="54"/>
-      <c r="C174" s="283"/>
-      <c r="D174" s="277"/>
+      <c r="C174" s="303"/>
+      <c r="D174" s="314"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="279"/>
+      <c r="A175" s="299"/>
       <c r="B175" s="54"/>
-      <c r="C175" s="283"/>
-      <c r="D175" s="277"/>
+      <c r="C175" s="303"/>
+      <c r="D175" s="314"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="279"/>
+      <c r="A176" s="299"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="284"/>
-      <c r="D176" s="277"/>
+      <c r="C176" s="304"/>
+      <c r="D176" s="314"/>
     </row>
     <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="285" t="s">
+      <c r="A177" s="305" t="s">
         <v>566</v>
       </c>
       <c r="B177" s="50">
@@ -31916,121 +32081,121 @@
       <c r="C177" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D177" s="271" t="s">
+      <c r="D177" s="306" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="285"/>
-      <c r="B178" s="280"/>
-      <c r="C178" s="282" t="s">
+      <c r="A178" s="305"/>
+      <c r="B178" s="300"/>
+      <c r="C178" s="302" t="s">
         <v>609</v>
       </c>
-      <c r="D178" s="272"/>
+      <c r="D178" s="307"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="285"/>
-      <c r="B179" s="281"/>
-      <c r="C179" s="283"/>
-      <c r="D179" s="272"/>
+      <c r="A179" s="305"/>
+      <c r="B179" s="301"/>
+      <c r="C179" s="303"/>
+      <c r="D179" s="307"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="285"/>
+      <c r="A180" s="305"/>
       <c r="B180" s="54"/>
-      <c r="C180" s="283"/>
-      <c r="D180" s="272"/>
+      <c r="C180" s="303"/>
+      <c r="D180" s="307"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="285"/>
+      <c r="A181" s="305"/>
       <c r="B181" s="54"/>
-      <c r="C181" s="283"/>
-      <c r="D181" s="272"/>
+      <c r="C181" s="303"/>
+      <c r="D181" s="307"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="285"/>
+      <c r="A182" s="305"/>
       <c r="B182" s="54"/>
-      <c r="C182" s="283"/>
-      <c r="D182" s="272"/>
+      <c r="C182" s="303"/>
+      <c r="D182" s="307"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="285"/>
+      <c r="A183" s="305"/>
       <c r="B183" s="54"/>
-      <c r="C183" s="283"/>
-      <c r="D183" s="272"/>
+      <c r="C183" s="303"/>
+      <c r="D183" s="307"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="285"/>
+      <c r="A184" s="305"/>
       <c r="B184" s="54"/>
-      <c r="C184" s="283"/>
-      <c r="D184" s="272"/>
+      <c r="C184" s="303"/>
+      <c r="D184" s="307"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="285"/>
+      <c r="A185" s="305"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="283"/>
-      <c r="D185" s="272"/>
+      <c r="C185" s="303"/>
+      <c r="D185" s="307"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="285"/>
+      <c r="A186" s="305"/>
       <c r="B186" s="50">
         <v>33</v>
       </c>
       <c r="C186" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="D186" s="271" t="s">
+      <c r="D186" s="306" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="285"/>
-      <c r="B187" s="280"/>
-      <c r="C187" s="283" t="s">
+      <c r="A187" s="305"/>
+      <c r="B187" s="300"/>
+      <c r="C187" s="303" t="s">
         <v>611</v>
       </c>
-      <c r="D187" s="272"/>
+      <c r="D187" s="307"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="285"/>
-      <c r="B188" s="281"/>
-      <c r="C188" s="283"/>
-      <c r="D188" s="272"/>
+      <c r="A188" s="305"/>
+      <c r="B188" s="301"/>
+      <c r="C188" s="303"/>
+      <c r="D188" s="307"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="285"/>
+      <c r="A189" s="305"/>
       <c r="B189" s="54"/>
-      <c r="C189" s="283"/>
-      <c r="D189" s="272"/>
+      <c r="C189" s="303"/>
+      <c r="D189" s="307"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="285"/>
+      <c r="A190" s="305"/>
       <c r="B190" s="54"/>
-      <c r="C190" s="283"/>
-      <c r="D190" s="272"/>
+      <c r="C190" s="303"/>
+      <c r="D190" s="307"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="285"/>
+      <c r="A191" s="305"/>
       <c r="B191" s="54"/>
-      <c r="C191" s="283"/>
-      <c r="D191" s="272"/>
+      <c r="C191" s="303"/>
+      <c r="D191" s="307"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="285"/>
+      <c r="A192" s="305"/>
       <c r="B192" s="54"/>
-      <c r="C192" s="283"/>
-      <c r="D192" s="272"/>
+      <c r="C192" s="303"/>
+      <c r="D192" s="307"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="285"/>
+      <c r="A193" s="305"/>
       <c r="B193" s="54"/>
-      <c r="C193" s="283"/>
-      <c r="D193" s="272"/>
+      <c r="C193" s="303"/>
+      <c r="D193" s="307"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="285"/>
+      <c r="A194" s="305"/>
       <c r="B194" s="57"/>
-      <c r="C194" s="284"/>
-      <c r="D194" s="272"/>
+      <c r="C194" s="304"/>
+      <c r="D194" s="307"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
@@ -32039,25 +32204,72 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A32"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D88:D122"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D49:D57"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D13:D32"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D177:D185"/>
+    <mergeCell ref="D186:D194"/>
+    <mergeCell ref="E150:E158"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D65:D75"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="D123:D163"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C176"/>
+    <mergeCell ref="A177:A194"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C185"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C194"/>
+    <mergeCell ref="A123:A167"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A88:A122"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="C66:C75"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C37"/>
@@ -32072,72 +32284,25 @@
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="A88:A122"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A123:A167"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C149"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C176"/>
-    <mergeCell ref="A177:A194"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C185"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C194"/>
-    <mergeCell ref="D177:D185"/>
-    <mergeCell ref="D186:D194"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D65:D75"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="D123:D163"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D88:D122"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D49:D57"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D13:D32"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/1.reference/mapping_foas.xlsx
+++ b/data/1.reference/mapping_foas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\1.reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E1BD7-15D3-4D09-BAD8-570359637272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C05C05A-5A91-4036-AC55-EAB1C04E3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
+    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Old to new" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="688">
   <si>
     <t>FoA</t>
   </si>
@@ -2179,6 +2179,9 @@
   </si>
   <si>
     <t>foa</t>
+  </si>
+  <si>
+    <t>theme</t>
   </si>
 </sst>
 </file>
@@ -3756,10 +3759,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3768,37 +3777,22 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3807,76 +3801,22 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3888,58 +3828,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3960,61 +3849,133 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4026,154 +3987,16 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4217,6 +4040,186 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4680,8 +4683,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4719,7 +4722,7 @@
         <v>680</v>
       </c>
       <c r="I1" s="106" t="s">
-        <v>560</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8806,22 +8809,22 @@
       </c>
     </row>
     <row r="4" spans="1:206" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="223" t="s">
+      <c r="A4" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="188" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="198" t="s">
         <v>549</v>
       </c>
-      <c r="D4" s="219" t="s">
+      <c r="D4" s="198" t="s">
         <v>433</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="200" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="219" t="s">
+      <c r="F4" s="198" t="s">
         <v>457</v>
       </c>
       <c r="G4" s="88" t="s">
@@ -8829,12 +8832,12 @@
       </c>
     </row>
     <row r="5" spans="1:206" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="235"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="194"/>
       <c r="G5" s="88" t="s">
         <v>429</v>
       </c>
@@ -9077,22 +9080,22 @@
       <c r="GX7" s="9"/>
     </row>
     <row r="8" spans="1:206" s="41" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="202" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="202" t="s">
         <v>543</v>
       </c>
-      <c r="C8" s="242" t="s">
+      <c r="C8" s="204" t="s">
         <v>542</v>
       </c>
-      <c r="D8" s="242" t="s">
+      <c r="D8" s="204" t="s">
         <v>534</v>
       </c>
-      <c r="E8" s="244" t="s">
+      <c r="E8" s="206" t="s">
         <v>533</v>
       </c>
-      <c r="F8" s="242" t="s">
+      <c r="F8" s="204" t="s">
         <v>532</v>
       </c>
       <c r="G8" s="67" t="s">
@@ -9299,12 +9302,12 @@
       <c r="GX8" s="9"/>
     </row>
     <row r="9" spans="1:206" s="41" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="241"/>
-      <c r="B9" s="241"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="243"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="205"/>
       <c r="G9" s="67" t="s">
         <v>530</v>
       </c>
@@ -12109,22 +12112,22 @@
       <c r="GX21" s="9"/>
     </row>
     <row r="22" spans="1:206" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="229" t="s">
+      <c r="A22" s="192" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="192" t="s">
         <v>524</v>
       </c>
-      <c r="C22" s="230" t="s">
+      <c r="C22" s="193" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="230" t="s">
+      <c r="D22" s="193" t="s">
         <v>363</v>
       </c>
-      <c r="E22" s="231" t="s">
+      <c r="E22" s="208" t="s">
         <v>362</v>
       </c>
-      <c r="F22" s="230" t="s">
+      <c r="F22" s="193" t="s">
         <v>448</v>
       </c>
       <c r="G22" s="87" t="s">
@@ -12132,12 +12135,12 @@
       </c>
     </row>
     <row r="23" spans="1:206" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="235"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="194"/>
       <c r="G23" s="87" t="s">
         <v>359</v>
       </c>
@@ -13034,22 +13037,22 @@
       <c r="GX28" s="9"/>
     </row>
     <row r="29" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="193" t="s">
+      <c r="A29" s="190" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="190" t="s">
         <v>516</v>
       </c>
-      <c r="C29" s="195" t="s">
+      <c r="C29" s="209" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="E29" s="197" t="s">
+      <c r="E29" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="195" t="s">
+      <c r="F29" s="209" t="s">
         <v>369</v>
       </c>
       <c r="G29" s="76" t="s">
@@ -13256,12 +13259,12 @@
       <c r="GX29" s="9"/>
     </row>
     <row r="30" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="194"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="196"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="210"/>
       <c r="G30" s="76" t="s">
         <v>367</v>
       </c>
@@ -13902,22 +13905,22 @@
       <c r="GX32" s="9"/>
     </row>
     <row r="33" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="237" t="s">
+      <c r="A33" s="213" t="s">
         <v>460</v>
       </c>
-      <c r="B33" s="237" t="s">
+      <c r="B33" s="213" t="s">
         <v>503</v>
       </c>
-      <c r="C33" s="238" t="s">
+      <c r="C33" s="214" t="s">
         <v>509</v>
       </c>
-      <c r="D33" s="238" t="s">
+      <c r="D33" s="214" t="s">
         <v>492</v>
       </c>
-      <c r="E33" s="239" t="s">
+      <c r="E33" s="215" t="s">
         <v>491</v>
       </c>
-      <c r="F33" s="238" t="s">
+      <c r="F33" s="214" t="s">
         <v>490</v>
       </c>
       <c r="G33" s="32" t="s">
@@ -14124,12 +14127,12 @@
       <c r="GX33" s="9"/>
     </row>
     <row r="34" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="234"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="232"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="232"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="27" t="s">
         <v>488</v>
       </c>
@@ -14334,22 +14337,22 @@
       <c r="GX34" s="9"/>
     </row>
     <row r="35" spans="1:206" s="25" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234" t="s">
+      <c r="A35" s="178" t="s">
         <v>460</v>
       </c>
-      <c r="B35" s="234" t="s">
+      <c r="B35" s="178" t="s">
         <v>503</v>
       </c>
-      <c r="C35" s="232" t="s">
+      <c r="C35" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D35" s="232" t="s">
+      <c r="D35" s="179" t="s">
         <v>492</v>
       </c>
-      <c r="E35" s="233" t="s">
+      <c r="E35" s="216" t="s">
         <v>507</v>
       </c>
-      <c r="F35" s="232" t="s">
+      <c r="F35" s="179" t="s">
         <v>506</v>
       </c>
       <c r="G35" s="27" t="s">
@@ -14556,12 +14559,12 @@
       <c r="GX35" s="9"/>
     </row>
     <row r="36" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
-      <c r="B36" s="234"/>
-      <c r="C36" s="232"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="233"/>
-      <c r="F36" s="232"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="27" t="s">
         <v>504</v>
       </c>
@@ -15434,16 +15437,16 @@
       <c r="B40" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C40" s="232" t="s">
+      <c r="C40" s="179" t="s">
         <v>494</v>
       </c>
-      <c r="D40" s="232" t="s">
+      <c r="D40" s="179" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="233" t="s">
+      <c r="E40" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="F40" s="232" t="s">
+      <c r="F40" s="179" t="s">
         <v>457</v>
       </c>
       <c r="G40" s="27" t="s">
@@ -15656,10 +15659,10 @@
       <c r="B41" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="232"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="179"/>
       <c r="G41" s="27" t="s">
         <v>429</v>
       </c>
@@ -15870,16 +15873,16 @@
       <c r="B42" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C42" s="232" t="s">
+      <c r="C42" s="179" t="s">
         <v>493</v>
       </c>
-      <c r="D42" s="232" t="s">
+      <c r="D42" s="179" t="s">
         <v>492</v>
       </c>
-      <c r="E42" s="233" t="s">
+      <c r="E42" s="216" t="s">
         <v>491</v>
       </c>
-      <c r="F42" s="232" t="s">
+      <c r="F42" s="179" t="s">
         <v>490</v>
       </c>
       <c r="G42" s="27" t="s">
@@ -16092,10 +16095,10 @@
       <c r="B43" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="233"/>
-      <c r="F43" s="232"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="179"/>
       <c r="G43" s="27" t="s">
         <v>488</v>
       </c>
@@ -16300,22 +16303,22 @@
       <c r="GX43" s="9"/>
     </row>
     <row r="44" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="234" t="s">
+      <c r="A44" s="178" t="s">
         <v>460</v>
       </c>
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="178" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="232" t="s">
+      <c r="C44" s="179" t="s">
         <v>487</v>
       </c>
-      <c r="D44" s="232" t="s">
+      <c r="D44" s="179" t="s">
         <v>433</v>
       </c>
-      <c r="E44" s="233" t="s">
+      <c r="E44" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="F44" s="232" t="s">
+      <c r="F44" s="179" t="s">
         <v>457</v>
       </c>
       <c r="G44" s="27" t="s">
@@ -16522,12 +16525,12 @@
       <c r="GX44" s="9"/>
     </row>
     <row r="45" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="234"/>
-      <c r="B45" s="234"/>
-      <c r="C45" s="232"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="232"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="179"/>
       <c r="G45" s="27" t="s">
         <v>429</v>
       </c>
@@ -17176,22 +17179,22 @@
       <c r="GX47" s="9"/>
     </row>
     <row r="48" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="178" t="s">
         <v>460</v>
       </c>
-      <c r="B48" s="234" t="s">
+      <c r="B48" s="178" t="s">
         <v>459</v>
       </c>
-      <c r="C48" s="232" t="s">
+      <c r="C48" s="179" t="s">
         <v>477</v>
       </c>
-      <c r="D48" s="232" t="s">
+      <c r="D48" s="179" t="s">
         <v>476</v>
       </c>
-      <c r="E48" s="233" t="s">
+      <c r="E48" s="216" t="s">
         <v>475</v>
       </c>
-      <c r="F48" s="232" t="s">
+      <c r="F48" s="179" t="s">
         <v>474</v>
       </c>
       <c r="G48" s="27" t="s">
@@ -17398,12 +17401,12 @@
       <c r="GX48" s="9"/>
     </row>
     <row r="49" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="234"/>
-      <c r="B49" s="234"/>
-      <c r="C49" s="232"/>
-      <c r="D49" s="232"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="232"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="178"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="179"/>
       <c r="G49" s="27" t="s">
         <v>472</v>
       </c>
@@ -17608,12 +17611,12 @@
       <c r="GX49" s="9"/>
     </row>
     <row r="50" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="234"/>
-      <c r="B50" s="234"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="232"/>
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="179"/>
       <c r="G50" s="27" t="s">
         <v>471</v>
       </c>
@@ -17818,22 +17821,22 @@
       <c r="GX50" s="9"/>
     </row>
     <row r="51" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="178" t="s">
         <v>460</v>
       </c>
-      <c r="B51" s="234" t="s">
+      <c r="B51" s="178" t="s">
         <v>459</v>
       </c>
-      <c r="C51" s="232" t="s">
+      <c r="C51" s="179" t="s">
         <v>470</v>
       </c>
-      <c r="D51" s="232" t="s">
+      <c r="D51" s="179" t="s">
         <v>355</v>
       </c>
-      <c r="E51" s="233" t="s">
+      <c r="E51" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="F51" s="232" t="s">
+      <c r="F51" s="179" t="s">
         <v>469</v>
       </c>
       <c r="G51" s="27" t="s">
@@ -18040,12 +18043,12 @@
       <c r="GX51" s="9"/>
     </row>
     <row r="52" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="234"/>
-      <c r="B52" s="234"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="232"/>
+      <c r="A52" s="178"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="179"/>
       <c r="G52" s="27" t="s">
         <v>351</v>
       </c>
@@ -18250,22 +18253,22 @@
       <c r="GX52" s="9"/>
     </row>
     <row r="53" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="234" t="s">
+      <c r="A53" s="178" t="s">
         <v>460</v>
       </c>
-      <c r="B53" s="234" t="s">
+      <c r="B53" s="178" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="232" t="s">
+      <c r="C53" s="179" t="s">
         <v>468</v>
       </c>
-      <c r="D53" s="232" t="s">
+      <c r="D53" s="179" t="s">
         <v>467</v>
       </c>
-      <c r="E53" s="233" t="s">
+      <c r="E53" s="216" t="s">
         <v>466</v>
       </c>
-      <c r="F53" s="232" t="s">
+      <c r="F53" s="179" t="s">
         <v>465</v>
       </c>
       <c r="G53" s="27" t="s">
@@ -18472,12 +18475,12 @@
       <c r="GX53" s="9"/>
     </row>
     <row r="54" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
-      <c r="B54" s="234"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="232"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="178"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="179"/>
       <c r="G54" s="27" t="s">
         <v>463</v>
       </c>
@@ -18682,12 +18685,12 @@
       <c r="GX54" s="9"/>
     </row>
     <row r="55" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
-      <c r="B55" s="234"/>
-      <c r="C55" s="232"/>
-      <c r="D55" s="232"/>
-      <c r="E55" s="233"/>
-      <c r="F55" s="232"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="178"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="179"/>
       <c r="G55" s="27" t="s">
         <v>462</v>
       </c>
@@ -18892,22 +18895,22 @@
       <c r="GX55" s="9"/>
     </row>
     <row r="56" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="234" t="s">
+      <c r="A56" s="178" t="s">
         <v>460</v>
       </c>
-      <c r="B56" s="234" t="s">
+      <c r="B56" s="178" t="s">
         <v>459</v>
       </c>
-      <c r="C56" s="232" t="s">
+      <c r="C56" s="179" t="s">
         <v>461</v>
       </c>
-      <c r="D56" s="232" t="s">
+      <c r="D56" s="179" t="s">
         <v>433</v>
       </c>
-      <c r="E56" s="233" t="s">
+      <c r="E56" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="F56" s="232" t="s">
+      <c r="F56" s="179" t="s">
         <v>457</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -19114,12 +19117,12 @@
       <c r="GX56" s="9"/>
     </row>
     <row r="57" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
-      <c r="B57" s="234"/>
-      <c r="C57" s="232"/>
-      <c r="D57" s="232"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="232"/>
+      <c r="A57" s="178"/>
+      <c r="B57" s="178"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="216"/>
+      <c r="F57" s="179"/>
       <c r="G57" s="27" t="s">
         <v>429</v>
       </c>
@@ -19324,22 +19327,22 @@
       <c r="GX57" s="9"/>
     </row>
     <row r="58" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="247" t="s">
+      <c r="A58" s="180" t="s">
         <v>460</v>
       </c>
-      <c r="B58" s="249" t="s">
+      <c r="B58" s="186" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="225" t="s">
+      <c r="C58" s="195" t="s">
         <v>458</v>
       </c>
-      <c r="D58" s="225" t="s">
+      <c r="D58" s="195" t="s">
         <v>433</v>
       </c>
-      <c r="E58" s="227" t="s">
+      <c r="E58" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="F58" s="225" t="s">
+      <c r="F58" s="195" t="s">
         <v>457</v>
       </c>
       <c r="G58" s="27" t="s">
@@ -19546,12 +19549,12 @@
       <c r="GX58" s="9"/>
     </row>
     <row r="59" spans="1:206" s="25" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="248"/>
-      <c r="B59" s="250"/>
-      <c r="C59" s="226"/>
-      <c r="D59" s="226"/>
-      <c r="E59" s="228"/>
-      <c r="F59" s="226"/>
+      <c r="A59" s="181"/>
+      <c r="B59" s="187"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="196"/>
       <c r="G59" s="26" t="s">
         <v>429</v>
       </c>
@@ -19756,22 +19759,22 @@
       <c r="GX59" s="9"/>
     </row>
     <row r="60" spans="1:206" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="229" t="s">
+      <c r="A60" s="192" t="s">
         <v>358</v>
       </c>
-      <c r="B60" s="229" t="s">
+      <c r="B60" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="230" t="s">
+      <c r="C60" s="193" t="s">
         <v>456</v>
       </c>
-      <c r="D60" s="230" t="s">
+      <c r="D60" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="E60" s="231" t="s">
+      <c r="E60" s="208" t="s">
         <v>455</v>
       </c>
-      <c r="F60" s="230" t="s">
+      <c r="F60" s="193" t="s">
         <v>454</v>
       </c>
       <c r="G60" s="87" t="s">
@@ -19779,12 +19782,12 @@
       </c>
     </row>
     <row r="61" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="224"/>
-      <c r="B61" s="224"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
-      <c r="E61" s="222"/>
-      <c r="F61" s="220"/>
+      <c r="A61" s="197"/>
+      <c r="B61" s="197"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="219"/>
+      <c r="F61" s="199"/>
       <c r="G61" s="87" t="s">
         <v>452</v>
       </c>
@@ -20008,22 +20011,22 @@
       <c r="G62" s="88"/>
     </row>
     <row r="63" spans="1:206" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="223" t="s">
+      <c r="A63" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="223" t="s">
+      <c r="B63" s="188" t="s">
         <v>440</v>
       </c>
-      <c r="C63" s="219" t="s">
+      <c r="C63" s="198" t="s">
         <v>449</v>
       </c>
-      <c r="D63" s="219" t="s">
+      <c r="D63" s="198" t="s">
         <v>363</v>
       </c>
-      <c r="E63" s="221" t="s">
+      <c r="E63" s="200" t="s">
         <v>362</v>
       </c>
-      <c r="F63" s="219" t="s">
+      <c r="F63" s="198" t="s">
         <v>448</v>
       </c>
       <c r="G63" s="23" t="s">
@@ -20031,12 +20034,12 @@
       </c>
     </row>
     <row r="64" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
-      <c r="B64" s="224"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="222"/>
-      <c r="F64" s="220"/>
+      <c r="A64" s="197"/>
+      <c r="B64" s="197"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="219"/>
+      <c r="F64" s="199"/>
       <c r="G64" s="23" t="s">
         <v>359</v>
       </c>
@@ -20241,22 +20244,22 @@
       <c r="GX64" s="9"/>
     </row>
     <row r="65" spans="1:206" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="223" t="s">
+      <c r="A65" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="B65" s="223" t="s">
+      <c r="B65" s="188" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="219" t="s">
+      <c r="C65" s="198" t="s">
         <v>447</v>
       </c>
-      <c r="D65" s="219" t="s">
+      <c r="D65" s="198" t="s">
         <v>382</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="200" t="s">
         <v>389</v>
       </c>
-      <c r="F65" s="219" t="s">
+      <c r="F65" s="198" t="s">
         <v>388</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -20264,12 +20267,12 @@
       </c>
     </row>
     <row r="66" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="224"/>
-      <c r="B66" s="224"/>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="222"/>
-      <c r="F66" s="220"/>
+      <c r="A66" s="197"/>
+      <c r="B66" s="197"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="219"/>
+      <c r="F66" s="199"/>
       <c r="G66" s="23" t="s">
         <v>386</v>
       </c>
@@ -20474,22 +20477,22 @@
       <c r="GX66" s="9"/>
     </row>
     <row r="67" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A67" s="223" t="s">
+      <c r="A67" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="223" t="s">
+      <c r="B67" s="188" t="s">
         <v>440</v>
       </c>
-      <c r="C67" s="219" t="s">
+      <c r="C67" s="198" t="s">
         <v>446</v>
       </c>
-      <c r="D67" s="219" t="s">
+      <c r="D67" s="198" t="s">
         <v>426</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="200" t="s">
         <v>425</v>
       </c>
-      <c r="F67" s="219" t="s">
+      <c r="F67" s="198" t="s">
         <v>424</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -20497,12 +20500,12 @@
       </c>
     </row>
     <row r="68" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="224"/>
-      <c r="B68" s="224"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
-      <c r="E68" s="222"/>
-      <c r="F68" s="220"/>
+      <c r="A68" s="197"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="219"/>
+      <c r="F68" s="199"/>
       <c r="G68" s="23" t="s">
         <v>445</v>
       </c>
@@ -20753,22 +20756,22 @@
       </c>
     </row>
     <row r="71" spans="1:206" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="193" t="s">
+      <c r="A71" s="190" t="s">
         <v>374</v>
       </c>
-      <c r="B71" s="193" t="s">
+      <c r="B71" s="190" t="s">
         <v>435</v>
       </c>
-      <c r="C71" s="195" t="s">
+      <c r="C71" s="209" t="s">
         <v>434</v>
       </c>
-      <c r="D71" s="195" t="s">
+      <c r="D71" s="209" t="s">
         <v>433</v>
       </c>
-      <c r="E71" s="197" t="s">
+      <c r="E71" s="211" t="s">
         <v>432</v>
       </c>
-      <c r="F71" s="195" t="s">
+      <c r="F71" s="209" t="s">
         <v>431</v>
       </c>
       <c r="G71" s="77" t="s">
@@ -20975,12 +20978,12 @@
       <c r="GX71" s="9"/>
     </row>
     <row r="72" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="194"/>
-      <c r="B72" s="194"/>
-      <c r="C72" s="196"/>
-      <c r="D72" s="196"/>
-      <c r="E72" s="198"/>
-      <c r="F72" s="196"/>
+      <c r="A72" s="191"/>
+      <c r="B72" s="191"/>
+      <c r="C72" s="210"/>
+      <c r="D72" s="210"/>
+      <c r="E72" s="212"/>
+      <c r="F72" s="210"/>
       <c r="G72" s="77" t="s">
         <v>429</v>
       </c>
@@ -21185,25 +21188,25 @@
       <c r="GX72" s="9"/>
     </row>
     <row r="73" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="199" t="s">
+      <c r="A73" s="232" t="s">
         <v>411</v>
       </c>
-      <c r="B73" s="199" t="s">
+      <c r="B73" s="232" t="s">
         <v>428</v>
       </c>
-      <c r="C73" s="201" t="s">
+      <c r="C73" s="220" t="s">
         <v>417</v>
       </c>
-      <c r="D73" s="201" t="s">
+      <c r="D73" s="220" t="s">
         <v>416</v>
       </c>
-      <c r="E73" s="203" t="s">
+      <c r="E73" s="222" t="s">
         <v>415</v>
       </c>
-      <c r="F73" s="201" t="s">
+      <c r="F73" s="220" t="s">
         <v>414</v>
       </c>
-      <c r="G73" s="213" t="s">
+      <c r="G73" s="224" t="s">
         <v>413</v>
       </c>
       <c r="H73" s="9"/>
@@ -21407,13 +21410,13 @@
       <c r="GX73" s="9"/>
     </row>
     <row r="74" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="200"/>
-      <c r="B74" s="200"/>
-      <c r="C74" s="202"/>
-      <c r="D74" s="202"/>
-      <c r="E74" s="204"/>
-      <c r="F74" s="202"/>
-      <c r="G74" s="214"/>
+      <c r="A74" s="233"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
+      <c r="E74" s="223"/>
+      <c r="F74" s="221"/>
+      <c r="G74" s="225"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -21615,22 +21618,22 @@
       <c r="GX74" s="9"/>
     </row>
     <row r="75" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="211" t="s">
+      <c r="A75" s="226" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="211" t="s">
+      <c r="B75" s="226" t="s">
         <v>421</v>
       </c>
-      <c r="C75" s="212" t="s">
+      <c r="C75" s="228" t="s">
         <v>427</v>
       </c>
-      <c r="D75" s="212" t="s">
+      <c r="D75" s="228" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="215" t="s">
+      <c r="E75" s="230" t="s">
         <v>425</v>
       </c>
-      <c r="F75" s="212" t="s">
+      <c r="F75" s="228" t="s">
         <v>424</v>
       </c>
       <c r="G75" s="80" t="s">
@@ -21837,12 +21840,12 @@
       <c r="GX75" s="9"/>
     </row>
     <row r="76" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="206"/>
-      <c r="B76" s="206"/>
-      <c r="C76" s="208"/>
-      <c r="D76" s="208"/>
-      <c r="E76" s="210"/>
-      <c r="F76" s="208"/>
+      <c r="A76" s="227"/>
+      <c r="B76" s="227"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="229"/>
+      <c r="E76" s="231"/>
+      <c r="F76" s="229"/>
       <c r="G76" s="80" t="s">
         <v>422</v>
       </c>
@@ -22047,25 +22050,25 @@
       <c r="GX76" s="9"/>
     </row>
     <row r="77" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="205" t="s">
+      <c r="A77" s="234" t="s">
         <v>411</v>
       </c>
-      <c r="B77" s="205" t="s">
+      <c r="B77" s="234" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="207" t="s">
+      <c r="C77" s="235" t="s">
         <v>420</v>
       </c>
-      <c r="D77" s="207" t="s">
+      <c r="D77" s="235" t="s">
         <v>416</v>
       </c>
-      <c r="E77" s="209" t="s">
+      <c r="E77" s="236" t="s">
         <v>415</v>
       </c>
-      <c r="F77" s="207" t="s">
+      <c r="F77" s="235" t="s">
         <v>414</v>
       </c>
-      <c r="G77" s="216" t="s">
+      <c r="G77" s="237" t="s">
         <v>413</v>
       </c>
       <c r="H77" s="9"/>
@@ -22269,13 +22272,13 @@
       <c r="GX77" s="9"/>
     </row>
     <row r="78" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="200"/>
-      <c r="B78" s="200"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="214"/>
+      <c r="A78" s="233"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="221"/>
+      <c r="D78" s="221"/>
+      <c r="E78" s="223"/>
+      <c r="F78" s="221"/>
+      <c r="G78" s="225"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -22477,25 +22480,25 @@
       <c r="GX78" s="9"/>
     </row>
     <row r="79" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="199" t="s">
+      <c r="A79" s="232" t="s">
         <v>411</v>
       </c>
-      <c r="B79" s="199" t="s">
+      <c r="B79" s="232" t="s">
         <v>419</v>
       </c>
-      <c r="C79" s="201" t="s">
+      <c r="C79" s="220" t="s">
         <v>417</v>
       </c>
-      <c r="D79" s="201" t="s">
+      <c r="D79" s="220" t="s">
         <v>416</v>
       </c>
-      <c r="E79" s="203" t="s">
+      <c r="E79" s="222" t="s">
         <v>415</v>
       </c>
-      <c r="F79" s="201" t="s">
+      <c r="F79" s="220" t="s">
         <v>418</v>
       </c>
-      <c r="G79" s="213" t="s">
+      <c r="G79" s="224" t="s">
         <v>413</v>
       </c>
       <c r="H79" s="9"/>
@@ -22699,13 +22702,13 @@
       <c r="GX79" s="9"/>
     </row>
     <row r="80" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="200"/>
-      <c r="B80" s="200"/>
-      <c r="C80" s="202"/>
-      <c r="D80" s="202"/>
-      <c r="E80" s="204"/>
-      <c r="F80" s="202"/>
-      <c r="G80" s="214"/>
+      <c r="A80" s="233"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="221"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="223"/>
+      <c r="F80" s="221"/>
+      <c r="G80" s="225"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -22907,25 +22910,25 @@
       <c r="GX80" s="9"/>
     </row>
     <row r="81" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="211" t="s">
+      <c r="A81" s="226" t="s">
         <v>411</v>
       </c>
-      <c r="B81" s="211" t="s">
+      <c r="B81" s="226" t="s">
         <v>412</v>
       </c>
-      <c r="C81" s="212" t="s">
+      <c r="C81" s="228" t="s">
         <v>417</v>
       </c>
-      <c r="D81" s="212" t="s">
+      <c r="D81" s="228" t="s">
         <v>416</v>
       </c>
-      <c r="E81" s="215" t="s">
+      <c r="E81" s="230" t="s">
         <v>415</v>
       </c>
-      <c r="F81" s="212" t="s">
+      <c r="F81" s="228" t="s">
         <v>414</v>
       </c>
-      <c r="G81" s="217" t="s">
+      <c r="G81" s="238" t="s">
         <v>413</v>
       </c>
       <c r="H81" s="9"/>
@@ -23129,13 +23132,13 @@
       <c r="GX81" s="9"/>
     </row>
     <row r="82" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="206"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="208"/>
-      <c r="D82" s="208"/>
-      <c r="E82" s="210"/>
-      <c r="F82" s="208"/>
-      <c r="G82" s="218"/>
+      <c r="A82" s="227"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="229"/>
+      <c r="D82" s="229"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="229"/>
+      <c r="G82" s="239"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -23337,22 +23340,22 @@
       <c r="GX82" s="9"/>
     </row>
     <row r="83" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="205" t="s">
+      <c r="A83" s="234" t="s">
         <v>411</v>
       </c>
-      <c r="B83" s="205" t="s">
+      <c r="B83" s="234" t="s">
         <v>412</v>
       </c>
-      <c r="C83" s="207" t="s">
+      <c r="C83" s="235" t="s">
         <v>400</v>
       </c>
-      <c r="D83" s="207" t="s">
+      <c r="D83" s="235" t="s">
         <v>382</v>
       </c>
-      <c r="E83" s="209" t="s">
+      <c r="E83" s="236" t="s">
         <v>381</v>
       </c>
-      <c r="F83" s="207" t="s">
+      <c r="F83" s="235" t="s">
         <v>380</v>
       </c>
       <c r="G83" s="81" t="s">
@@ -23559,12 +23562,12 @@
       <c r="GX83" s="9"/>
     </row>
     <row r="84" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="206"/>
-      <c r="B84" s="206"/>
-      <c r="C84" s="208"/>
-      <c r="D84" s="208"/>
-      <c r="E84" s="210"/>
-      <c r="F84" s="208"/>
+      <c r="A84" s="227"/>
+      <c r="B84" s="227"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="229"/>
+      <c r="E84" s="231"/>
+      <c r="F84" s="229"/>
       <c r="G84" s="81" t="s">
         <v>378</v>
       </c>
@@ -23769,12 +23772,12 @@
       <c r="GX84" s="9"/>
     </row>
     <row r="85" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="206"/>
-      <c r="B85" s="206"/>
-      <c r="C85" s="208"/>
-      <c r="D85" s="208"/>
-      <c r="E85" s="210"/>
-      <c r="F85" s="208"/>
+      <c r="A85" s="227"/>
+      <c r="B85" s="227"/>
+      <c r="C85" s="229"/>
+      <c r="D85" s="229"/>
+      <c r="E85" s="231"/>
+      <c r="F85" s="229"/>
       <c r="G85" s="81" t="s">
         <v>377</v>
       </c>
@@ -23979,12 +23982,12 @@
       <c r="GX85" s="9"/>
     </row>
     <row r="86" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="206"/>
-      <c r="B86" s="206"/>
-      <c r="C86" s="208"/>
-      <c r="D86" s="208"/>
-      <c r="E86" s="210"/>
-      <c r="F86" s="208"/>
+      <c r="A86" s="227"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="229"/>
+      <c r="D86" s="229"/>
+      <c r="E86" s="231"/>
+      <c r="F86" s="229"/>
       <c r="G86" s="81" t="s">
         <v>376</v>
       </c>
@@ -24189,12 +24192,12 @@
       <c r="GX86" s="9"/>
     </row>
     <row r="87" spans="1:206" s="21" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="200"/>
-      <c r="B87" s="200"/>
-      <c r="C87" s="202"/>
-      <c r="D87" s="202"/>
-      <c r="E87" s="204"/>
-      <c r="F87" s="202"/>
+      <c r="A87" s="233"/>
+      <c r="B87" s="233"/>
+      <c r="C87" s="221"/>
+      <c r="D87" s="221"/>
+      <c r="E87" s="223"/>
+      <c r="F87" s="221"/>
       <c r="G87" s="81" t="s">
         <v>375</v>
       </c>
@@ -24399,22 +24402,22 @@
       <c r="GX87" s="9"/>
     </row>
     <row r="88" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="199" t="s">
+      <c r="A88" s="232" t="s">
         <v>411</v>
       </c>
-      <c r="B88" s="199" t="s">
+      <c r="B88" s="232" t="s">
         <v>410</v>
       </c>
-      <c r="C88" s="201" t="s">
+      <c r="C88" s="220" t="s">
         <v>409</v>
       </c>
-      <c r="D88" s="201" t="s">
+      <c r="D88" s="220" t="s">
         <v>396</v>
       </c>
-      <c r="E88" s="203" t="s">
+      <c r="E88" s="222" t="s">
         <v>408</v>
       </c>
-      <c r="F88" s="201" t="s">
+      <c r="F88" s="220" t="s">
         <v>407</v>
       </c>
       <c r="G88" s="82" t="s">
@@ -24621,12 +24624,12 @@
       <c r="GX88" s="9"/>
     </row>
     <row r="89" spans="1:206" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="200"/>
-      <c r="B89" s="200"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="202"/>
-      <c r="E89" s="204"/>
-      <c r="F89" s="202"/>
+      <c r="A89" s="233"/>
+      <c r="B89" s="233"/>
+      <c r="C89" s="221"/>
+      <c r="D89" s="221"/>
+      <c r="E89" s="223"/>
+      <c r="F89" s="221"/>
       <c r="G89" s="82" t="s">
         <v>405</v>
       </c>
@@ -24837,16 +24840,16 @@
       <c r="B90" s="184" t="s">
         <v>404</v>
       </c>
-      <c r="C90" s="187" t="s">
+      <c r="C90" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="D90" s="187" t="s">
+      <c r="D90" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="190" t="s">
+      <c r="E90" s="242" t="s">
         <v>389</v>
       </c>
-      <c r="F90" s="187" t="s">
+      <c r="F90" s="240" t="s">
         <v>388</v>
       </c>
       <c r="G90" s="79" t="s">
@@ -25053,12 +25056,12 @@
       <c r="GX90" s="9"/>
     </row>
     <row r="91" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="186"/>
-      <c r="B91" s="186"/>
-      <c r="C91" s="189"/>
-      <c r="D91" s="189"/>
-      <c r="E91" s="192"/>
-      <c r="F91" s="189"/>
+      <c r="A91" s="185"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="241"/>
+      <c r="D91" s="241"/>
+      <c r="E91" s="243"/>
+      <c r="F91" s="241"/>
       <c r="G91" s="79" t="s">
         <v>386</v>
       </c>
@@ -25269,16 +25272,16 @@
       <c r="B92" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="C92" s="187" t="s">
+      <c r="C92" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="D92" s="187" t="s">
+      <c r="D92" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="190" t="s">
+      <c r="E92" s="242" t="s">
         <v>389</v>
       </c>
-      <c r="F92" s="187" t="s">
+      <c r="F92" s="240" t="s">
         <v>388</v>
       </c>
       <c r="G92" s="79" t="s">
@@ -25485,12 +25488,12 @@
       <c r="GX92" s="9"/>
     </row>
     <row r="93" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="186"/>
-      <c r="B93" s="186"/>
-      <c r="C93" s="189"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="192"/>
-      <c r="F93" s="189"/>
+      <c r="A93" s="185"/>
+      <c r="B93" s="185"/>
+      <c r="C93" s="241"/>
+      <c r="D93" s="241"/>
+      <c r="E93" s="243"/>
+      <c r="F93" s="241"/>
       <c r="G93" s="79" t="s">
         <v>386</v>
       </c>
@@ -25701,16 +25704,16 @@
       <c r="B94" s="184" t="s">
         <v>402</v>
       </c>
-      <c r="C94" s="187" t="s">
+      <c r="C94" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="D94" s="187" t="s">
+      <c r="D94" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="190" t="s">
+      <c r="E94" s="242" t="s">
         <v>389</v>
       </c>
-      <c r="F94" s="187" t="s">
+      <c r="F94" s="240" t="s">
         <v>388</v>
       </c>
       <c r="G94" s="79" t="s">
@@ -25917,12 +25920,12 @@
       <c r="GX94" s="9"/>
     </row>
     <row r="95" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="186"/>
-      <c r="B95" s="186"/>
-      <c r="C95" s="189"/>
-      <c r="D95" s="189"/>
-      <c r="E95" s="192"/>
-      <c r="F95" s="189"/>
+      <c r="A95" s="185"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="241"/>
+      <c r="D95" s="241"/>
+      <c r="E95" s="243"/>
+      <c r="F95" s="241"/>
       <c r="G95" s="79" t="s">
         <v>386</v>
       </c>
@@ -26133,16 +26136,16 @@
       <c r="B96" s="184" t="s">
         <v>401</v>
       </c>
-      <c r="C96" s="187" t="s">
+      <c r="C96" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="D96" s="187" t="s">
+      <c r="D96" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E96" s="190" t="s">
+      <c r="E96" s="242" t="s">
         <v>389</v>
       </c>
-      <c r="F96" s="187" t="s">
+      <c r="F96" s="240" t="s">
         <v>388</v>
       </c>
       <c r="G96" s="79" t="s">
@@ -26349,12 +26352,12 @@
       <c r="GX96" s="9"/>
     </row>
     <row r="97" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="186"/>
-      <c r="B97" s="186"/>
-      <c r="C97" s="189"/>
-      <c r="D97" s="189"/>
-      <c r="E97" s="192"/>
-      <c r="F97" s="189"/>
+      <c r="A97" s="185"/>
+      <c r="B97" s="185"/>
+      <c r="C97" s="241"/>
+      <c r="D97" s="241"/>
+      <c r="E97" s="243"/>
+      <c r="F97" s="241"/>
       <c r="G97" s="79" t="s">
         <v>386</v>
       </c>
@@ -26565,16 +26568,16 @@
       <c r="B98" s="184" t="s">
         <v>399</v>
       </c>
-      <c r="C98" s="187" t="s">
+      <c r="C98" s="240" t="s">
         <v>398</v>
       </c>
-      <c r="D98" s="187" t="s">
+      <c r="D98" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E98" s="190" t="s">
+      <c r="E98" s="242" t="s">
         <v>389</v>
       </c>
-      <c r="F98" s="187" t="s">
+      <c r="F98" s="240" t="s">
         <v>388</v>
       </c>
       <c r="G98" s="79" t="s">
@@ -26781,12 +26784,12 @@
       <c r="GX98" s="9"/>
     </row>
     <row r="99" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="186"/>
-      <c r="B99" s="186"/>
-      <c r="C99" s="189"/>
-      <c r="D99" s="189"/>
-      <c r="E99" s="192"/>
-      <c r="F99" s="189"/>
+      <c r="A99" s="185"/>
+      <c r="B99" s="185"/>
+      <c r="C99" s="241"/>
+      <c r="D99" s="241"/>
+      <c r="E99" s="243"/>
+      <c r="F99" s="241"/>
       <c r="G99" s="79" t="s">
         <v>386</v>
       </c>
@@ -26997,16 +27000,16 @@
       <c r="B100" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="C100" s="187" t="s">
+      <c r="C100" s="240" t="s">
         <v>397</v>
       </c>
-      <c r="D100" s="187" t="s">
+      <c r="D100" s="240" t="s">
         <v>396</v>
       </c>
-      <c r="E100" s="190" t="s">
+      <c r="E100" s="242" t="s">
         <v>395</v>
       </c>
-      <c r="F100" s="187" t="s">
+      <c r="F100" s="240" t="s">
         <v>394</v>
       </c>
       <c r="G100" s="79" t="s">
@@ -27213,12 +27216,12 @@
       <c r="GX100" s="9"/>
     </row>
     <row r="101" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="185"/>
-      <c r="B101" s="185"/>
-      <c r="C101" s="188"/>
-      <c r="D101" s="188"/>
-      <c r="E101" s="191"/>
-      <c r="F101" s="188"/>
+      <c r="A101" s="244"/>
+      <c r="B101" s="244"/>
+      <c r="C101" s="245"/>
+      <c r="D101" s="245"/>
+      <c r="E101" s="246"/>
+      <c r="F101" s="245"/>
       <c r="G101" s="79" t="s">
         <v>392</v>
       </c>
@@ -27423,12 +27426,12 @@
       <c r="GX101" s="9"/>
     </row>
     <row r="102" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="186"/>
-      <c r="B102" s="186"/>
-      <c r="C102" s="189"/>
-      <c r="D102" s="189"/>
-      <c r="E102" s="192"/>
-      <c r="F102" s="189"/>
+      <c r="A102" s="185"/>
+      <c r="B102" s="185"/>
+      <c r="C102" s="241"/>
+      <c r="D102" s="241"/>
+      <c r="E102" s="243"/>
+      <c r="F102" s="241"/>
       <c r="G102" s="79" t="s">
         <v>391</v>
       </c>
@@ -27639,16 +27642,16 @@
       <c r="B103" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="C103" s="187" t="s">
+      <c r="C103" s="240" t="s">
         <v>390</v>
       </c>
-      <c r="D103" s="187" t="s">
+      <c r="D103" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="190" t="s">
+      <c r="E103" s="242" t="s">
         <v>389</v>
       </c>
-      <c r="F103" s="187" t="s">
+      <c r="F103" s="240" t="s">
         <v>388</v>
       </c>
       <c r="G103" s="79" t="s">
@@ -27855,12 +27858,12 @@
       <c r="GX103" s="9"/>
     </row>
     <row r="104" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="186"/>
-      <c r="B104" s="186"/>
-      <c r="C104" s="189"/>
-      <c r="D104" s="189"/>
-      <c r="E104" s="192"/>
-      <c r="F104" s="189"/>
+      <c r="A104" s="185"/>
+      <c r="B104" s="185"/>
+      <c r="C104" s="241"/>
+      <c r="D104" s="241"/>
+      <c r="E104" s="243"/>
+      <c r="F104" s="241"/>
       <c r="G104" s="79" t="s">
         <v>386</v>
       </c>
@@ -28071,16 +28074,16 @@
       <c r="B105" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="C105" s="187" t="s">
+      <c r="C105" s="240" t="s">
         <v>383</v>
       </c>
-      <c r="D105" s="187" t="s">
+      <c r="D105" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="E105" s="190" t="s">
+      <c r="E105" s="242" t="s">
         <v>381</v>
       </c>
-      <c r="F105" s="187" t="s">
+      <c r="F105" s="240" t="s">
         <v>380</v>
       </c>
       <c r="G105" s="79" t="s">
@@ -28287,12 +28290,12 @@
       <c r="GX105" s="9"/>
     </row>
     <row r="106" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="185"/>
-      <c r="B106" s="185"/>
-      <c r="C106" s="188"/>
-      <c r="D106" s="188"/>
-      <c r="E106" s="191"/>
-      <c r="F106" s="188"/>
+      <c r="A106" s="244"/>
+      <c r="B106" s="244"/>
+      <c r="C106" s="245"/>
+      <c r="D106" s="245"/>
+      <c r="E106" s="246"/>
+      <c r="F106" s="245"/>
       <c r="G106" s="79" t="s">
         <v>378</v>
       </c>
@@ -28497,12 +28500,12 @@
       <c r="GX106" s="9"/>
     </row>
     <row r="107" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="185"/>
-      <c r="B107" s="185"/>
-      <c r="C107" s="188"/>
-      <c r="D107" s="188"/>
-      <c r="E107" s="191"/>
-      <c r="F107" s="188"/>
+      <c r="A107" s="244"/>
+      <c r="B107" s="244"/>
+      <c r="C107" s="245"/>
+      <c r="D107" s="245"/>
+      <c r="E107" s="246"/>
+      <c r="F107" s="245"/>
       <c r="G107" s="79" t="s">
         <v>377</v>
       </c>
@@ -28707,12 +28710,12 @@
       <c r="GX107" s="9"/>
     </row>
     <row r="108" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="185"/>
-      <c r="B108" s="185"/>
-      <c r="C108" s="188"/>
-      <c r="D108" s="188"/>
-      <c r="E108" s="191"/>
-      <c r="F108" s="188"/>
+      <c r="A108" s="244"/>
+      <c r="B108" s="244"/>
+      <c r="C108" s="245"/>
+      <c r="D108" s="245"/>
+      <c r="E108" s="246"/>
+      <c r="F108" s="245"/>
       <c r="G108" s="79" t="s">
         <v>376</v>
       </c>
@@ -28917,12 +28920,12 @@
       <c r="GX108" s="9"/>
     </row>
     <row r="109" spans="1:206" s="20" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="186"/>
-      <c r="B109" s="186"/>
-      <c r="C109" s="189"/>
-      <c r="D109" s="189"/>
-      <c r="E109" s="192"/>
-      <c r="F109" s="189"/>
+      <c r="A109" s="185"/>
+      <c r="B109" s="185"/>
+      <c r="C109" s="241"/>
+      <c r="D109" s="241"/>
+      <c r="E109" s="243"/>
+      <c r="F109" s="241"/>
       <c r="G109" s="79" t="s">
         <v>375</v>
       </c>
@@ -29127,22 +29130,22 @@
       <c r="GX109" s="9"/>
     </row>
     <row r="110" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="193" t="s">
+      <c r="A110" s="190" t="s">
         <v>374</v>
       </c>
-      <c r="B110" s="193" t="s">
+      <c r="B110" s="190" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="195" t="s">
+      <c r="C110" s="209" t="s">
         <v>372</v>
       </c>
-      <c r="D110" s="195" t="s">
+      <c r="D110" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="E110" s="197" t="s">
+      <c r="E110" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="F110" s="195" t="s">
+      <c r="F110" s="209" t="s">
         <v>369</v>
       </c>
       <c r="G110" s="78" t="s">
@@ -29349,12 +29352,12 @@
       <c r="GX110" s="9"/>
     </row>
     <row r="111" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="194"/>
-      <c r="B111" s="194"/>
-      <c r="C111" s="196"/>
-      <c r="D111" s="196"/>
-      <c r="E111" s="198"/>
-      <c r="F111" s="196"/>
+      <c r="A111" s="191"/>
+      <c r="B111" s="191"/>
+      <c r="C111" s="210"/>
+      <c r="D111" s="210"/>
+      <c r="E111" s="212"/>
+      <c r="F111" s="210"/>
       <c r="G111" s="78" t="s">
         <v>367</v>
       </c>
@@ -29559,22 +29562,22 @@
       <c r="GX111" s="9"/>
     </row>
     <row r="112" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="180" t="s">
+      <c r="A112" s="182" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="180" t="s">
+      <c r="B112" s="182" t="s">
         <v>366</v>
       </c>
-      <c r="C112" s="178" t="s">
+      <c r="C112" s="247" t="s">
         <v>365</v>
       </c>
-      <c r="D112" s="178" t="s">
+      <c r="D112" s="247" t="s">
         <v>363</v>
       </c>
-      <c r="E112" s="182" t="s">
+      <c r="E112" s="249" t="s">
         <v>362</v>
       </c>
-      <c r="F112" s="178" t="s">
+      <c r="F112" s="247" t="s">
         <v>361</v>
       </c>
       <c r="G112" s="19" t="s">
@@ -29582,12 +29585,12 @@
       </c>
     </row>
     <row r="113" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="181"/>
-      <c r="B113" s="181"/>
-      <c r="C113" s="179"/>
-      <c r="D113" s="179"/>
-      <c r="E113" s="183"/>
-      <c r="F113" s="179"/>
+      <c r="A113" s="183"/>
+      <c r="B113" s="183"/>
+      <c r="C113" s="248"/>
+      <c r="D113" s="248"/>
+      <c r="E113" s="250"/>
+      <c r="F113" s="248"/>
       <c r="G113" s="19" t="s">
         <v>359</v>
       </c>
@@ -29792,22 +29795,22 @@
       <c r="GX113" s="9"/>
     </row>
     <row r="114" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="180" t="s">
+      <c r="A114" s="182" t="s">
         <v>358</v>
       </c>
-      <c r="B114" s="180" t="s">
+      <c r="B114" s="182" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="178" t="s">
+      <c r="C114" s="247" t="s">
         <v>364</v>
       </c>
-      <c r="D114" s="178" t="s">
+      <c r="D114" s="247" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="182" t="s">
+      <c r="E114" s="249" t="s">
         <v>362</v>
       </c>
-      <c r="F114" s="178" t="s">
+      <c r="F114" s="247" t="s">
         <v>361</v>
       </c>
       <c r="G114" s="19" t="s">
@@ -29815,12 +29818,12 @@
       </c>
     </row>
     <row r="115" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="181"/>
-      <c r="B115" s="181"/>
-      <c r="C115" s="179"/>
-      <c r="D115" s="179"/>
-      <c r="E115" s="183"/>
-      <c r="F115" s="179"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="183"/>
+      <c r="C115" s="248"/>
+      <c r="D115" s="248"/>
+      <c r="E115" s="250"/>
+      <c r="F115" s="248"/>
       <c r="G115" s="19" t="s">
         <v>359</v>
       </c>
@@ -30025,22 +30028,22 @@
       <c r="GX115" s="9"/>
     </row>
     <row r="116" spans="1:206" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="180" t="s">
+      <c r="A116" s="182" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="180" t="s">
+      <c r="B116" s="182" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="178" t="s">
+      <c r="C116" s="247" t="s">
         <v>356</v>
       </c>
-      <c r="D116" s="178" t="s">
+      <c r="D116" s="247" t="s">
         <v>355</v>
       </c>
-      <c r="E116" s="182" t="s">
+      <c r="E116" s="249" t="s">
         <v>354</v>
       </c>
-      <c r="F116" s="178" t="s">
+      <c r="F116" s="247" t="s">
         <v>353</v>
       </c>
       <c r="G116" s="40" t="s">
@@ -30048,12 +30051,12 @@
       </c>
     </row>
     <row r="117" spans="1:206" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="181"/>
-      <c r="B117" s="181"/>
-      <c r="C117" s="179"/>
-      <c r="D117" s="179"/>
-      <c r="E117" s="183"/>
-      <c r="F117" s="179"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="183"/>
+      <c r="C117" s="248"/>
+      <c r="D117" s="248"/>
+      <c r="E117" s="250"/>
+      <c r="F117" s="248"/>
       <c r="G117" s="19" t="s">
         <v>351</v>
       </c>
@@ -30315,6 +30318,210 @@
   </sheetData>
   <autoFilter ref="A1:GX117" xr:uid="{C19CED52-092A-4B65-8B9F-589DB1FD1B9C}"/>
   <mergeCells count="228">
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="A58:A59"/>
@@ -30339,210 +30546,6 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="F105:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30568,55 +30571,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="251" t="s">
         <v>613</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="326" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="265" t="s">
+      <c r="D1" s="251" t="s">
         <v>614</v>
       </c>
-      <c r="E1" s="265" t="s">
+      <c r="E1" s="251" t="s">
         <v>615</v>
       </c>
-      <c r="F1" s="265" t="s">
+      <c r="F1" s="251" t="s">
         <v>616</v>
       </c>
-      <c r="G1" s="265"/>
+      <c r="G1" s="251"/>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266"/>
-      <c r="B2" s="252"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
+      <c r="A2" s="252"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="267"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
+      <c r="A3" s="253"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="318" t="s">
         <v>564</v>
       </c>
       <c r="B4" s="50">
@@ -30628,7 +30631,7 @@
       <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="258"/>
+      <c r="A5" s="329"/>
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
         <v>565</v>
@@ -30636,7 +30639,7 @@
       <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="330" t="s">
         <v>566</v>
       </c>
       <c r="B6" s="50">
@@ -30645,10 +30648,10 @@
       <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="316" t="s">
+      <c r="D6" s="254" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="308" t="s">
+      <c r="E6" s="256" t="s">
         <v>584</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -30667,13 +30670,13 @@
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="260"/>
-      <c r="B7" s="261"/>
-      <c r="C7" s="263" t="s">
+      <c r="A7" s="331"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="309" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="317"/>
-      <c r="E7" s="309"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="257"/>
       <c r="F7" s="46"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
@@ -30686,11 +30689,11 @@
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="260"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="317"/>
-      <c r="E8" s="309"/>
+      <c r="A8" s="331"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="310"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="257"/>
       <c r="F8" s="29" t="s">
         <v>432</v>
       </c>
@@ -30707,11 +30710,11 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="260"/>
+      <c r="A9" s="331"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="309"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="257"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -30724,7 +30727,7 @@
       <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="318" t="s">
         <v>564</v>
       </c>
       <c r="B10" s="50">
@@ -30736,21 +30739,21 @@
       <c r="D10" s="105"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="268"/>
-      <c r="B11" s="261"/>
-      <c r="C11" s="263" t="s">
+      <c r="A11" s="319"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="309" t="s">
         <v>568</v>
       </c>
       <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="268"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="264"/>
+      <c r="A12" s="319"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="310"/>
       <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="269" t="s">
+      <c r="A13" s="320" t="s">
         <v>569</v>
       </c>
       <c r="B13" s="50">
@@ -30759,146 +30762,146 @@
       <c r="C13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="330" t="s">
+      <c r="D13" s="270" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="269"/>
-      <c r="B14" s="261"/>
-      <c r="C14" s="263" t="s">
+      <c r="A14" s="320"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="309" t="s">
         <v>570</v>
       </c>
-      <c r="D14" s="330"/>
+      <c r="D14" s="270"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="269"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="264"/>
-      <c r="D15" s="330"/>
+      <c r="A15" s="320"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="270"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="269"/>
+      <c r="A16" s="320"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="330"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="270"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="269"/>
+      <c r="A17" s="320"/>
       <c r="B17" s="50">
         <v>5</v>
       </c>
       <c r="C17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="330"/>
+      <c r="D17" s="270"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="269"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="270" t="s">
+      <c r="A18" s="320"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="300" t="s">
         <v>571</v>
       </c>
-      <c r="D18" s="330"/>
+      <c r="D18" s="270"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="269"/>
-      <c r="B19" s="262"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="330"/>
+      <c r="A19" s="320"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="270"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="269"/>
+      <c r="A20" s="320"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="330"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="270"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="269"/>
+      <c r="A21" s="320"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="330"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="270"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="269"/>
+      <c r="A22" s="320"/>
       <c r="B22" s="50">
         <v>6</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="330"/>
+      <c r="D22" s="270"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="269"/>
-      <c r="B23" s="261"/>
-      <c r="C23" s="270" t="s">
+      <c r="A23" s="320"/>
+      <c r="B23" s="289"/>
+      <c r="C23" s="300" t="s">
         <v>572</v>
       </c>
-      <c r="D23" s="330"/>
+      <c r="D23" s="270"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="269"/>
-      <c r="B24" s="262"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="330"/>
+      <c r="A24" s="320"/>
+      <c r="B24" s="290"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="270"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="269"/>
+      <c r="A25" s="320"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="330"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="270"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="269"/>
+      <c r="A26" s="320"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="271"/>
-      <c r="D26" s="330"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="270"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="269"/>
+      <c r="A27" s="320"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="330"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="270"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="269"/>
+      <c r="A28" s="320"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="271"/>
-      <c r="D28" s="330"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="270"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="269"/>
+      <c r="A29" s="320"/>
       <c r="B29" s="50">
         <v>7</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="330"/>
+      <c r="D29" s="270"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="269"/>
-      <c r="B30" s="261"/>
-      <c r="C30" s="272" t="s">
+      <c r="A30" s="320"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="321" t="s">
         <v>573</v>
       </c>
-      <c r="D30" s="330"/>
+      <c r="D30" s="270"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="269"/>
-      <c r="B31" s="262"/>
-      <c r="C31" s="273"/>
-      <c r="D31" s="330"/>
+      <c r="A31" s="320"/>
+      <c r="B31" s="290"/>
+      <c r="C31" s="322"/>
+      <c r="D31" s="270"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="269"/>
+      <c r="A32" s="320"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="273"/>
-      <c r="D32" s="331"/>
+      <c r="C32" s="322"/>
+      <c r="D32" s="271"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="274" t="s">
+      <c r="A33" s="297" t="s">
         <v>566</v>
       </c>
       <c r="B33" s="50">
@@ -30907,38 +30910,38 @@
       <c r="C33" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="327" t="s">
+      <c r="D33" s="267" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="275"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="270" t="s">
+      <c r="A34" s="298"/>
+      <c r="B34" s="289"/>
+      <c r="C34" s="300" t="s">
         <v>574</v>
       </c>
-      <c r="D34" s="328"/>
+      <c r="D34" s="268"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="275"/>
-      <c r="B35" s="262"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="328"/>
+      <c r="A35" s="298"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="268"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="275"/>
+      <c r="A36" s="298"/>
       <c r="B36" s="54"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="328"/>
+      <c r="C36" s="301"/>
+      <c r="D36" s="268"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="276"/>
+      <c r="A37" s="299"/>
       <c r="B37" s="54"/>
-      <c r="C37" s="271"/>
-      <c r="D37" s="328"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="268"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="277" t="s">
+      <c r="A38" s="303" t="s">
         <v>575</v>
       </c>
       <c r="B38" s="50">
@@ -30947,162 +30950,162 @@
       <c r="C38" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D38" s="322" t="s">
+      <c r="D38" s="262" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="278"/>
-      <c r="B39" s="261"/>
-      <c r="C39" s="263" t="s">
+      <c r="A39" s="304"/>
+      <c r="B39" s="289"/>
+      <c r="C39" s="309" t="s">
         <v>576</v>
       </c>
-      <c r="D39" s="324"/>
+      <c r="D39" s="264"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="278"/>
-      <c r="B40" s="262"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="324"/>
+      <c r="A40" s="304"/>
+      <c r="B40" s="290"/>
+      <c r="C40" s="310"/>
+      <c r="D40" s="264"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="278"/>
+      <c r="A41" s="304"/>
       <c r="B41" s="54"/>
-      <c r="C41" s="264"/>
-      <c r="D41" s="324"/>
+      <c r="C41" s="310"/>
+      <c r="D41" s="264"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="278"/>
+      <c r="A42" s="304"/>
       <c r="B42" s="50">
         <v>10</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="D42" s="324"/>
+      <c r="D42" s="264"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="278"/>
-      <c r="B43" s="261"/>
-      <c r="C43" s="263" t="s">
+      <c r="A43" s="304"/>
+      <c r="B43" s="289"/>
+      <c r="C43" s="309" t="s">
         <v>578</v>
       </c>
-      <c r="D43" s="324"/>
+      <c r="D43" s="264"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="278"/>
-      <c r="B44" s="262"/>
-      <c r="C44" s="264"/>
-      <c r="D44" s="324"/>
+      <c r="A44" s="304"/>
+      <c r="B44" s="290"/>
+      <c r="C44" s="310"/>
+      <c r="D44" s="264"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="278"/>
+      <c r="A45" s="304"/>
       <c r="B45" s="54"/>
-      <c r="C45" s="264"/>
-      <c r="D45" s="324"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="264"/>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="278"/>
+      <c r="A46" s="304"/>
       <c r="B46" s="50">
         <v>11</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>579</v>
       </c>
-      <c r="D46" s="329" t="s">
+      <c r="D46" s="269" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="278"/>
-      <c r="B47" s="261"/>
-      <c r="C47" s="263" t="s">
+      <c r="A47" s="304"/>
+      <c r="B47" s="289"/>
+      <c r="C47" s="309" t="s">
         <v>580</v>
       </c>
-      <c r="D47" s="329"/>
+      <c r="D47" s="269"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="278"/>
-      <c r="B48" s="262"/>
-      <c r="C48" s="264"/>
-      <c r="D48" s="329"/>
+      <c r="A48" s="304"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="310"/>
+      <c r="D48" s="269"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="278"/>
+      <c r="A49" s="304"/>
       <c r="B49" s="50">
         <v>12</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D49" s="322" t="s">
+      <c r="D49" s="262" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="278"/>
-      <c r="B50" s="261"/>
-      <c r="C50" s="263" t="s">
+      <c r="A50" s="304"/>
+      <c r="B50" s="289"/>
+      <c r="C50" s="309" t="s">
         <v>581</v>
       </c>
-      <c r="D50" s="324"/>
+      <c r="D50" s="264"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="278"/>
-      <c r="B51" s="262"/>
-      <c r="C51" s="264"/>
-      <c r="D51" s="324"/>
+      <c r="A51" s="304"/>
+      <c r="B51" s="290"/>
+      <c r="C51" s="310"/>
+      <c r="D51" s="264"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="278"/>
+      <c r="A52" s="304"/>
       <c r="B52" s="54"/>
-      <c r="C52" s="264"/>
-      <c r="D52" s="324"/>
+      <c r="C52" s="310"/>
+      <c r="D52" s="264"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="278"/>
+      <c r="A53" s="304"/>
       <c r="B53" s="50">
         <v>13</v>
       </c>
       <c r="C53" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="324"/>
+      <c r="D53" s="264"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="278"/>
-      <c r="B54" s="261"/>
-      <c r="C54" s="263" t="s">
+      <c r="A54" s="304"/>
+      <c r="B54" s="289"/>
+      <c r="C54" s="309" t="s">
         <v>582</v>
       </c>
-      <c r="D54" s="324"/>
+      <c r="D54" s="264"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="278"/>
-      <c r="B55" s="262"/>
-      <c r="C55" s="264"/>
-      <c r="D55" s="324"/>
+      <c r="A55" s="304"/>
+      <c r="B55" s="290"/>
+      <c r="C55" s="310"/>
+      <c r="D55" s="264"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="278"/>
+      <c r="A56" s="304"/>
       <c r="B56" s="50">
         <v>14</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="324"/>
+      <c r="D56" s="264"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="279"/>
+      <c r="A57" s="305"/>
       <c r="B57" s="52"/>
       <c r="C57" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="D57" s="323"/>
+      <c r="D57" s="263"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="280" t="s">
+      <c r="A58" s="315" t="s">
         <v>584</v>
       </c>
       <c r="B58" s="50">
@@ -31111,38 +31114,38 @@
       <c r="C58" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="D58" s="308" t="s">
+      <c r="D58" s="256" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="281"/>
-      <c r="B59" s="261"/>
-      <c r="C59" s="263" t="s">
+      <c r="A59" s="316"/>
+      <c r="B59" s="289"/>
+      <c r="C59" s="309" t="s">
         <v>585</v>
       </c>
-      <c r="D59" s="309"/>
+      <c r="D59" s="257"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="281"/>
-      <c r="B60" s="262"/>
-      <c r="C60" s="264"/>
-      <c r="D60" s="309"/>
+      <c r="A60" s="316"/>
+      <c r="B60" s="290"/>
+      <c r="C60" s="310"/>
+      <c r="D60" s="257"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="281"/>
+      <c r="A61" s="316"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="264"/>
-      <c r="D61" s="309"/>
+      <c r="C61" s="310"/>
+      <c r="D61" s="257"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="282"/>
+      <c r="A62" s="317"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="271"/>
-      <c r="D62" s="310"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="274"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="277" t="s">
+      <c r="A63" s="303" t="s">
         <v>586</v>
       </c>
       <c r="B63" s="50">
@@ -31151,20 +31154,20 @@
       <c r="C63" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="D63" s="322" t="s">
+      <c r="D63" s="262" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="279"/>
+      <c r="A64" s="305"/>
       <c r="B64" s="52"/>
       <c r="C64" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="D64" s="323"/>
+      <c r="D64" s="263"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="280" t="s">
+      <c r="A65" s="315" t="s">
         <v>588</v>
       </c>
       <c r="B65" s="50">
@@ -31173,74 +31176,74 @@
       <c r="C65" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D65" s="311" t="s">
+      <c r="D65" s="275" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="281"/>
+      <c r="A66" s="316"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="270" t="s">
+      <c r="C66" s="300" t="s">
         <v>589</v>
       </c>
-      <c r="D66" s="312"/>
+      <c r="D66" s="276"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="281"/>
+      <c r="A67" s="316"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="271"/>
-      <c r="D67" s="312"/>
+      <c r="C67" s="301"/>
+      <c r="D67" s="276"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="281"/>
+      <c r="A68" s="316"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="271"/>
-      <c r="D68" s="312"/>
+      <c r="C68" s="301"/>
+      <c r="D68" s="276"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="281"/>
+      <c r="A69" s="316"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="271"/>
-      <c r="D69" s="312"/>
+      <c r="C69" s="301"/>
+      <c r="D69" s="276"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="281"/>
+      <c r="A70" s="316"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="271"/>
-      <c r="D70" s="312"/>
+      <c r="C70" s="301"/>
+      <c r="D70" s="276"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="281"/>
+      <c r="A71" s="316"/>
       <c r="B71" s="56"/>
-      <c r="C71" s="271"/>
-      <c r="D71" s="312"/>
+      <c r="C71" s="301"/>
+      <c r="D71" s="276"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="281"/>
+      <c r="A72" s="316"/>
       <c r="B72" s="54"/>
-      <c r="C72" s="271"/>
-      <c r="D72" s="312"/>
+      <c r="C72" s="301"/>
+      <c r="D72" s="276"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="281"/>
+      <c r="A73" s="316"/>
       <c r="B73" s="54"/>
-      <c r="C73" s="271"/>
-      <c r="D73" s="312"/>
+      <c r="C73" s="301"/>
+      <c r="D73" s="276"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="281"/>
+      <c r="A74" s="316"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="271"/>
-      <c r="D74" s="312"/>
+      <c r="C74" s="301"/>
+      <c r="D74" s="276"/>
     </row>
     <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="281"/>
+      <c r="A75" s="316"/>
       <c r="B75" s="56"/>
-      <c r="C75" s="271"/>
-      <c r="D75" s="312"/>
+      <c r="C75" s="301"/>
+      <c r="D75" s="276"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="274" t="s">
+      <c r="A76" s="297" t="s">
         <v>566</v>
       </c>
       <c r="B76" s="50">
@@ -31249,50 +31252,50 @@
       <c r="C76" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="D76" s="325" t="s">
+      <c r="D76" s="265" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="275"/>
-      <c r="B77" s="261"/>
-      <c r="C77" s="270" t="s">
+      <c r="A77" s="298"/>
+      <c r="B77" s="289"/>
+      <c r="C77" s="300" t="s">
         <v>591</v>
       </c>
-      <c r="D77" s="326"/>
+      <c r="D77" s="266"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="275"/>
-      <c r="B78" s="262"/>
-      <c r="C78" s="271"/>
-      <c r="D78" s="326"/>
+      <c r="A78" s="298"/>
+      <c r="B78" s="290"/>
+      <c r="C78" s="301"/>
+      <c r="D78" s="266"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="275"/>
+      <c r="A79" s="298"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="271"/>
-      <c r="D79" s="326"/>
+      <c r="C79" s="301"/>
+      <c r="D79" s="266"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="275"/>
+      <c r="A80" s="298"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="271"/>
-      <c r="D80" s="326"/>
+      <c r="C80" s="301"/>
+      <c r="D80" s="266"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="275"/>
+      <c r="A81" s="298"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="271"/>
-      <c r="D81" s="326"/>
+      <c r="C81" s="301"/>
+      <c r="D81" s="266"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="276"/>
+      <c r="A82" s="299"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="286"/>
-      <c r="D82" s="326"/>
+      <c r="C82" s="302"/>
+      <c r="D82" s="266"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="303" t="s">
         <v>592</v>
       </c>
       <c r="B83" s="50">
@@ -31301,38 +31304,38 @@
       <c r="C83" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="319" t="s">
+      <c r="D83" s="259" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="278"/>
+      <c r="A84" s="304"/>
       <c r="B84" s="52"/>
-      <c r="C84" s="270" t="s">
+      <c r="C84" s="300" t="s">
         <v>593</v>
       </c>
-      <c r="D84" s="320"/>
+      <c r="D84" s="260"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="278"/>
+      <c r="A85" s="304"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="271"/>
-      <c r="D85" s="320"/>
+      <c r="C85" s="301"/>
+      <c r="D85" s="260"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="278"/>
+      <c r="A86" s="304"/>
       <c r="B86" s="54"/>
-      <c r="C86" s="271"/>
-      <c r="D86" s="320"/>
+      <c r="C86" s="301"/>
+      <c r="D86" s="260"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="279"/>
+      <c r="A87" s="305"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="286"/>
-      <c r="D87" s="321"/>
+      <c r="C87" s="302"/>
+      <c r="D87" s="261"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="283" t="s">
+      <c r="A88" s="306" t="s">
         <v>594</v>
       </c>
       <c r="B88" s="50">
@@ -31341,173 +31344,173 @@
       <c r="C88" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="318" t="s">
+      <c r="D88" s="258" t="s">
         <v>594</v>
       </c>
       <c r="I88" s="60"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="284"/>
-      <c r="B89" s="261"/>
-      <c r="C89" s="270" t="s">
+      <c r="A89" s="307"/>
+      <c r="B89" s="289"/>
+      <c r="C89" s="300" t="s">
         <v>595</v>
       </c>
-      <c r="D89" s="318"/>
+      <c r="D89" s="258"/>
       <c r="I89" s="60"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="284"/>
-      <c r="B90" s="262"/>
-      <c r="C90" s="271"/>
-      <c r="D90" s="318"/>
+      <c r="A90" s="307"/>
+      <c r="B90" s="290"/>
+      <c r="C90" s="301"/>
+      <c r="D90" s="258"/>
       <c r="I90" s="60"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="284"/>
+      <c r="A91" s="307"/>
       <c r="B91" s="54"/>
-      <c r="C91" s="271"/>
-      <c r="D91" s="318"/>
+      <c r="C91" s="301"/>
+      <c r="D91" s="258"/>
       <c r="I91" s="60"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="284"/>
+      <c r="A92" s="307"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="286"/>
-      <c r="D92" s="318"/>
+      <c r="C92" s="302"/>
+      <c r="D92" s="258"/>
       <c r="I92" s="60"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="284"/>
+      <c r="A93" s="307"/>
       <c r="B93" s="50">
         <v>21</v>
       </c>
       <c r="C93" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="318"/>
+      <c r="D93" s="258"/>
       <c r="I93" s="60"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="284"/>
-      <c r="B94" s="261"/>
-      <c r="C94" s="263" t="s">
+      <c r="A94" s="307"/>
+      <c r="B94" s="289"/>
+      <c r="C94" s="309" t="s">
         <v>596</v>
       </c>
-      <c r="D94" s="318"/>
+      <c r="D94" s="258"/>
       <c r="I94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="284"/>
-      <c r="B95" s="262"/>
-      <c r="C95" s="264"/>
-      <c r="D95" s="318"/>
+      <c r="A95" s="307"/>
+      <c r="B95" s="290"/>
+      <c r="C95" s="310"/>
+      <c r="D95" s="258"/>
       <c r="I95" s="60"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="284"/>
+      <c r="A96" s="307"/>
       <c r="B96" s="54"/>
-      <c r="C96" s="264"/>
-      <c r="D96" s="318"/>
+      <c r="C96" s="310"/>
+      <c r="D96" s="258"/>
       <c r="I96" s="60"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="284"/>
+      <c r="A97" s="307"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="271"/>
-      <c r="D97" s="318"/>
+      <c r="C97" s="301"/>
+      <c r="D97" s="258"/>
       <c r="I97" s="60"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="284"/>
+      <c r="A98" s="307"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="271"/>
-      <c r="D98" s="318"/>
+      <c r="C98" s="301"/>
+      <c r="D98" s="258"/>
       <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="284"/>
+      <c r="A99" s="307"/>
       <c r="B99" s="54"/>
-      <c r="C99" s="271"/>
-      <c r="D99" s="318"/>
+      <c r="C99" s="301"/>
+      <c r="D99" s="258"/>
       <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="284"/>
+      <c r="A100" s="307"/>
       <c r="B100" s="54"/>
-      <c r="C100" s="264"/>
-      <c r="D100" s="318"/>
+      <c r="C100" s="310"/>
+      <c r="D100" s="258"/>
       <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="284"/>
+      <c r="A101" s="307"/>
       <c r="B101" s="50">
         <v>22</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="318"/>
+      <c r="D101" s="258"/>
       <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="284"/>
-      <c r="B102" s="261"/>
-      <c r="C102" s="263" t="s">
+      <c r="A102" s="307"/>
+      <c r="B102" s="289"/>
+      <c r="C102" s="309" t="s">
         <v>597</v>
       </c>
-      <c r="D102" s="318"/>
+      <c r="D102" s="258"/>
       <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="284"/>
-      <c r="B103" s="262"/>
-      <c r="C103" s="264"/>
-      <c r="D103" s="318"/>
+      <c r="A103" s="307"/>
+      <c r="B103" s="290"/>
+      <c r="C103" s="310"/>
+      <c r="D103" s="258"/>
       <c r="I103" s="60"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="284"/>
+      <c r="A104" s="307"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="264"/>
-      <c r="D104" s="318"/>
+      <c r="C104" s="310"/>
+      <c r="D104" s="258"/>
       <c r="I104" s="60"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="284"/>
+      <c r="A105" s="307"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="271"/>
-      <c r="D105" s="318"/>
+      <c r="C105" s="301"/>
+      <c r="D105" s="258"/>
       <c r="I105" s="60"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="284"/>
+      <c r="A106" s="307"/>
       <c r="B106" s="54"/>
-      <c r="C106" s="271"/>
-      <c r="D106" s="318"/>
+      <c r="C106" s="301"/>
+      <c r="D106" s="258"/>
       <c r="I106" s="60"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="284"/>
+      <c r="A107" s="307"/>
       <c r="B107" s="50">
         <v>23</v>
       </c>
       <c r="C107" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D107" s="318"/>
-      <c r="E107" s="313" t="s">
+      <c r="D107" s="258"/>
+      <c r="E107" s="277" t="s">
         <v>600</v>
       </c>
       <c r="I107" s="60"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="284"/>
-      <c r="B108" s="261"/>
-      <c r="C108" s="288" t="s">
+      <c r="A108" s="307"/>
+      <c r="B108" s="289"/>
+      <c r="C108" s="312" t="s">
         <v>598</v>
       </c>
-      <c r="D108" s="318"/>
-      <c r="E108" s="313"/>
+      <c r="D108" s="258"/>
+      <c r="E108" s="277"/>
       <c r="F108" s="96" t="s">
         <v>415</v>
       </c>
@@ -31526,19 +31529,19 @@
       <c r="Q108" s="97"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="284"/>
-      <c r="B109" s="262"/>
-      <c r="C109" s="289"/>
-      <c r="D109" s="318"/>
-      <c r="E109" s="313"/>
+      <c r="A109" s="307"/>
+      <c r="B109" s="290"/>
+      <c r="C109" s="313"/>
+      <c r="D109" s="258"/>
+      <c r="E109" s="277"/>
       <c r="I109" s="60"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="284"/>
+      <c r="A110" s="307"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="289"/>
-      <c r="D110" s="318"/>
-      <c r="E110" s="313"/>
+      <c r="C110" s="313"/>
+      <c r="D110" s="258"/>
+      <c r="E110" s="277"/>
       <c r="F110" s="98" t="s">
         <v>381</v>
       </c>
@@ -31556,100 +31559,100 @@
       <c r="P110" s="99"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="284"/>
+      <c r="A111" s="307"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="289"/>
-      <c r="D111" s="318"/>
-      <c r="E111" s="313"/>
+      <c r="C111" s="313"/>
+      <c r="D111" s="258"/>
+      <c r="E111" s="277"/>
       <c r="I111" s="60"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="284"/>
+      <c r="A112" s="307"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="289"/>
-      <c r="D112" s="318"/>
-      <c r="E112" s="313"/>
+      <c r="C112" s="313"/>
+      <c r="D112" s="258"/>
+      <c r="E112" s="277"/>
       <c r="I112" s="60"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="284"/>
+      <c r="A113" s="307"/>
       <c r="B113" s="54"/>
-      <c r="C113" s="290"/>
-      <c r="D113" s="318"/>
-      <c r="E113" s="313"/>
+      <c r="C113" s="314"/>
+      <c r="D113" s="258"/>
+      <c r="E113" s="277"/>
       <c r="I113" s="60"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="284"/>
+      <c r="A114" s="307"/>
       <c r="B114" s="50">
         <v>24</v>
       </c>
       <c r="C114" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="318"/>
+      <c r="D114" s="258"/>
       <c r="I114" s="60"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="284"/>
-      <c r="B115" s="261"/>
-      <c r="C115" s="263" t="s">
+      <c r="A115" s="307"/>
+      <c r="B115" s="289"/>
+      <c r="C115" s="309" t="s">
         <v>599</v>
       </c>
-      <c r="D115" s="318"/>
+      <c r="D115" s="258"/>
       <c r="I115" s="60"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="284"/>
-      <c r="B116" s="262"/>
-      <c r="C116" s="264"/>
-      <c r="D116" s="318"/>
+      <c r="A116" s="307"/>
+      <c r="B116" s="290"/>
+      <c r="C116" s="310"/>
+      <c r="D116" s="258"/>
       <c r="I116" s="60"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="284"/>
+      <c r="A117" s="307"/>
       <c r="B117" s="54"/>
-      <c r="C117" s="264"/>
-      <c r="D117" s="318"/>
+      <c r="C117" s="310"/>
+      <c r="D117" s="258"/>
       <c r="I117" s="60"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="284"/>
+      <c r="A118" s="307"/>
       <c r="B118" s="54"/>
-      <c r="C118" s="264"/>
-      <c r="D118" s="318"/>
+      <c r="C118" s="310"/>
+      <c r="D118" s="258"/>
       <c r="I118" s="60"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="284"/>
+      <c r="A119" s="307"/>
       <c r="B119" s="54"/>
-      <c r="C119" s="264"/>
-      <c r="D119" s="318"/>
+      <c r="C119" s="310"/>
+      <c r="D119" s="258"/>
       <c r="I119" s="60"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="284"/>
+      <c r="A120" s="307"/>
       <c r="B120" s="54"/>
-      <c r="C120" s="264"/>
-      <c r="D120" s="318"/>
+      <c r="C120" s="310"/>
+      <c r="D120" s="258"/>
       <c r="I120" s="60"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="284"/>
+      <c r="A121" s="307"/>
       <c r="B121" s="54"/>
-      <c r="C121" s="264"/>
-      <c r="D121" s="318"/>
+      <c r="C121" s="310"/>
+      <c r="D121" s="258"/>
       <c r="I121" s="60"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="285"/>
+      <c r="A122" s="308"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="287"/>
-      <c r="D122" s="318"/>
+      <c r="C122" s="311"/>
+      <c r="D122" s="258"/>
       <c r="I122" s="60"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="291" t="s">
+      <c r="A123" s="287" t="s">
         <v>600</v>
       </c>
       <c r="B123" s="50">
@@ -31658,299 +31661,299 @@
       <c r="C123" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D123" s="313" t="s">
+      <c r="D123" s="277" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="292"/>
-      <c r="B124" s="261"/>
-      <c r="C124" s="293" t="s">
+      <c r="A124" s="288"/>
+      <c r="B124" s="289"/>
+      <c r="C124" s="291" t="s">
         <v>601</v>
       </c>
-      <c r="D124" s="313"/>
+      <c r="D124" s="277"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="292"/>
-      <c r="B125" s="262"/>
-      <c r="C125" s="294"/>
-      <c r="D125" s="313"/>
+      <c r="A125" s="288"/>
+      <c r="B125" s="290"/>
+      <c r="C125" s="292"/>
+      <c r="D125" s="277"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="292"/>
+      <c r="A126" s="288"/>
       <c r="B126" s="54"/>
-      <c r="C126" s="294"/>
-      <c r="D126" s="313"/>
+      <c r="C126" s="292"/>
+      <c r="D126" s="277"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="292"/>
+      <c r="A127" s="288"/>
       <c r="B127" s="54"/>
-      <c r="C127" s="294"/>
-      <c r="D127" s="313"/>
+      <c r="C127" s="292"/>
+      <c r="D127" s="277"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="292"/>
+      <c r="A128" s="288"/>
       <c r="B128" s="54"/>
-      <c r="C128" s="294"/>
-      <c r="D128" s="313"/>
+      <c r="C128" s="292"/>
+      <c r="D128" s="277"/>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="292"/>
+      <c r="A129" s="288"/>
       <c r="B129" s="54"/>
-      <c r="C129" s="294"/>
-      <c r="D129" s="313"/>
+      <c r="C129" s="292"/>
+      <c r="D129" s="277"/>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="292"/>
+      <c r="A130" s="288"/>
       <c r="B130" s="54"/>
-      <c r="C130" s="294"/>
-      <c r="D130" s="313"/>
+      <c r="C130" s="292"/>
+      <c r="D130" s="277"/>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="292"/>
+      <c r="A131" s="288"/>
       <c r="B131" s="57"/>
-      <c r="C131" s="295"/>
-      <c r="D131" s="313"/>
+      <c r="C131" s="293"/>
+      <c r="D131" s="277"/>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="292"/>
+      <c r="A132" s="288"/>
       <c r="B132" s="50">
         <v>26</v>
       </c>
       <c r="C132" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="313"/>
+      <c r="D132" s="277"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="292"/>
-      <c r="B133" s="261"/>
-      <c r="C133" s="293" t="s">
+      <c r="A133" s="288"/>
+      <c r="B133" s="289"/>
+      <c r="C133" s="291" t="s">
         <v>602</v>
       </c>
-      <c r="D133" s="313"/>
+      <c r="D133" s="277"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="292"/>
-      <c r="B134" s="262"/>
-      <c r="C134" s="294"/>
-      <c r="D134" s="313"/>
+      <c r="A134" s="288"/>
+      <c r="B134" s="290"/>
+      <c r="C134" s="292"/>
+      <c r="D134" s="277"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="292"/>
+      <c r="A135" s="288"/>
       <c r="B135" s="54"/>
-      <c r="C135" s="294"/>
-      <c r="D135" s="313"/>
+      <c r="C135" s="292"/>
+      <c r="D135" s="277"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="292"/>
+      <c r="A136" s="288"/>
       <c r="B136" s="54"/>
-      <c r="C136" s="294"/>
-      <c r="D136" s="313"/>
+      <c r="C136" s="292"/>
+      <c r="D136" s="277"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="292"/>
+      <c r="A137" s="288"/>
       <c r="B137" s="54"/>
-      <c r="C137" s="294"/>
-      <c r="D137" s="313"/>
+      <c r="C137" s="292"/>
+      <c r="D137" s="277"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="292"/>
+      <c r="A138" s="288"/>
       <c r="B138" s="54"/>
-      <c r="C138" s="294"/>
-      <c r="D138" s="313"/>
+      <c r="C138" s="292"/>
+      <c r="D138" s="277"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="292"/>
+      <c r="A139" s="288"/>
       <c r="B139" s="54"/>
-      <c r="C139" s="294"/>
-      <c r="D139" s="313"/>
+      <c r="C139" s="292"/>
+      <c r="D139" s="277"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="292"/>
+      <c r="A140" s="288"/>
       <c r="B140" s="57"/>
-      <c r="C140" s="295"/>
-      <c r="D140" s="313"/>
+      <c r="C140" s="293"/>
+      <c r="D140" s="277"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="292"/>
+      <c r="A141" s="288"/>
       <c r="B141" s="50">
         <v>27</v>
       </c>
       <c r="C141" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D141" s="313"/>
+      <c r="D141" s="277"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="292"/>
-      <c r="B142" s="261"/>
-      <c r="C142" s="293" t="s">
+      <c r="A142" s="288"/>
+      <c r="B142" s="289"/>
+      <c r="C142" s="291" t="s">
         <v>603</v>
       </c>
-      <c r="D142" s="313"/>
+      <c r="D142" s="277"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="292"/>
-      <c r="B143" s="262"/>
-      <c r="C143" s="294"/>
-      <c r="D143" s="313"/>
+      <c r="A143" s="288"/>
+      <c r="B143" s="290"/>
+      <c r="C143" s="292"/>
+      <c r="D143" s="277"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="292"/>
+      <c r="A144" s="288"/>
       <c r="B144" s="54"/>
-      <c r="C144" s="294"/>
-      <c r="D144" s="313"/>
+      <c r="C144" s="292"/>
+      <c r="D144" s="277"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="292"/>
+      <c r="A145" s="288"/>
       <c r="B145" s="54"/>
-      <c r="C145" s="294"/>
-      <c r="D145" s="313"/>
+      <c r="C145" s="292"/>
+      <c r="D145" s="277"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="292"/>
+      <c r="A146" s="288"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="294"/>
-      <c r="D146" s="313"/>
+      <c r="C146" s="292"/>
+      <c r="D146" s="277"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="292"/>
+      <c r="A147" s="288"/>
       <c r="B147" s="54"/>
-      <c r="C147" s="294"/>
-      <c r="D147" s="313"/>
+      <c r="C147" s="292"/>
+      <c r="D147" s="277"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="292"/>
+      <c r="A148" s="288"/>
       <c r="B148" s="54"/>
-      <c r="C148" s="294"/>
-      <c r="D148" s="313"/>
+      <c r="C148" s="292"/>
+      <c r="D148" s="277"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="292"/>
+      <c r="A149" s="288"/>
       <c r="B149" s="57"/>
-      <c r="C149" s="295"/>
-      <c r="D149" s="313"/>
+      <c r="C149" s="293"/>
+      <c r="D149" s="277"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="292"/>
+      <c r="A150" s="288"/>
       <c r="B150" s="50">
         <v>28</v>
       </c>
       <c r="C150" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D150" s="313"/>
-      <c r="E150" s="306" t="s">
+      <c r="D150" s="277"/>
+      <c r="E150" s="272" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="292"/>
-      <c r="B151" s="261"/>
-      <c r="C151" s="293" t="s">
+      <c r="A151" s="288"/>
+      <c r="B151" s="289"/>
+      <c r="C151" s="291" t="s">
         <v>604</v>
       </c>
-      <c r="D151" s="313"/>
-      <c r="E151" s="307"/>
+      <c r="D151" s="277"/>
+      <c r="E151" s="273"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="292"/>
-      <c r="B152" s="262"/>
-      <c r="C152" s="294"/>
-      <c r="D152" s="313"/>
-      <c r="E152" s="307"/>
+      <c r="A152" s="288"/>
+      <c r="B152" s="290"/>
+      <c r="C152" s="292"/>
+      <c r="D152" s="277"/>
+      <c r="E152" s="273"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="292"/>
+      <c r="A153" s="288"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="294"/>
-      <c r="D153" s="313"/>
-      <c r="E153" s="307"/>
+      <c r="C153" s="292"/>
+      <c r="D153" s="277"/>
+      <c r="E153" s="273"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="292"/>
+      <c r="A154" s="288"/>
       <c r="B154" s="54"/>
-      <c r="C154" s="294"/>
-      <c r="D154" s="313"/>
-      <c r="E154" s="307"/>
+      <c r="C154" s="292"/>
+      <c r="D154" s="277"/>
+      <c r="E154" s="273"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="292"/>
+      <c r="A155" s="288"/>
       <c r="B155" s="54"/>
-      <c r="C155" s="294"/>
-      <c r="D155" s="313"/>
-      <c r="E155" s="307"/>
+      <c r="C155" s="292"/>
+      <c r="D155" s="277"/>
+      <c r="E155" s="273"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="292"/>
+      <c r="A156" s="288"/>
       <c r="B156" s="54"/>
-      <c r="C156" s="294"/>
-      <c r="D156" s="313"/>
-      <c r="E156" s="307"/>
+      <c r="C156" s="292"/>
+      <c r="D156" s="277"/>
+      <c r="E156" s="273"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="292"/>
+      <c r="A157" s="288"/>
       <c r="B157" s="54"/>
-      <c r="C157" s="294"/>
-      <c r="D157" s="313"/>
-      <c r="E157" s="307"/>
+      <c r="C157" s="292"/>
+      <c r="D157" s="277"/>
+      <c r="E157" s="273"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="292"/>
+      <c r="A158" s="288"/>
       <c r="B158" s="57"/>
-      <c r="C158" s="295"/>
-      <c r="D158" s="313"/>
-      <c r="E158" s="307"/>
+      <c r="C158" s="293"/>
+      <c r="D158" s="277"/>
+      <c r="E158" s="273"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="292"/>
+      <c r="A159" s="288"/>
       <c r="B159" s="50">
         <v>29</v>
       </c>
       <c r="C159" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="D159" s="313"/>
+      <c r="D159" s="277"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="292"/>
-      <c r="B160" s="261"/>
-      <c r="C160" s="293" t="s">
+      <c r="A160" s="288"/>
+      <c r="B160" s="289"/>
+      <c r="C160" s="291" t="s">
         <v>605</v>
       </c>
-      <c r="D160" s="313"/>
+      <c r="D160" s="277"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="292"/>
-      <c r="B161" s="262"/>
-      <c r="C161" s="294"/>
-      <c r="D161" s="313"/>
+      <c r="A161" s="288"/>
+      <c r="B161" s="290"/>
+      <c r="C161" s="292"/>
+      <c r="D161" s="277"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="292"/>
+      <c r="A162" s="288"/>
       <c r="B162" s="54"/>
-      <c r="C162" s="294"/>
-      <c r="D162" s="313"/>
+      <c r="C162" s="292"/>
+      <c r="D162" s="277"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="292"/>
+      <c r="A163" s="288"/>
       <c r="B163" s="54"/>
-      <c r="C163" s="295"/>
-      <c r="D163" s="313"/>
+      <c r="C163" s="293"/>
+      <c r="D163" s="277"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="292"/>
+      <c r="A164" s="288"/>
       <c r="B164" s="50">
         <v>30</v>
       </c>
       <c r="C164" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="D164" s="315" t="s">
+      <c r="D164" s="279" t="s">
         <v>594</v>
       </c>
-      <c r="E164" s="314" t="s">
+      <c r="E164" s="278" t="s">
         <v>600</v>
       </c>
       <c r="F164" s="102" t="s">
@@ -31965,20 +31968,20 @@
       <c r="K164" s="103"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="292"/>
+      <c r="A165" s="288"/>
       <c r="B165" s="58"/>
-      <c r="C165" s="296" t="s">
+      <c r="C165" s="294" t="s">
         <v>606</v>
       </c>
-      <c r="D165" s="315"/>
-      <c r="E165" s="314"/>
+      <c r="D165" s="279"/>
+      <c r="E165" s="278"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="292"/>
+      <c r="A166" s="288"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="297"/>
-      <c r="D166" s="315"/>
-      <c r="E166" s="314"/>
+      <c r="C166" s="295"/>
+      <c r="D166" s="279"/>
+      <c r="E166" s="278"/>
       <c r="F166" s="100" t="s">
         <v>381</v>
       </c>
@@ -31991,11 +31994,11 @@
       <c r="K166" s="104"/>
     </row>
     <row r="167" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="292"/>
+      <c r="A167" s="288"/>
       <c r="B167" s="54"/>
-      <c r="C167" s="298"/>
-      <c r="D167" s="315"/>
-      <c r="E167" s="314"/>
+      <c r="C167" s="296"/>
+      <c r="D167" s="279"/>
+      <c r="E167" s="278"/>
       <c r="F167" s="100" t="s">
         <v>389</v>
       </c>
@@ -32008,7 +32011,7 @@
       <c r="K167" s="104"/>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="299" t="s">
+      <c r="A168" s="280" t="s">
         <v>607</v>
       </c>
       <c r="B168" s="50">
@@ -32017,62 +32020,62 @@
       <c r="C168" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D168" s="314" t="s">
+      <c r="D168" s="278" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="299"/>
-      <c r="B169" s="300"/>
-      <c r="C169" s="302" t="s">
+      <c r="A169" s="280"/>
+      <c r="B169" s="281"/>
+      <c r="C169" s="283" t="s">
         <v>608</v>
       </c>
-      <c r="D169" s="314"/>
+      <c r="D169" s="278"/>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="299"/>
-      <c r="B170" s="301"/>
-      <c r="C170" s="303"/>
-      <c r="D170" s="314"/>
+      <c r="A170" s="280"/>
+      <c r="B170" s="282"/>
+      <c r="C170" s="284"/>
+      <c r="D170" s="278"/>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="299"/>
+      <c r="A171" s="280"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="303"/>
-      <c r="D171" s="314"/>
+      <c r="C171" s="284"/>
+      <c r="D171" s="278"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="299"/>
+      <c r="A172" s="280"/>
       <c r="B172" s="54"/>
-      <c r="C172" s="303"/>
-      <c r="D172" s="314"/>
+      <c r="C172" s="284"/>
+      <c r="D172" s="278"/>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="299"/>
+      <c r="A173" s="280"/>
       <c r="B173" s="54"/>
-      <c r="C173" s="303"/>
-      <c r="D173" s="314"/>
+      <c r="C173" s="284"/>
+      <c r="D173" s="278"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="299"/>
+      <c r="A174" s="280"/>
       <c r="B174" s="54"/>
-      <c r="C174" s="303"/>
-      <c r="D174" s="314"/>
+      <c r="C174" s="284"/>
+      <c r="D174" s="278"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="299"/>
+      <c r="A175" s="280"/>
       <c r="B175" s="54"/>
-      <c r="C175" s="303"/>
-      <c r="D175" s="314"/>
+      <c r="C175" s="284"/>
+      <c r="D175" s="278"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="299"/>
+      <c r="A176" s="280"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="304"/>
-      <c r="D176" s="314"/>
+      <c r="C176" s="285"/>
+      <c r="D176" s="278"/>
     </row>
     <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="305" t="s">
+      <c r="A177" s="286" t="s">
         <v>566</v>
       </c>
       <c r="B177" s="50">
@@ -32081,121 +32084,121 @@
       <c r="C177" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D177" s="306" t="s">
+      <c r="D177" s="272" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="305"/>
-      <c r="B178" s="300"/>
-      <c r="C178" s="302" t="s">
+      <c r="A178" s="286"/>
+      <c r="B178" s="281"/>
+      <c r="C178" s="283" t="s">
         <v>609</v>
       </c>
-      <c r="D178" s="307"/>
+      <c r="D178" s="273"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="305"/>
-      <c r="B179" s="301"/>
-      <c r="C179" s="303"/>
-      <c r="D179" s="307"/>
+      <c r="A179" s="286"/>
+      <c r="B179" s="282"/>
+      <c r="C179" s="284"/>
+      <c r="D179" s="273"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="305"/>
+      <c r="A180" s="286"/>
       <c r="B180" s="54"/>
-      <c r="C180" s="303"/>
-      <c r="D180" s="307"/>
+      <c r="C180" s="284"/>
+      <c r="D180" s="273"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="305"/>
+      <c r="A181" s="286"/>
       <c r="B181" s="54"/>
-      <c r="C181" s="303"/>
-      <c r="D181" s="307"/>
+      <c r="C181" s="284"/>
+      <c r="D181" s="273"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="305"/>
+      <c r="A182" s="286"/>
       <c r="B182" s="54"/>
-      <c r="C182" s="303"/>
-      <c r="D182" s="307"/>
+      <c r="C182" s="284"/>
+      <c r="D182" s="273"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="305"/>
+      <c r="A183" s="286"/>
       <c r="B183" s="54"/>
-      <c r="C183" s="303"/>
-      <c r="D183" s="307"/>
+      <c r="C183" s="284"/>
+      <c r="D183" s="273"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="305"/>
+      <c r="A184" s="286"/>
       <c r="B184" s="54"/>
-      <c r="C184" s="303"/>
-      <c r="D184" s="307"/>
+      <c r="C184" s="284"/>
+      <c r="D184" s="273"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="305"/>
+      <c r="A185" s="286"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="303"/>
-      <c r="D185" s="307"/>
+      <c r="C185" s="284"/>
+      <c r="D185" s="273"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="305"/>
+      <c r="A186" s="286"/>
       <c r="B186" s="50">
         <v>33</v>
       </c>
       <c r="C186" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="D186" s="306" t="s">
+      <c r="D186" s="272" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="305"/>
-      <c r="B187" s="300"/>
-      <c r="C187" s="303" t="s">
+      <c r="A187" s="286"/>
+      <c r="B187" s="281"/>
+      <c r="C187" s="284" t="s">
         <v>611</v>
       </c>
-      <c r="D187" s="307"/>
+      <c r="D187" s="273"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="305"/>
-      <c r="B188" s="301"/>
-      <c r="C188" s="303"/>
-      <c r="D188" s="307"/>
+      <c r="A188" s="286"/>
+      <c r="B188" s="282"/>
+      <c r="C188" s="284"/>
+      <c r="D188" s="273"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="305"/>
+      <c r="A189" s="286"/>
       <c r="B189" s="54"/>
-      <c r="C189" s="303"/>
-      <c r="D189" s="307"/>
+      <c r="C189" s="284"/>
+      <c r="D189" s="273"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="305"/>
+      <c r="A190" s="286"/>
       <c r="B190" s="54"/>
-      <c r="C190" s="303"/>
-      <c r="D190" s="307"/>
+      <c r="C190" s="284"/>
+      <c r="D190" s="273"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="305"/>
+      <c r="A191" s="286"/>
       <c r="B191" s="54"/>
-      <c r="C191" s="303"/>
-      <c r="D191" s="307"/>
+      <c r="C191" s="284"/>
+      <c r="D191" s="273"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="305"/>
+      <c r="A192" s="286"/>
       <c r="B192" s="54"/>
-      <c r="C192" s="303"/>
-      <c r="D192" s="307"/>
+      <c r="C192" s="284"/>
+      <c r="D192" s="273"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="305"/>
+      <c r="A193" s="286"/>
       <c r="B193" s="54"/>
-      <c r="C193" s="303"/>
-      <c r="D193" s="307"/>
+      <c r="C193" s="284"/>
+      <c r="D193" s="273"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="305"/>
+      <c r="A194" s="286"/>
       <c r="B194" s="57"/>
-      <c r="C194" s="304"/>
-      <c r="D194" s="307"/>
+      <c r="C194" s="285"/>
+      <c r="D194" s="273"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
@@ -32204,6 +32207,91 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A38:A57"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="A88:A122"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A123:A167"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C176"/>
+    <mergeCell ref="A177:A194"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C185"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C194"/>
+    <mergeCell ref="D177:D185"/>
+    <mergeCell ref="D186:D194"/>
+    <mergeCell ref="E150:E158"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D65:D75"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="D123:D163"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="D164:D167"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -32218,91 +32306,6 @@
     <mergeCell ref="D38:D45"/>
     <mergeCell ref="D13:D32"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D177:D185"/>
-    <mergeCell ref="D186:D194"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D65:D75"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="D123:D163"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C176"/>
-    <mergeCell ref="A177:A194"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C185"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C194"/>
-    <mergeCell ref="A123:A167"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C149"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A88:A122"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A38:A57"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A32"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/1.reference/mapping_foas.xlsx
+++ b/data/1.reference/mapping_foas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\1.reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C05C05A-5A91-4036-AC55-EAB1C04E3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC59064A-AA95-48A2-86E7-38181E981911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Old to new" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="702">
   <si>
     <t>FoA</t>
   </si>
@@ -2016,9 +2016,6 @@
     <t>Increase livestock productivity</t>
   </si>
   <si>
-    <t>Inspect pest control</t>
-  </si>
-  <si>
     <t>Improve surveillance detection and control of insect pests affecting human health</t>
   </si>
   <si>
@@ -2182,6 +2179,51 @@
   </si>
   <si>
     <t>theme</t>
+  </si>
+  <si>
+    <t>Imaging and treatment capacity for cancer and other NCDs including on related safety and security considerations</t>
+  </si>
+  <si>
+    <t>Detection and control of major insect pests including zoonotic diseases affecting human health</t>
+  </si>
+  <si>
+    <t>Effectiveness of nutrition programmes interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knowledge on application and development of SMRs</t>
+  </si>
+  <si>
+    <t>Safe introduction operation and lifetime management of nuclear power plant</t>
+  </si>
+  <si>
+    <t>Efficiency productivity quality and safety across industries using nuclear technologies</t>
+  </si>
+  <si>
+    <t>Reliabile and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>Safe and effective utilization operation and maintenance of research reactors</t>
+  </si>
+  <si>
+    <t>Ensure nuclear installation safety</t>
+  </si>
+  <si>
+    <t>Establish emergency preparedness &amp; response</t>
+  </si>
+  <si>
+    <t>Establish governmental and regulatory infrastructure to ensure nuclear and radiation safety</t>
+  </si>
+  <si>
+    <t>Radiation protection o fworkers patients the public and the environment</t>
+  </si>
+  <si>
+    <t>Radioactive waste management</t>
+  </si>
+  <si>
+    <t>Monitoring and assessment of pollution in land air coastal ecosystems and the oceans including from plastics</t>
+  </si>
+  <si>
+    <t>Sustainable land and water management practices for agriculture and freshwater resources</t>
   </si>
 </sst>
 </file>
@@ -2524,7 +2566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -3385,12 +3427,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3712,9 +3842,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3759,16 +3886,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3777,22 +3898,37 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3801,22 +3937,76 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3828,7 +4018,58 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3849,133 +4090,61 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3987,16 +4156,154 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4041,186 +4348,37 @@
     <xf numFmtId="0" fontId="26" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4683,8 +4841,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,33 +4859,33 @@
         <v>561</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>562</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E1" s="106" t="s">
         <v>626</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G1" s="106" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1" s="106" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I1" s="106" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="108">
@@ -4737,12 +4895,12 @@
         <v>337</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F2" s="109"/>
       <c r="G2" s="109"/>
       <c r="H2" s="109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I2" t="s">
         <v>321</v>
@@ -4750,73 +4908,75 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="342">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="126" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="109" t="s">
-        <v>640</v>
-      </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E3" s="132" t="s">
+        <v>639</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>692</v>
+      </c>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132" t="s">
+        <v>652</v>
+      </c>
+      <c r="I3" s="343" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B4" s="117"/>
-      <c r="C4" s="133">
+      <c r="C4" s="344">
         <v>33</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="148" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="109" t="s">
-        <v>641</v>
-      </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" t="s">
+      <c r="E4" s="171" t="s">
+        <v>640</v>
+      </c>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="345" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="135" t="s">
         <v>617</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137" t="s">
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="113" t="s">
@@ -4825,19 +4985,19 @@
       <c r="C6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="138" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140" t="s">
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="137" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="113" t="s">
@@ -4853,12 +5013,12 @@
       <c r="F7" s="115"/>
       <c r="G7" s="115"/>
       <c r="H7" s="115"/>
-      <c r="I7" s="141" t="s">
+      <c r="I7" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="137" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="113" t="s">
@@ -4874,12 +5034,12 @@
       <c r="F8" s="115"/>
       <c r="G8" s="115"/>
       <c r="H8" s="115"/>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="137" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="113" t="s">
@@ -4891,16 +5051,16 @@
       <c r="D9" s="113" t="s">
         <v>617</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="137" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="113" t="s">
@@ -4912,16 +5072,16 @@
       <c r="D10" s="113" t="s">
         <v>617</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140" t="s">
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="139" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="137" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="113" t="s">
@@ -4937,12 +5097,12 @@
       <c r="F11" s="115"/>
       <c r="G11" s="115"/>
       <c r="H11" s="115"/>
-      <c r="I11" s="141" t="s">
+      <c r="I11" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="137" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="113" t="s">
@@ -4958,12 +5118,12 @@
       <c r="F12" s="115"/>
       <c r="G12" s="115"/>
       <c r="H12" s="115"/>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="113" t="s">
@@ -4979,12 +5139,12 @@
       <c r="F13" s="115"/>
       <c r="G13" s="115"/>
       <c r="H13" s="115"/>
-      <c r="I13" s="141" t="s">
+      <c r="I13" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="137" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="113" t="s">
@@ -5000,12 +5160,12 @@
       <c r="F14" s="115"/>
       <c r="G14" s="115"/>
       <c r="H14" s="115"/>
-      <c r="I14" s="141" t="s">
+      <c r="I14" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="137" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="113" t="s">
@@ -5021,12 +5181,12 @@
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
-      <c r="I15" s="141" t="s">
+      <c r="I15" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="137" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="113" t="s">
@@ -5042,12 +5202,12 @@
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
       <c r="H16" s="115"/>
-      <c r="I16" s="141" t="s">
+      <c r="I16" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="137" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="113" t="s">
@@ -5063,12 +5223,12 @@
       <c r="F17" s="115"/>
       <c r="G17" s="115"/>
       <c r="H17" s="115"/>
-      <c r="I17" s="141" t="s">
+      <c r="I17" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="113" t="s">
@@ -5084,12 +5244,12 @@
       <c r="F18" s="115"/>
       <c r="G18" s="115"/>
       <c r="H18" s="115"/>
-      <c r="I18" s="141" t="s">
+      <c r="I18" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="113" t="s">
@@ -5105,12 +5265,12 @@
       <c r="F19" s="115"/>
       <c r="G19" s="115"/>
       <c r="H19" s="115"/>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="137" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="113" t="s">
@@ -5126,12 +5286,12 @@
       <c r="F20" s="115"/>
       <c r="G20" s="115"/>
       <c r="H20" s="115"/>
-      <c r="I20" s="141" t="s">
+      <c r="I20" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="137" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="113" t="s">
@@ -5147,12 +5307,12 @@
       <c r="F21" s="115"/>
       <c r="G21" s="115"/>
       <c r="H21" s="115"/>
-      <c r="I21" s="141" t="s">
+      <c r="I21" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="137" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="113" t="s">
@@ -5168,12 +5328,12 @@
       <c r="F22" s="115"/>
       <c r="G22" s="115"/>
       <c r="H22" s="115"/>
-      <c r="I22" s="141" t="s">
+      <c r="I22" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="137" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="113" t="s">
@@ -5189,12 +5349,12 @@
       <c r="F23" s="115"/>
       <c r="G23" s="115"/>
       <c r="H23" s="115"/>
-      <c r="I23" s="141" t="s">
+      <c r="I23" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="137" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="113" t="s">
@@ -5210,12 +5370,12 @@
       <c r="F24" s="115"/>
       <c r="G24" s="115"/>
       <c r="H24" s="115"/>
-      <c r="I24" s="141" t="s">
+      <c r="I24" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="137" t="s">
         <v>125</v>
       </c>
       <c r="B25" s="113" t="s">
@@ -5231,12 +5391,12 @@
       <c r="F25" s="115"/>
       <c r="G25" s="115"/>
       <c r="H25" s="115"/>
-      <c r="I25" s="141" t="s">
+      <c r="I25" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="137" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="113" t="s">
@@ -5252,12 +5412,12 @@
       <c r="F26" s="115"/>
       <c r="G26" s="115"/>
       <c r="H26" s="115"/>
-      <c r="I26" s="141" t="s">
+      <c r="I26" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="137" t="s">
         <v>145</v>
       </c>
       <c r="B27" s="113" t="s">
@@ -5273,12 +5433,12 @@
       <c r="F27" s="115"/>
       <c r="G27" s="115"/>
       <c r="H27" s="115"/>
-      <c r="I27" s="141" t="s">
+      <c r="I27" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="137" t="s">
         <v>227</v>
       </c>
       <c r="B28" s="113" t="s">
@@ -5290,38 +5450,38 @@
       <c r="D28" s="113" t="s">
         <v>617</v>
       </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140" t="s">
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="141" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="142" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="142" t="s">
         <v>617</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145" t="s">
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="107" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B30" s="107" t="s">
         <v>1</v>
@@ -5333,40 +5493,42 @@
         <v>3</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>641</v>
-      </c>
-      <c r="F30" s="107"/>
+        <v>640</v>
+      </c>
+      <c r="F30" s="148" t="s">
+        <v>693</v>
+      </c>
       <c r="G30" s="107"/>
       <c r="H30" s="107" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I30" s="110" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="135" t="s">
+      <c r="D31" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147" t="s">
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="146" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="138" t="s">
+      <c r="A32" s="137" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="113" t="s">
@@ -5382,12 +5544,12 @@
       <c r="F32" s="115"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="141" t="s">
+      <c r="I32" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="137" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="113" t="s">
@@ -5403,12 +5565,12 @@
       <c r="F33" s="115"/>
       <c r="G33" s="115"/>
       <c r="H33" s="115"/>
-      <c r="I33" s="141" t="s">
+      <c r="I33" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="137" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="113" t="s">
@@ -5424,12 +5586,12 @@
       <c r="F34" s="115"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
-      <c r="I34" s="141" t="s">
+      <c r="I34" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="138" t="s">
+      <c r="A35" s="137" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="113" t="s">
@@ -5445,12 +5607,12 @@
       <c r="F35" s="115"/>
       <c r="G35" s="115"/>
       <c r="H35" s="115"/>
-      <c r="I35" s="141" t="s">
+      <c r="I35" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="137" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="113" t="s">
@@ -5466,12 +5628,12 @@
       <c r="F36" s="115"/>
       <c r="G36" s="115"/>
       <c r="H36" s="115"/>
-      <c r="I36" s="141" t="s">
+      <c r="I36" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="137" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="113" t="s">
@@ -5487,12 +5649,12 @@
       <c r="F37" s="115"/>
       <c r="G37" s="115"/>
       <c r="H37" s="115"/>
-      <c r="I37" s="141" t="s">
+      <c r="I37" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="137" t="s">
         <v>151</v>
       </c>
       <c r="B38" s="113" t="s">
@@ -5508,53 +5670,55 @@
       <c r="F38" s="115"/>
       <c r="G38" s="115"/>
       <c r="H38" s="115"/>
-      <c r="I38" s="141" t="s">
+      <c r="I38" s="140" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="114" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="142" t="s">
+      <c r="A39" s="141" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="143" t="s">
+      <c r="D39" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="145" t="s">
+      <c r="E39" s="143"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="144" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="148" t="s">
+      <c r="A40" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="149" t="s">
+      <c r="C40" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="149" t="s">
+      <c r="D40" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="149" t="s">
-        <v>637</v>
-      </c>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149" t="s">
-        <v>655</v>
-      </c>
-      <c r="I40" s="150" t="s">
+      <c r="E40" s="334" t="s">
+        <v>636</v>
+      </c>
+      <c r="F40" s="132" t="s">
+        <v>654</v>
+      </c>
+      <c r="G40" s="338"/>
+      <c r="H40" s="148" t="s">
+        <v>654</v>
+      </c>
+      <c r="I40" s="149" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5571,13 +5735,15 @@
       <c r="D41" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="121" t="s">
-        <v>639</v>
-      </c>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
+      <c r="E41" s="335" t="s">
+        <v>638</v>
+      </c>
+      <c r="F41" s="332" t="s">
+        <v>691</v>
+      </c>
+      <c r="G41" s="339"/>
       <c r="H41" s="121" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I41" s="122" t="s">
         <v>320</v>
@@ -5596,13 +5762,15 @@
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="107" t="s">
-        <v>639</v>
-      </c>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
+      <c r="E42" s="336" t="s">
+        <v>638</v>
+      </c>
+      <c r="F42" s="332" t="s">
+        <v>691</v>
+      </c>
+      <c r="G42" s="340"/>
       <c r="H42" s="107" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I42" s="124" t="s">
         <v>320</v>
@@ -5621,13 +5789,15 @@
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="107" t="s">
-        <v>639</v>
-      </c>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
+      <c r="E43" s="336" t="s">
+        <v>638</v>
+      </c>
+      <c r="F43" s="332" t="s">
+        <v>691</v>
+      </c>
+      <c r="G43" s="340"/>
       <c r="H43" s="107" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I43" s="124" t="s">
         <v>320</v>
@@ -5646,13 +5816,15 @@
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="107" t="s">
-        <v>639</v>
-      </c>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
+      <c r="E44" s="336" t="s">
+        <v>638</v>
+      </c>
+      <c r="F44" s="332" t="s">
+        <v>691</v>
+      </c>
+      <c r="G44" s="340"/>
       <c r="H44" s="107" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I44" s="124" t="s">
         <v>320</v>
@@ -5671,13 +5843,15 @@
       <c r="D45" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="127" t="s">
-        <v>639</v>
-      </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
+      <c r="E45" s="337" t="s">
+        <v>638</v>
+      </c>
+      <c r="F45" s="132" t="s">
+        <v>691</v>
+      </c>
+      <c r="G45" s="341"/>
       <c r="H45" s="127" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I45" s="128" t="s">
         <v>320</v>
@@ -5697,12 +5871,14 @@
         <v>132</v>
       </c>
       <c r="E46" s="129" t="s">
-        <v>638</v>
-      </c>
-      <c r="F46" s="129"/>
+        <v>637</v>
+      </c>
+      <c r="F46" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G46" s="129"/>
       <c r="H46" s="129" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I46" s="130" t="s">
         <v>320</v>
@@ -5722,12 +5898,14 @@
         <v>132</v>
       </c>
       <c r="E47" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F47" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F47" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G47" s="109"/>
       <c r="H47" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I47" s="131" t="s">
         <v>320</v>
@@ -5747,12 +5925,14 @@
         <v>132</v>
       </c>
       <c r="E48" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F48" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F48" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G48" s="109"/>
       <c r="H48" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I48" s="131" t="s">
         <v>320</v>
@@ -5772,12 +5952,14 @@
         <v>132</v>
       </c>
       <c r="E49" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F49" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F49" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G49" s="109"/>
       <c r="H49" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I49" s="131" t="s">
         <v>320</v>
@@ -5797,12 +5979,14 @@
         <v>132</v>
       </c>
       <c r="E50" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F50" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F50" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G50" s="109"/>
       <c r="H50" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I50" s="131" t="s">
         <v>320</v>
@@ -5822,12 +6006,14 @@
         <v>132</v>
       </c>
       <c r="E51" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F51" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F51" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G51" s="109"/>
       <c r="H51" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I51" s="131" t="s">
         <v>320</v>
@@ -5847,12 +6033,14 @@
         <v>132</v>
       </c>
       <c r="E52" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F52" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F52" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G52" s="109"/>
       <c r="H52" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I52" s="131" t="s">
         <v>320</v>
@@ -5872,12 +6060,14 @@
         <v>132</v>
       </c>
       <c r="E53" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F53" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F53" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G53" s="109"/>
       <c r="H53" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I53" s="124" t="s">
         <v>320</v>
@@ -5897,12 +6087,14 @@
         <v>132</v>
       </c>
       <c r="E54" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F54" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F54" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G54" s="109"/>
       <c r="H54" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I54" s="124" t="s">
         <v>320</v>
@@ -5922,19 +6114,21 @@
         <v>132</v>
       </c>
       <c r="E55" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F55" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F55" s="332" t="s">
+        <v>690</v>
+      </c>
       <c r="G55" s="109"/>
       <c r="H55" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I55" s="124" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="153" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="117" t="s">
@@ -5947,12 +6141,14 @@
         <v>132</v>
       </c>
       <c r="E56" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F56" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="F56" s="132" t="s">
+        <v>690</v>
+      </c>
       <c r="G56" s="109"/>
       <c r="H56" s="109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I56" s="131" t="s">
         <v>320</v>
@@ -5968,16 +6164,16 @@
       <c r="C57" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="152" t="s">
+      <c r="D57" s="151" t="s">
         <v>95</v>
       </c>
       <c r="E57" s="129" t="s">
-        <v>639</v>
-      </c>
-      <c r="F57" s="129"/>
+        <v>638</v>
+      </c>
+      <c r="F57" s="332"/>
       <c r="G57" s="129"/>
       <c r="H57" s="129" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I57" s="130" t="s">
         <v>320</v>
@@ -5997,12 +6193,12 @@
         <v>95</v>
       </c>
       <c r="E58" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F58" s="109"/>
       <c r="G58" s="109"/>
       <c r="H58" s="109" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I58" s="131" t="s">
         <v>320</v>
@@ -6022,12 +6218,12 @@
         <v>95</v>
       </c>
       <c r="E59" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F59" s="109"/>
       <c r="G59" s="109"/>
       <c r="H59" s="109" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I59" s="131" t="s">
         <v>320</v>
@@ -6047,12 +6243,12 @@
         <v>95</v>
       </c>
       <c r="E60" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F60" s="109"/>
       <c r="G60" s="109"/>
       <c r="H60" s="109" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I60" s="131" t="s">
         <v>320</v>
@@ -6072,12 +6268,12 @@
         <v>95</v>
       </c>
       <c r="E61" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F61" s="109"/>
       <c r="G61" s="109"/>
       <c r="H61" s="109" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I61" s="131" t="s">
         <v>320</v>
@@ -6093,18 +6289,18 @@
       <c r="C62" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="153" t="s">
+      <c r="D62" s="152" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F62" s="109"/>
       <c r="G62" s="109"/>
       <c r="H62" s="109" t="s">
-        <v>656</v>
-      </c>
-      <c r="I62" s="151" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="150" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6121,15 +6317,17 @@
       <c r="D63" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="121" t="s">
-        <v>642</v>
-      </c>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
+      <c r="E63" s="335" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" s="332" t="s">
+        <v>694</v>
+      </c>
+      <c r="G63" s="339"/>
       <c r="H63" s="121" t="s">
-        <v>658</v>
-      </c>
-      <c r="I63" s="155" t="s">
+        <v>657</v>
+      </c>
+      <c r="I63" s="154" t="s">
         <v>619</v>
       </c>
     </row>
@@ -6146,20 +6344,22 @@
       <c r="D64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="107" t="s">
-        <v>642</v>
-      </c>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
+      <c r="E64" s="336" t="s">
+        <v>641</v>
+      </c>
+      <c r="F64" s="332" t="s">
+        <v>694</v>
+      </c>
+      <c r="G64" s="340"/>
       <c r="H64" s="107" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="156" t="s">
+        <v>657</v>
+      </c>
+      <c r="I64" s="155" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="154" t="s">
+      <c r="A65" s="153" t="s">
         <v>127</v>
       </c>
       <c r="B65" s="117" t="s">
@@ -6171,20 +6371,22 @@
       <c r="D65" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="107" t="s">
-        <v>642</v>
-      </c>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
+      <c r="E65" s="336" t="s">
+        <v>641</v>
+      </c>
+      <c r="F65" s="332" t="s">
+        <v>694</v>
+      </c>
+      <c r="G65" s="340"/>
       <c r="H65" s="107" t="s">
-        <v>658</v>
-      </c>
-      <c r="I65" s="156" t="s">
+        <v>657</v>
+      </c>
+      <c r="I65" s="155" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="158" t="s">
+      <c r="A66" s="157" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="129" t="s">
@@ -6196,18 +6398,18 @@
       <c r="D66" s="129" t="s">
         <v>622</v>
       </c>
-      <c r="E66" s="164"/>
-      <c r="F66" s="164"/>
-      <c r="G66" s="164"/>
+      <c r="E66" s="163"/>
+      <c r="F66" s="346"/>
+      <c r="G66" s="163"/>
       <c r="H66" s="129" t="s">
-        <v>659</v>
-      </c>
-      <c r="I66" s="159" t="s">
+        <v>658</v>
+      </c>
+      <c r="I66" s="158" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="160" t="s">
+      <c r="A67" s="159" t="s">
         <v>268</v>
       </c>
       <c r="B67" s="109" t="s">
@@ -6219,18 +6421,18 @@
       <c r="D67" s="109" t="s">
         <v>622</v>
       </c>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
       <c r="H67" s="109" t="s">
-        <v>659</v>
-      </c>
-      <c r="I67" s="161" t="s">
+        <v>658</v>
+      </c>
+      <c r="I67" s="160" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="160" t="s">
+      <c r="A68" s="159" t="s">
         <v>276</v>
       </c>
       <c r="B68" s="109" t="s">
@@ -6242,18 +6444,18 @@
       <c r="D68" s="109" t="s">
         <v>622</v>
       </c>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
       <c r="H68" s="109" t="s">
-        <v>659</v>
-      </c>
-      <c r="I68" s="161" t="s">
+        <v>658</v>
+      </c>
+      <c r="I68" s="160" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="162" t="s">
+      <c r="A69" s="161" t="s">
         <v>284</v>
       </c>
       <c r="B69" s="132" t="s">
@@ -6265,13 +6467,13 @@
       <c r="D69" s="132" t="s">
         <v>622</v>
       </c>
-      <c r="E69" s="166"/>
-      <c r="F69" s="166"/>
-      <c r="G69" s="166"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
       <c r="H69" s="132" t="s">
-        <v>659</v>
-      </c>
-      <c r="I69" s="163" t="s">
+        <v>658</v>
+      </c>
+      <c r="I69" s="162" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6285,18 +6487,20 @@
       <c r="C70" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="120" t="s">
+      <c r="D70" s="348" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="121" t="s">
-        <v>645</v>
-      </c>
-      <c r="F70" s="121"/>
+        <v>644</v>
+      </c>
+      <c r="F70" s="355" t="s">
+        <v>695</v>
+      </c>
       <c r="G70" s="121"/>
       <c r="H70" s="121" t="s">
-        <v>660</v>
-      </c>
-      <c r="I70" s="155" t="s">
+        <v>659</v>
+      </c>
+      <c r="I70" s="154" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6310,41 +6514,45 @@
       <c r="C71" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="126" t="s">
+      <c r="D71" s="351" t="s">
         <v>267</v>
       </c>
       <c r="E71" s="127" t="s">
-        <v>645</v>
-      </c>
-      <c r="F71" s="127"/>
+        <v>644</v>
+      </c>
+      <c r="F71" s="356" t="s">
+        <v>695</v>
+      </c>
       <c r="G71" s="127"/>
       <c r="H71" s="127" t="s">
+        <v>659</v>
+      </c>
+      <c r="I71" s="156" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="147" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="148" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="352" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="167"/>
+      <c r="F72" s="352" t="s">
+        <v>699</v>
+      </c>
+      <c r="G72" s="167"/>
+      <c r="H72" s="148" t="s">
         <v>660</v>
       </c>
-      <c r="I71" s="157" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="148" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" s="149" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" s="149" t="s">
-        <v>266</v>
-      </c>
-      <c r="D72" s="149" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="149" t="s">
-        <v>661</v>
-      </c>
-      <c r="I72" s="167" t="s">
+      <c r="I72" s="166" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6358,16 +6566,16 @@
       <c r="C73" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="120" t="s">
+      <c r="D73" s="350" t="s">
         <v>267</v>
       </c>
-      <c r="E73" s="169"/>
-      <c r="F73" s="169"/>
-      <c r="G73" s="169"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="355"/>
+      <c r="G73" s="168"/>
       <c r="H73" s="121" t="s">
-        <v>660</v>
-      </c>
-      <c r="I73" s="155" t="s">
+        <v>659</v>
+      </c>
+      <c r="I73" s="154" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6381,16 +6589,16 @@
       <c r="C74" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="353" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="170"/>
-      <c r="F74" s="170"/>
-      <c r="G74" s="170"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="357"/>
+      <c r="G74" s="169"/>
       <c r="H74" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="I74" s="156" t="s">
+        <v>659</v>
+      </c>
+      <c r="I74" s="155" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6404,16 +6612,16 @@
       <c r="C75" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="353" t="s">
         <v>267</v>
       </c>
-      <c r="E75" s="170"/>
-      <c r="F75" s="170"/>
-      <c r="G75" s="170"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="357"/>
+      <c r="G75" s="169"/>
       <c r="H75" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="I75" s="156" t="s">
+        <v>659</v>
+      </c>
+      <c r="I75" s="155" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6427,16 +6635,16 @@
       <c r="C76" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="353" t="s">
         <v>267</v>
       </c>
-      <c r="E76" s="170"/>
-      <c r="F76" s="170"/>
-      <c r="G76" s="170"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="357"/>
+      <c r="G76" s="169"/>
       <c r="H76" s="107" t="s">
-        <v>660</v>
-      </c>
-      <c r="I76" s="156" t="s">
+        <v>659</v>
+      </c>
+      <c r="I76" s="155" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6450,16 +6658,16 @@
       <c r="C77" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="D77" s="126" t="s">
+      <c r="D77" s="351" t="s">
         <v>267</v>
       </c>
-      <c r="E77" s="171"/>
-      <c r="F77" s="171"/>
-      <c r="G77" s="171"/>
+      <c r="E77" s="170"/>
+      <c r="F77" s="356"/>
+      <c r="G77" s="170"/>
       <c r="H77" s="127" t="s">
-        <v>660</v>
-      </c>
-      <c r="I77" s="157" t="s">
+        <v>659</v>
+      </c>
+      <c r="I77" s="156" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6473,18 +6681,20 @@
       <c r="C78" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D78" s="348" t="s">
         <v>624</v>
       </c>
       <c r="E78" s="121" t="s">
-        <v>647</v>
-      </c>
-      <c r="F78" s="121"/>
+        <v>646</v>
+      </c>
+      <c r="F78" s="355" t="s">
+        <v>697</v>
+      </c>
       <c r="G78" s="121"/>
       <c r="H78" s="121" t="s">
-        <v>659</v>
-      </c>
-      <c r="I78" s="155" t="s">
+        <v>658</v>
+      </c>
+      <c r="I78" s="154" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6498,18 +6708,20 @@
       <c r="C79" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="D79" s="126" t="s">
+      <c r="D79" s="351" t="s">
         <v>624</v>
       </c>
       <c r="E79" s="127" t="s">
-        <v>647</v>
-      </c>
-      <c r="F79" s="127"/>
+        <v>646</v>
+      </c>
+      <c r="F79" s="127" t="s">
+        <v>697</v>
+      </c>
       <c r="G79" s="127"/>
       <c r="H79" s="127" t="s">
-        <v>659</v>
-      </c>
-      <c r="I79" s="157" t="s">
+        <v>658</v>
+      </c>
+      <c r="I79" s="156" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6523,16 +6735,18 @@
       <c r="C80" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="118" t="s">
+      <c r="D80" s="349" t="s">
         <v>625</v>
       </c>
       <c r="E80" s="107" t="s">
-        <v>650</v>
-      </c>
-      <c r="F80" s="107"/>
+        <v>649</v>
+      </c>
+      <c r="F80" s="107" t="s">
+        <v>698</v>
+      </c>
       <c r="G80" s="107"/>
       <c r="H80" s="107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I80" s="110" t="s">
         <v>321</v>
@@ -6548,16 +6762,18 @@
       <c r="C81" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="353" t="s">
         <v>625</v>
       </c>
       <c r="E81" s="107" t="s">
-        <v>650</v>
-      </c>
-      <c r="F81" s="107"/>
+        <v>649</v>
+      </c>
+      <c r="F81" s="107" t="s">
+        <v>698</v>
+      </c>
       <c r="G81" s="107"/>
       <c r="H81" s="107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I81" s="110" t="s">
         <v>321</v>
@@ -6573,16 +6789,18 @@
       <c r="C82" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="353" t="s">
         <v>625</v>
       </c>
       <c r="E82" s="107" t="s">
-        <v>650</v>
-      </c>
-      <c r="F82" s="107"/>
+        <v>649</v>
+      </c>
+      <c r="F82" s="107" t="s">
+        <v>698</v>
+      </c>
       <c r="G82" s="107"/>
       <c r="H82" s="107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I82" s="110" t="s">
         <v>321</v>
@@ -6598,43 +6816,47 @@
       <c r="C83" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="117" t="s">
+      <c r="D83" s="354" t="s">
         <v>625</v>
       </c>
       <c r="E83" s="107" t="s">
-        <v>650</v>
-      </c>
-      <c r="F83" s="107"/>
+        <v>649</v>
+      </c>
+      <c r="F83" s="107" t="s">
+        <v>698</v>
+      </c>
       <c r="G83" s="107"/>
       <c r="H83" s="107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I83" s="110" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="148" t="s">
+      <c r="A84" s="147" t="s">
         <v>298</v>
       </c>
-      <c r="B84" s="149" t="s">
+      <c r="B84" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="C84" s="149" t="s">
+      <c r="C84" s="148" t="s">
         <v>300</v>
       </c>
-      <c r="D84" s="149" t="s">
+      <c r="D84" s="347" t="s">
         <v>301</v>
       </c>
-      <c r="E84" s="149" t="s">
-        <v>646</v>
-      </c>
-      <c r="F84" s="149"/>
-      <c r="G84" s="149"/>
-      <c r="H84" s="149" t="s">
-        <v>662</v>
-      </c>
-      <c r="I84" s="167" t="s">
+      <c r="E84" s="148" t="s">
+        <v>645</v>
+      </c>
+      <c r="F84" s="148" t="s">
+        <v>645</v>
+      </c>
+      <c r="G84" s="148"/>
+      <c r="H84" s="148" t="s">
+        <v>661</v>
+      </c>
+      <c r="I84" s="166" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6648,18 +6870,18 @@
       <c r="C85" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="120" t="s">
+      <c r="D85" s="350" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="121" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F85" s="121"/>
       <c r="G85" s="121"/>
       <c r="H85" s="121" t="s">
-        <v>662</v>
-      </c>
-      <c r="I85" s="155" t="s">
+        <v>661</v>
+      </c>
+      <c r="I85" s="154" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6673,18 +6895,18 @@
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="353" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F86" s="107"/>
       <c r="G86" s="107"/>
       <c r="H86" s="107" t="s">
-        <v>662</v>
-      </c>
-      <c r="I86" s="156" t="s">
+        <v>661</v>
+      </c>
+      <c r="I86" s="155" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6698,18 +6920,18 @@
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="353" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F87" s="107"/>
       <c r="G87" s="107"/>
       <c r="H87" s="107" t="s">
-        <v>662</v>
-      </c>
-      <c r="I87" s="156" t="s">
+        <v>661</v>
+      </c>
+      <c r="I87" s="155" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6723,22 +6945,22 @@
       <c r="C88" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="126" t="s">
+      <c r="D88" s="351" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="127" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F88" s="127"/>
       <c r="G88" s="127"/>
       <c r="H88" s="127" t="s">
-        <v>662</v>
-      </c>
-      <c r="I88" s="157" t="s">
+        <v>661</v>
+      </c>
+      <c r="I88" s="156" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="119" t="s">
         <v>243</v>
       </c>
@@ -6752,18 +6974,20 @@
         <v>246</v>
       </c>
       <c r="E89" s="121" t="s">
-        <v>643</v>
-      </c>
-      <c r="F89" s="121"/>
+        <v>642</v>
+      </c>
+      <c r="F89" s="121" t="s">
+        <v>701</v>
+      </c>
       <c r="G89" s="121"/>
       <c r="H89" s="121" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I89" s="122" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="123" t="s">
         <v>254</v>
       </c>
@@ -6777,18 +7001,20 @@
         <v>246</v>
       </c>
       <c r="E90" s="107" t="s">
-        <v>643</v>
-      </c>
-      <c r="F90" s="107"/>
+        <v>642</v>
+      </c>
+      <c r="F90" s="107" t="s">
+        <v>701</v>
+      </c>
       <c r="G90" s="107"/>
       <c r="H90" s="107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I90" s="124" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="125" t="s">
         <v>256</v>
       </c>
@@ -6802,41 +7028,45 @@
         <v>246</v>
       </c>
       <c r="E91" s="127" t="s">
-        <v>643</v>
-      </c>
-      <c r="F91" s="127"/>
+        <v>642</v>
+      </c>
+      <c r="F91" s="127" t="s">
+        <v>701</v>
+      </c>
       <c r="G91" s="127"/>
       <c r="H91" s="127" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I91" s="128" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="148" t="s">
-        <v>651</v>
-      </c>
-      <c r="B92" s="149"/>
-      <c r="C92" s="149" t="s">
+      <c r="A92" s="147" t="s">
+        <v>650</v>
+      </c>
+      <c r="B92" s="148"/>
+      <c r="C92" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="149" t="s">
+      <c r="D92" s="347" t="s">
         <v>623</v>
       </c>
-      <c r="E92" s="149" t="s">
-        <v>648</v>
-      </c>
-      <c r="F92" s="149"/>
-      <c r="G92" s="149"/>
-      <c r="H92" s="149" t="s">
-        <v>664</v>
-      </c>
-      <c r="I92" s="167" t="s">
+      <c r="E92" s="148" t="s">
+        <v>647</v>
+      </c>
+      <c r="F92" s="148" t="s">
+        <v>696</v>
+      </c>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148" t="s">
+        <v>663</v>
+      </c>
+      <c r="I92" s="166" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="119" t="s">
         <v>217</v>
       </c>
@@ -6850,18 +7080,20 @@
         <v>328</v>
       </c>
       <c r="E93" s="121" t="s">
-        <v>644</v>
-      </c>
-      <c r="F93" s="121"/>
+        <v>643</v>
+      </c>
+      <c r="F93" s="121" t="s">
+        <v>700</v>
+      </c>
       <c r="G93" s="121"/>
       <c r="H93" s="121" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I93" s="122" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="123" t="s">
         <v>237</v>
       </c>
@@ -6875,18 +7107,20 @@
         <v>328</v>
       </c>
       <c r="E94" s="107" t="s">
-        <v>644</v>
-      </c>
-      <c r="F94" s="107"/>
+        <v>643</v>
+      </c>
+      <c r="F94" s="107" t="s">
+        <v>700</v>
+      </c>
       <c r="G94" s="107"/>
       <c r="H94" s="107" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I94" s="124" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="125" t="s">
         <v>239</v>
       </c>
@@ -6900,18 +7134,20 @@
         <v>328</v>
       </c>
       <c r="E95" s="127" t="s">
-        <v>644</v>
-      </c>
-      <c r="F95" s="127"/>
+        <v>643</v>
+      </c>
+      <c r="F95" s="127" t="s">
+        <v>700</v>
+      </c>
       <c r="G95" s="127"/>
       <c r="H95" s="127" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I95" s="128" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="119" t="s">
         <v>247</v>
       </c>
@@ -6925,18 +7161,18 @@
         <v>620</v>
       </c>
       <c r="E96" s="129" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F96" s="129"/>
       <c r="G96" s="129"/>
       <c r="H96" s="129" t="s">
-        <v>653</v>
-      </c>
-      <c r="I96" s="159" t="s">
+        <v>652</v>
+      </c>
+      <c r="I96" s="158" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="123" t="s">
         <v>250</v>
       </c>
@@ -6950,18 +7186,18 @@
         <v>620</v>
       </c>
       <c r="E97" s="109" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F97" s="109"/>
       <c r="G97" s="109"/>
       <c r="H97" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="I97" s="161" t="s">
+        <v>652</v>
+      </c>
+      <c r="I97" s="160" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="123" t="s">
         <v>252</v>
       </c>
@@ -6975,18 +7211,18 @@
         <v>620</v>
       </c>
       <c r="E98" s="109" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F98" s="109"/>
       <c r="G98" s="109"/>
       <c r="H98" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="I98" s="156" t="s">
+        <v>652</v>
+      </c>
+      <c r="I98" s="155" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="123" t="s">
         <v>260</v>
       </c>
@@ -7000,14 +7236,14 @@
         <v>620</v>
       </c>
       <c r="E99" s="109" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F99" s="109"/>
       <c r="G99" s="109"/>
       <c r="H99" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="I99" s="156" t="s">
+        <v>652</v>
+      </c>
+      <c r="I99" s="155" t="s">
         <v>619</v>
       </c>
     </row>
@@ -7025,18 +7261,18 @@
         <v>620</v>
       </c>
       <c r="E100" s="132" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F100" s="132"/>
       <c r="G100" s="132"/>
       <c r="H100" s="132" t="s">
-        <v>653</v>
-      </c>
-      <c r="I100" s="157" t="s">
+        <v>652</v>
+      </c>
+      <c r="I100" s="156" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="119" t="s">
         <v>100</v>
       </c>
@@ -7050,18 +7286,20 @@
         <v>103</v>
       </c>
       <c r="E101" s="121" t="s">
-        <v>649</v>
-      </c>
-      <c r="F101" s="121"/>
+        <v>648</v>
+      </c>
+      <c r="F101" s="121" t="s">
+        <v>699</v>
+      </c>
       <c r="G101" s="121"/>
       <c r="H101" s="121" t="s">
-        <v>661</v>
-      </c>
-      <c r="I101" s="155" t="s">
+        <v>660</v>
+      </c>
+      <c r="I101" s="154" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="123" t="s">
         <v>104</v>
       </c>
@@ -7075,18 +7313,20 @@
         <v>103</v>
       </c>
       <c r="E102" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F102" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F102" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G102" s="107"/>
       <c r="H102" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I102" s="156" t="s">
+        <v>660</v>
+      </c>
+      <c r="I102" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="123" t="s">
         <v>106</v>
       </c>
@@ -7100,18 +7340,20 @@
         <v>103</v>
       </c>
       <c r="E103" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F103" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F103" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G103" s="107"/>
       <c r="H103" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I103" s="161" t="s">
+        <v>660</v>
+      </c>
+      <c r="I103" s="160" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="123" t="s">
         <v>108</v>
       </c>
@@ -7125,18 +7367,20 @@
         <v>103</v>
       </c>
       <c r="E104" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F104" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F104" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G104" s="107"/>
       <c r="H104" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I104" s="156" t="s">
+        <v>660</v>
+      </c>
+      <c r="I104" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="123" t="s">
         <v>110</v>
       </c>
@@ -7150,18 +7394,20 @@
         <v>103</v>
       </c>
       <c r="E105" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F105" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F105" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G105" s="107"/>
       <c r="H105" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I105" s="156" t="s">
+        <v>660</v>
+      </c>
+      <c r="I105" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="123" t="s">
         <v>115</v>
       </c>
@@ -7175,18 +7421,20 @@
         <v>103</v>
       </c>
       <c r="E106" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F106" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F106" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G106" s="107"/>
       <c r="H106" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I106" s="156" t="s">
+        <v>660</v>
+      </c>
+      <c r="I106" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="123" t="s">
         <v>235</v>
       </c>
@@ -7200,18 +7448,20 @@
         <v>103</v>
       </c>
       <c r="E107" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F107" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F107" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G107" s="107"/>
       <c r="H107" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I107" s="156" t="s">
+        <v>660</v>
+      </c>
+      <c r="I107" s="155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="123" t="s">
         <v>270</v>
       </c>
@@ -7225,18 +7475,20 @@
         <v>103</v>
       </c>
       <c r="E108" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F108" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F108" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G108" s="107"/>
       <c r="H108" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I108" s="161" t="s">
+        <v>660</v>
+      </c>
+      <c r="I108" s="160" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="123" t="s">
         <v>282</v>
       </c>
@@ -7250,14 +7502,16 @@
         <v>103</v>
       </c>
       <c r="E109" s="107" t="s">
-        <v>649</v>
-      </c>
-      <c r="F109" s="107"/>
+        <v>648</v>
+      </c>
+      <c r="F109" s="107" t="s">
+        <v>699</v>
+      </c>
       <c r="G109" s="107"/>
       <c r="H109" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="I109" s="161" t="s">
+        <v>660</v>
+      </c>
+      <c r="I109" s="160" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7275,74 +7529,76 @@
         <v>103</v>
       </c>
       <c r="E110" s="127" t="s">
-        <v>649</v>
-      </c>
-      <c r="F110" s="127"/>
+        <v>648</v>
+      </c>
+      <c r="F110" s="127" t="s">
+        <v>699</v>
+      </c>
       <c r="G110" s="127"/>
       <c r="H110" s="127" t="s">
-        <v>661</v>
-      </c>
-      <c r="I110" s="163" t="s">
+        <v>660</v>
+      </c>
+      <c r="I110" s="162" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="148" t="s">
+    <row r="111" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="B111" s="149" t="s">
+      <c r="B111" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="149" t="s">
+      <c r="C111" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="D111" s="149" t="s">
+      <c r="D111" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="E111" s="149" t="s">
+      <c r="E111" s="148" t="s">
         <v>630</v>
       </c>
-      <c r="F111" s="149" t="s">
-        <v>677</v>
-      </c>
-      <c r="G111" s="149" t="s">
-        <v>682</v>
-      </c>
-      <c r="H111" s="149" t="s">
+      <c r="F111" s="148" t="s">
+        <v>676</v>
+      </c>
+      <c r="G111" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="H111" s="148" t="s">
+        <v>665</v>
+      </c>
+      <c r="I111" s="149" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112" s="148" t="s">
+        <v>629</v>
+      </c>
+      <c r="F112" s="148" t="s">
+        <v>678</v>
+      </c>
+      <c r="G112" s="148"/>
+      <c r="H112" s="148" t="s">
         <v>666</v>
       </c>
-      <c r="I111" s="150" t="s">
+      <c r="I112" s="149" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="148" t="s">
-        <v>171</v>
-      </c>
-      <c r="B112" s="149" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="149" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="E112" s="149" t="s">
-        <v>629</v>
-      </c>
-      <c r="F112" s="149" t="s">
-        <v>679</v>
-      </c>
-      <c r="G112" s="149"/>
-      <c r="H112" s="149" t="s">
-        <v>667</v>
-      </c>
-      <c r="I112" s="150" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="119" t="s">
         <v>183</v>
       </c>
@@ -7359,19 +7615,19 @@
         <v>631</v>
       </c>
       <c r="F113" s="121" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G113" s="121" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H113" s="121" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I113" s="122" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="125" t="s">
         <v>187</v>
       </c>
@@ -7389,45 +7645,45 @@
       </c>
       <c r="F114" s="127"/>
       <c r="G114" s="127" t="s">
+        <v>683</v>
+      </c>
+      <c r="H114" s="127" t="s">
+        <v>667</v>
+      </c>
+      <c r="I114" s="150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="148" t="s">
+        <v>182</v>
+      </c>
+      <c r="E115" s="171" t="s">
+        <v>628</v>
+      </c>
+      <c r="F115" s="171" t="s">
+        <v>668</v>
+      </c>
+      <c r="G115" s="171" t="s">
         <v>684</v>
       </c>
-      <c r="H114" s="127" t="s">
+      <c r="H115" s="171" t="s">
         <v>668</v>
       </c>
-      <c r="I114" s="151" t="s">
+      <c r="I115" s="172" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="148" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="149" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" s="149" t="s">
-        <v>181</v>
-      </c>
-      <c r="D115" s="149" t="s">
-        <v>182</v>
-      </c>
-      <c r="E115" s="172" t="s">
-        <v>628</v>
-      </c>
-      <c r="F115" s="172" t="s">
-        <v>669</v>
-      </c>
-      <c r="G115" s="172" t="s">
-        <v>685</v>
-      </c>
-      <c r="H115" s="172" t="s">
-        <v>669</v>
-      </c>
-      <c r="I115" s="173" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="119" t="s">
         <v>167</v>
       </c>
@@ -7440,23 +7696,23 @@
       <c r="D116" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="E116" s="174" t="s">
+      <c r="E116" s="173" t="s">
         <v>627</v>
       </c>
-      <c r="F116" s="174" t="s">
-        <v>678</v>
-      </c>
-      <c r="G116" s="174" t="s">
-        <v>683</v>
-      </c>
-      <c r="H116" s="177" t="s">
-        <v>670</v>
+      <c r="F116" s="173" t="s">
+        <v>677</v>
+      </c>
+      <c r="G116" s="173" t="s">
+        <v>682</v>
+      </c>
+      <c r="H116" s="176" t="s">
+        <v>669</v>
       </c>
       <c r="I116" s="130" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="123" t="s">
         <v>189</v>
       </c>
@@ -7469,19 +7725,19 @@
       <c r="D117" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E117" s="175" t="s">
+      <c r="E117" s="174" t="s">
         <v>627</v>
       </c>
-      <c r="F117" s="175"/>
-      <c r="G117" s="175"/>
-      <c r="H117" s="175" t="s">
-        <v>670</v>
+      <c r="F117" s="174"/>
+      <c r="G117" s="174"/>
+      <c r="H117" s="174" t="s">
+        <v>669</v>
       </c>
       <c r="I117" s="131" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="123" t="s">
         <v>191</v>
       </c>
@@ -7494,19 +7750,19 @@
       <c r="D118" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E118" s="175" t="s">
+      <c r="E118" s="174" t="s">
         <v>627</v>
       </c>
-      <c r="F118" s="175"/>
-      <c r="G118" s="175"/>
-      <c r="H118" s="175" t="s">
-        <v>670</v>
+      <c r="F118" s="174"/>
+      <c r="G118" s="174"/>
+      <c r="H118" s="174" t="s">
+        <v>669</v>
       </c>
       <c r="I118" s="131" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="125" t="s">
         <v>206</v>
       </c>
@@ -7519,40 +7775,40 @@
       <c r="D119" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="E119" s="176" t="s">
+      <c r="E119" s="175" t="s">
         <v>627</v>
       </c>
-      <c r="F119" s="176"/>
-      <c r="G119" s="176"/>
-      <c r="H119" s="176" t="s">
+      <c r="F119" s="331"/>
+      <c r="G119" s="175"/>
+      <c r="H119" s="175" t="s">
+        <v>669</v>
+      </c>
+      <c r="I119" s="150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="147" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" s="171" t="s">
+        <v>635</v>
+      </c>
+      <c r="F120" s="132"/>
+      <c r="G120" s="171"/>
+      <c r="H120" s="171" t="s">
         <v>670</v>
       </c>
-      <c r="I119" s="151" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="B120" s="149" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="149" t="s">
-        <v>199</v>
-      </c>
-      <c r="D120" s="149" t="s">
-        <v>200</v>
-      </c>
-      <c r="E120" s="172" t="s">
-        <v>636</v>
-      </c>
-      <c r="F120" s="172"/>
-      <c r="G120" s="172"/>
-      <c r="H120" s="172" t="s">
-        <v>671</v>
-      </c>
-      <c r="I120" s="173" t="s">
+      <c r="I120" s="172" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7570,12 +7826,14 @@
         <v>87</v>
       </c>
       <c r="E121" s="129" t="s">
-        <v>636</v>
-      </c>
-      <c r="F121" s="129"/>
+        <v>635</v>
+      </c>
+      <c r="F121" s="332" t="s">
+        <v>687</v>
+      </c>
       <c r="G121" s="129"/>
       <c r="H121" s="129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I121" s="130" t="s">
         <v>332</v>
@@ -7595,12 +7853,14 @@
         <v>87</v>
       </c>
       <c r="E122" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="F122" s="109"/>
+        <v>635</v>
+      </c>
+      <c r="F122" s="332" t="s">
+        <v>687</v>
+      </c>
       <c r="G122" s="109"/>
       <c r="H122" s="109" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I122" s="131" t="s">
         <v>332</v>
@@ -7620,12 +7880,14 @@
         <v>87</v>
       </c>
       <c r="E123" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="F123" s="109"/>
+        <v>635</v>
+      </c>
+      <c r="F123" s="332" t="s">
+        <v>687</v>
+      </c>
       <c r="G123" s="109"/>
       <c r="H123" s="109" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I123" s="131" t="s">
         <v>332</v>
@@ -7645,14 +7907,16 @@
         <v>87</v>
       </c>
       <c r="E124" s="132" t="s">
-        <v>636</v>
-      </c>
-      <c r="F124" s="132"/>
+        <v>635</v>
+      </c>
+      <c r="F124" s="132" t="s">
+        <v>687</v>
+      </c>
       <c r="G124" s="132"/>
       <c r="H124" s="132" t="s">
-        <v>671</v>
-      </c>
-      <c r="I124" s="151" t="s">
+        <v>670</v>
+      </c>
+      <c r="I124" s="150" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7670,12 +7934,14 @@
         <v>621</v>
       </c>
       <c r="E125" s="129" t="s">
-        <v>635</v>
-      </c>
-      <c r="F125" s="129"/>
+        <v>634</v>
+      </c>
+      <c r="F125" s="332" t="s">
+        <v>671</v>
+      </c>
       <c r="G125" s="129"/>
       <c r="H125" s="129" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I125" s="130" t="s">
         <v>332</v>
@@ -7695,12 +7961,14 @@
         <v>621</v>
       </c>
       <c r="E126" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="F126" s="109"/>
+        <v>634</v>
+      </c>
+      <c r="F126" s="332" t="s">
+        <v>671</v>
+      </c>
       <c r="G126" s="109"/>
       <c r="H126" s="109" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I126" s="131" t="s">
         <v>332</v>
@@ -7720,12 +7988,14 @@
         <v>621</v>
       </c>
       <c r="E127" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="F127" s="109"/>
+        <v>634</v>
+      </c>
+      <c r="F127" s="332" t="s">
+        <v>671</v>
+      </c>
       <c r="G127" s="109"/>
       <c r="H127" s="109" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I127" s="131" t="s">
         <v>332</v>
@@ -7745,12 +8015,14 @@
         <v>621</v>
       </c>
       <c r="E128" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="F128" s="109"/>
+        <v>634</v>
+      </c>
+      <c r="F128" s="332" t="s">
+        <v>671</v>
+      </c>
       <c r="G128" s="109"/>
       <c r="H128" s="109" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I128" s="131" t="s">
         <v>332</v>
@@ -7770,12 +8042,14 @@
         <v>621</v>
       </c>
       <c r="E129" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="F129" s="109"/>
+        <v>634</v>
+      </c>
+      <c r="F129" s="332" t="s">
+        <v>671</v>
+      </c>
       <c r="G129" s="109"/>
       <c r="H129" s="109" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I129" s="131" t="s">
         <v>332</v>
@@ -7795,12 +8069,14 @@
         <v>621</v>
       </c>
       <c r="E130" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="F130" s="109"/>
+        <v>634</v>
+      </c>
+      <c r="F130" s="332" t="s">
+        <v>671</v>
+      </c>
       <c r="G130" s="109"/>
       <c r="H130" s="109" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I130" s="131" t="s">
         <v>332</v>
@@ -7820,14 +8096,16 @@
         <v>621</v>
       </c>
       <c r="E131" s="132" t="s">
-        <v>635</v>
-      </c>
-      <c r="F131" s="132"/>
+        <v>634</v>
+      </c>
+      <c r="F131" s="132" t="s">
+        <v>671</v>
+      </c>
       <c r="G131" s="132"/>
       <c r="H131" s="132" t="s">
-        <v>672</v>
-      </c>
-      <c r="I131" s="151" t="s">
+        <v>671</v>
+      </c>
+      <c r="I131" s="150" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7845,12 +8123,12 @@
         <v>335</v>
       </c>
       <c r="E132" s="129" t="s">
-        <v>636</v>
-      </c>
-      <c r="F132" s="129"/>
+        <v>635</v>
+      </c>
+      <c r="F132" s="332"/>
       <c r="G132" s="129"/>
       <c r="H132" s="129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I132" s="130" t="s">
         <v>332</v>
@@ -7870,12 +8148,12 @@
         <v>335</v>
       </c>
       <c r="E133" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="F133" s="109"/>
+        <v>635</v>
+      </c>
+      <c r="F133" s="332"/>
       <c r="G133" s="109"/>
       <c r="H133" s="109" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I133" s="131" t="s">
         <v>332</v>
@@ -7895,14 +8173,14 @@
         <v>335</v>
       </c>
       <c r="E134" s="132" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F134" s="132"/>
       <c r="G134" s="132"/>
       <c r="H134" s="132" t="s">
-        <v>671</v>
-      </c>
-      <c r="I134" s="151" t="s">
+        <v>670</v>
+      </c>
+      <c r="I134" s="150" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7920,12 +8198,14 @@
         <v>336</v>
       </c>
       <c r="E135" s="129" t="s">
-        <v>634</v>
-      </c>
-      <c r="F135" s="129"/>
+        <v>633</v>
+      </c>
+      <c r="F135" s="332" t="s">
+        <v>689</v>
+      </c>
       <c r="G135" s="129"/>
       <c r="H135" s="129" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I135" s="130" t="s">
         <v>332</v>
@@ -7945,12 +8225,14 @@
         <v>336</v>
       </c>
       <c r="E136" s="109" t="s">
-        <v>634</v>
-      </c>
-      <c r="F136" s="109"/>
+        <v>633</v>
+      </c>
+      <c r="F136" s="332" t="s">
+        <v>689</v>
+      </c>
       <c r="G136" s="109"/>
       <c r="H136" s="109" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I136" s="131" t="s">
         <v>332</v>
@@ -7970,12 +8252,14 @@
         <v>336</v>
       </c>
       <c r="E137" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="F137" s="132"/>
+        <v>633</v>
+      </c>
+      <c r="F137" s="132" t="s">
+        <v>689</v>
+      </c>
       <c r="G137" s="132"/>
       <c r="H137" s="132" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I137" s="128" t="s">
         <v>332</v>
@@ -7983,22 +8267,24 @@
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="107" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B138" s="111"/>
       <c r="C138" s="111">
         <v>23</v>
       </c>
       <c r="D138" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="E138" s="111" t="s">
         <v>632</v>
       </c>
-      <c r="E138" s="111" t="s">
-        <v>633</v>
-      </c>
-      <c r="F138" s="111"/>
+      <c r="F138" s="333" t="s">
+        <v>688</v>
+      </c>
       <c r="G138" s="111"/>
       <c r="H138" s="111" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I138" s="107" t="s">
         <v>332</v>
@@ -8008,7 +8294,7 @@
   <autoFilter ref="B1:I138" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}">
     <filterColumn colId="7">
       <filters>
-        <filter val="Food and Agriculture"/>
+        <filter val="Water and the Environment"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8809,22 +9095,22 @@
       </c>
     </row>
     <row r="4" spans="1:206" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="222" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="218" t="s">
         <v>549</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="220" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="218" t="s">
         <v>457</v>
       </c>
       <c r="G4" s="88" t="s">
@@ -8832,12 +9118,12 @@
       </c>
     </row>
     <row r="5" spans="1:206" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="194"/>
+      <c r="A5" s="245"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="234"/>
       <c r="G5" s="88" t="s">
         <v>429</v>
       </c>
@@ -9080,22 +9366,22 @@
       <c r="GX7" s="9"/>
     </row>
     <row r="8" spans="1:206" s="41" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="239" t="s">
         <v>543</v>
       </c>
-      <c r="C8" s="204" t="s">
+      <c r="C8" s="241" t="s">
         <v>542</v>
       </c>
-      <c r="D8" s="204" t="s">
+      <c r="D8" s="241" t="s">
         <v>534</v>
       </c>
-      <c r="E8" s="206" t="s">
+      <c r="E8" s="243" t="s">
         <v>533</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="241" t="s">
         <v>532</v>
       </c>
       <c r="G8" s="67" t="s">
@@ -9302,12 +9588,12 @@
       <c r="GX8" s="9"/>
     </row>
     <row r="9" spans="1:206" s="41" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="205"/>
+      <c r="A9" s="240"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="67" t="s">
         <v>530</v>
       </c>
@@ -12112,22 +12398,22 @@
       <c r="GX21" s="9"/>
     </row>
     <row r="22" spans="1:206" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="228" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="192" t="s">
+      <c r="B22" s="228" t="s">
         <v>524</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="229" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="E22" s="208" t="s">
+      <c r="E22" s="230" t="s">
         <v>362</v>
       </c>
-      <c r="F22" s="193" t="s">
+      <c r="F22" s="229" t="s">
         <v>448</v>
       </c>
       <c r="G22" s="87" t="s">
@@ -12135,12 +12421,12 @@
       </c>
     </row>
     <row r="23" spans="1:206" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="194"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="245"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="234"/>
       <c r="G23" s="87" t="s">
         <v>359</v>
       </c>
@@ -13037,22 +13323,22 @@
       <c r="GX28" s="9"/>
     </row>
     <row r="29" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="192" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="190" t="s">
+      <c r="B29" s="192" t="s">
         <v>516</v>
       </c>
-      <c r="C29" s="209" t="s">
+      <c r="C29" s="194" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="209" t="s">
+      <c r="D29" s="194" t="s">
         <v>371</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="196" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="209" t="s">
+      <c r="F29" s="194" t="s">
         <v>369</v>
       </c>
       <c r="G29" s="76" t="s">
@@ -13259,12 +13545,12 @@
       <c r="GX29" s="9"/>
     </row>
     <row r="30" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="210"/>
+      <c r="A30" s="193"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="195"/>
       <c r="G30" s="76" t="s">
         <v>367</v>
       </c>
@@ -13905,22 +14191,22 @@
       <c r="GX32" s="9"/>
     </row>
     <row r="33" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="236" t="s">
         <v>460</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="236" t="s">
         <v>503</v>
       </c>
-      <c r="C33" s="214" t="s">
+      <c r="C33" s="237" t="s">
         <v>509</v>
       </c>
-      <c r="D33" s="214" t="s">
+      <c r="D33" s="237" t="s">
         <v>492</v>
       </c>
-      <c r="E33" s="215" t="s">
+      <c r="E33" s="238" t="s">
         <v>491</v>
       </c>
-      <c r="F33" s="214" t="s">
+      <c r="F33" s="237" t="s">
         <v>490</v>
       </c>
       <c r="G33" s="32" t="s">
@@ -14127,12 +14413,12 @@
       <c r="GX33" s="9"/>
     </row>
     <row r="34" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="179"/>
+      <c r="A34" s="233"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="231"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="231"/>
       <c r="G34" s="27" t="s">
         <v>488</v>
       </c>
@@ -14337,22 +14623,22 @@
       <c r="GX34" s="9"/>
     </row>
     <row r="35" spans="1:206" s="25" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="233" t="s">
         <v>460</v>
       </c>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="233" t="s">
         <v>503</v>
       </c>
-      <c r="C35" s="179" t="s">
+      <c r="C35" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="231" t="s">
         <v>492</v>
       </c>
-      <c r="E35" s="216" t="s">
+      <c r="E35" s="232" t="s">
         <v>507</v>
       </c>
-      <c r="F35" s="179" t="s">
+      <c r="F35" s="231" t="s">
         <v>506</v>
       </c>
       <c r="G35" s="27" t="s">
@@ -14559,12 +14845,12 @@
       <c r="GX35" s="9"/>
     </row>
     <row r="36" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="178"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="179"/>
+      <c r="A36" s="233"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="231"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="231"/>
       <c r="G36" s="27" t="s">
         <v>504</v>
       </c>
@@ -15437,16 +15723,16 @@
       <c r="B40" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="D40" s="179" t="s">
+      <c r="D40" s="231" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="232" t="s">
         <v>432</v>
       </c>
-      <c r="F40" s="179" t="s">
+      <c r="F40" s="231" t="s">
         <v>457</v>
       </c>
       <c r="G40" s="27" t="s">
@@ -15659,10 +15945,10 @@
       <c r="B41" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="216"/>
-      <c r="F41" s="179"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="231"/>
       <c r="G41" s="27" t="s">
         <v>429</v>
       </c>
@@ -15873,16 +16159,16 @@
       <c r="B42" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C42" s="179" t="s">
+      <c r="C42" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="D42" s="179" t="s">
+      <c r="D42" s="231" t="s">
         <v>492</v>
       </c>
-      <c r="E42" s="216" t="s">
+      <c r="E42" s="232" t="s">
         <v>491</v>
       </c>
-      <c r="F42" s="179" t="s">
+      <c r="F42" s="231" t="s">
         <v>490</v>
       </c>
       <c r="G42" s="27" t="s">
@@ -16095,10 +16381,10 @@
       <c r="B43" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="179"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="232"/>
+      <c r="F43" s="231"/>
       <c r="G43" s="27" t="s">
         <v>488</v>
       </c>
@@ -16303,22 +16589,22 @@
       <c r="GX43" s="9"/>
     </row>
     <row r="44" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="233" t="s">
         <v>460</v>
       </c>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="233" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="179" t="s">
+      <c r="C44" s="231" t="s">
         <v>487</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="D44" s="231" t="s">
         <v>433</v>
       </c>
-      <c r="E44" s="216" t="s">
+      <c r="E44" s="232" t="s">
         <v>432</v>
       </c>
-      <c r="F44" s="179" t="s">
+      <c r="F44" s="231" t="s">
         <v>457</v>
       </c>
       <c r="G44" s="27" t="s">
@@ -16525,12 +16811,12 @@
       <c r="GX44" s="9"/>
     </row>
     <row r="45" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="179"/>
+      <c r="A45" s="233"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="231"/>
       <c r="G45" s="27" t="s">
         <v>429</v>
       </c>
@@ -17179,22 +17465,22 @@
       <c r="GX47" s="9"/>
     </row>
     <row r="48" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="178" t="s">
+      <c r="A48" s="233" t="s">
         <v>460</v>
       </c>
-      <c r="B48" s="178" t="s">
+      <c r="B48" s="233" t="s">
         <v>459</v>
       </c>
-      <c r="C48" s="179" t="s">
+      <c r="C48" s="231" t="s">
         <v>477</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="231" t="s">
         <v>476</v>
       </c>
-      <c r="E48" s="216" t="s">
+      <c r="E48" s="232" t="s">
         <v>475</v>
       </c>
-      <c r="F48" s="179" t="s">
+      <c r="F48" s="231" t="s">
         <v>474</v>
       </c>
       <c r="G48" s="27" t="s">
@@ -17401,12 +17687,12 @@
       <c r="GX48" s="9"/>
     </row>
     <row r="49" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="178"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="216"/>
-      <c r="F49" s="179"/>
+      <c r="A49" s="233"/>
+      <c r="B49" s="233"/>
+      <c r="C49" s="231"/>
+      <c r="D49" s="231"/>
+      <c r="E49" s="232"/>
+      <c r="F49" s="231"/>
       <c r="G49" s="27" t="s">
         <v>472</v>
       </c>
@@ -17611,12 +17897,12 @@
       <c r="GX49" s="9"/>
     </row>
     <row r="50" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="178"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="179"/>
+      <c r="A50" s="233"/>
+      <c r="B50" s="233"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="231"/>
       <c r="G50" s="27" t="s">
         <v>471</v>
       </c>
@@ -17821,22 +18107,22 @@
       <c r="GX50" s="9"/>
     </row>
     <row r="51" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="233" t="s">
         <v>460</v>
       </c>
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="233" t="s">
         <v>459</v>
       </c>
-      <c r="C51" s="179" t="s">
+      <c r="C51" s="231" t="s">
         <v>470</v>
       </c>
-      <c r="D51" s="179" t="s">
+      <c r="D51" s="231" t="s">
         <v>355</v>
       </c>
-      <c r="E51" s="216" t="s">
+      <c r="E51" s="232" t="s">
         <v>354</v>
       </c>
-      <c r="F51" s="179" t="s">
+      <c r="F51" s="231" t="s">
         <v>469</v>
       </c>
       <c r="G51" s="27" t="s">
@@ -18043,12 +18329,12 @@
       <c r="GX51" s="9"/>
     </row>
     <row r="52" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="178"/>
-      <c r="B52" s="178"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
-      <c r="E52" s="216"/>
-      <c r="F52" s="179"/>
+      <c r="A52" s="233"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="231"/>
       <c r="G52" s="27" t="s">
         <v>351</v>
       </c>
@@ -18253,22 +18539,22 @@
       <c r="GX52" s="9"/>
     </row>
     <row r="53" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="233" t="s">
         <v>460</v>
       </c>
-      <c r="B53" s="178" t="s">
+      <c r="B53" s="233" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="179" t="s">
+      <c r="C53" s="231" t="s">
         <v>468</v>
       </c>
-      <c r="D53" s="179" t="s">
+      <c r="D53" s="231" t="s">
         <v>467</v>
       </c>
-      <c r="E53" s="216" t="s">
+      <c r="E53" s="232" t="s">
         <v>466</v>
       </c>
-      <c r="F53" s="179" t="s">
+      <c r="F53" s="231" t="s">
         <v>465</v>
       </c>
       <c r="G53" s="27" t="s">
@@ -18475,12 +18761,12 @@
       <c r="GX53" s="9"/>
     </row>
     <row r="54" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="216"/>
-      <c r="F54" s="179"/>
+      <c r="A54" s="233"/>
+      <c r="B54" s="233"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="231"/>
       <c r="G54" s="27" t="s">
         <v>463</v>
       </c>
@@ -18685,12 +18971,12 @@
       <c r="GX54" s="9"/>
     </row>
     <row r="55" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="216"/>
-      <c r="F55" s="179"/>
+      <c r="A55" s="233"/>
+      <c r="B55" s="233"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="231"/>
       <c r="G55" s="27" t="s">
         <v>462</v>
       </c>
@@ -18895,22 +19181,22 @@
       <c r="GX55" s="9"/>
     </row>
     <row r="56" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="233" t="s">
         <v>460</v>
       </c>
-      <c r="B56" s="178" t="s">
+      <c r="B56" s="233" t="s">
         <v>459</v>
       </c>
-      <c r="C56" s="179" t="s">
+      <c r="C56" s="231" t="s">
         <v>461</v>
       </c>
-      <c r="D56" s="179" t="s">
+      <c r="D56" s="231" t="s">
         <v>433</v>
       </c>
-      <c r="E56" s="216" t="s">
+      <c r="E56" s="232" t="s">
         <v>432</v>
       </c>
-      <c r="F56" s="179" t="s">
+      <c r="F56" s="231" t="s">
         <v>457</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -19117,12 +19403,12 @@
       <c r="GX56" s="9"/>
     </row>
     <row r="57" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="178"/>
-      <c r="B57" s="178"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="216"/>
-      <c r="F57" s="179"/>
+      <c r="A57" s="233"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="232"/>
+      <c r="F57" s="231"/>
       <c r="G57" s="27" t="s">
         <v>429</v>
       </c>
@@ -19327,22 +19613,22 @@
       <c r="GX57" s="9"/>
     </row>
     <row r="58" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="180" t="s">
+      <c r="A58" s="246" t="s">
         <v>460</v>
       </c>
-      <c r="B58" s="186" t="s">
+      <c r="B58" s="248" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="195" t="s">
+      <c r="C58" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="D58" s="195" t="s">
+      <c r="D58" s="224" t="s">
         <v>433</v>
       </c>
-      <c r="E58" s="217" t="s">
+      <c r="E58" s="226" t="s">
         <v>432</v>
       </c>
-      <c r="F58" s="195" t="s">
+      <c r="F58" s="224" t="s">
         <v>457</v>
       </c>
       <c r="G58" s="27" t="s">
@@ -19549,12 +19835,12 @@
       <c r="GX58" s="9"/>
     </row>
     <row r="59" spans="1:206" s="25" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="181"/>
-      <c r="B59" s="187"/>
-      <c r="C59" s="196"/>
-      <c r="D59" s="196"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="196"/>
+      <c r="A59" s="247"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="225"/>
       <c r="G59" s="26" t="s">
         <v>429</v>
       </c>
@@ -19759,22 +20045,22 @@
       <c r="GX59" s="9"/>
     </row>
     <row r="60" spans="1:206" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="192" t="s">
+      <c r="A60" s="228" t="s">
         <v>358</v>
       </c>
-      <c r="B60" s="192" t="s">
+      <c r="B60" s="228" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="193" t="s">
+      <c r="C60" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="D60" s="193" t="s">
+      <c r="D60" s="229" t="s">
         <v>433</v>
       </c>
-      <c r="E60" s="208" t="s">
+      <c r="E60" s="230" t="s">
         <v>455</v>
       </c>
-      <c r="F60" s="193" t="s">
+      <c r="F60" s="229" t="s">
         <v>454</v>
       </c>
       <c r="G60" s="87" t="s">
@@ -19782,12 +20068,12 @@
       </c>
     </row>
     <row r="61" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="197"/>
-      <c r="B61" s="197"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="219"/>
-      <c r="F61" s="199"/>
+      <c r="A61" s="223"/>
+      <c r="B61" s="223"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="221"/>
+      <c r="F61" s="219"/>
       <c r="G61" s="87" t="s">
         <v>452</v>
       </c>
@@ -20011,22 +20297,22 @@
       <c r="G62" s="88"/>
     </row>
     <row r="63" spans="1:206" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="222" t="s">
         <v>440</v>
       </c>
-      <c r="C63" s="198" t="s">
+      <c r="C63" s="218" t="s">
         <v>449</v>
       </c>
-      <c r="D63" s="198" t="s">
+      <c r="D63" s="218" t="s">
         <v>363</v>
       </c>
-      <c r="E63" s="200" t="s">
+      <c r="E63" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="F63" s="198" t="s">
+      <c r="F63" s="218" t="s">
         <v>448</v>
       </c>
       <c r="G63" s="23" t="s">
@@ -20034,12 +20320,12 @@
       </c>
     </row>
     <row r="64" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="197"/>
-      <c r="B64" s="197"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="219"/>
-      <c r="F64" s="199"/>
+      <c r="A64" s="223"/>
+      <c r="B64" s="223"/>
+      <c r="C64" s="219"/>
+      <c r="D64" s="219"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="219"/>
       <c r="G64" s="23" t="s">
         <v>359</v>
       </c>
@@ -20244,22 +20530,22 @@
       <c r="GX64" s="9"/>
     </row>
     <row r="65" spans="1:206" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="188" t="s">
+      <c r="A65" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="B65" s="188" t="s">
+      <c r="B65" s="222" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="198" t="s">
+      <c r="C65" s="218" t="s">
         <v>447</v>
       </c>
-      <c r="D65" s="198" t="s">
+      <c r="D65" s="218" t="s">
         <v>382</v>
       </c>
-      <c r="E65" s="200" t="s">
+      <c r="E65" s="220" t="s">
         <v>389</v>
       </c>
-      <c r="F65" s="198" t="s">
+      <c r="F65" s="218" t="s">
         <v>388</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -20267,12 +20553,12 @@
       </c>
     </row>
     <row r="66" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="197"/>
-      <c r="B66" s="197"/>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="219"/>
-      <c r="F66" s="199"/>
+      <c r="A66" s="223"/>
+      <c r="B66" s="223"/>
+      <c r="C66" s="219"/>
+      <c r="D66" s="219"/>
+      <c r="E66" s="221"/>
+      <c r="F66" s="219"/>
       <c r="G66" s="23" t="s">
         <v>386</v>
       </c>
@@ -20477,22 +20763,22 @@
       <c r="GX66" s="9"/>
     </row>
     <row r="67" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A67" s="188" t="s">
+      <c r="A67" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="188" t="s">
+      <c r="B67" s="222" t="s">
         <v>440</v>
       </c>
-      <c r="C67" s="198" t="s">
+      <c r="C67" s="218" t="s">
         <v>446</v>
       </c>
-      <c r="D67" s="198" t="s">
+      <c r="D67" s="218" t="s">
         <v>426</v>
       </c>
-      <c r="E67" s="200" t="s">
+      <c r="E67" s="220" t="s">
         <v>425</v>
       </c>
-      <c r="F67" s="198" t="s">
+      <c r="F67" s="218" t="s">
         <v>424</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -20500,12 +20786,12 @@
       </c>
     </row>
     <row r="68" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="197"/>
-      <c r="B68" s="197"/>
-      <c r="C68" s="199"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="219"/>
-      <c r="F68" s="199"/>
+      <c r="A68" s="223"/>
+      <c r="B68" s="223"/>
+      <c r="C68" s="219"/>
+      <c r="D68" s="219"/>
+      <c r="E68" s="221"/>
+      <c r="F68" s="219"/>
       <c r="G68" s="23" t="s">
         <v>445</v>
       </c>
@@ -20756,22 +21042,22 @@
       </c>
     </row>
     <row r="71" spans="1:206" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="190" t="s">
+      <c r="A71" s="192" t="s">
         <v>374</v>
       </c>
-      <c r="B71" s="190" t="s">
+      <c r="B71" s="192" t="s">
         <v>435</v>
       </c>
-      <c r="C71" s="209" t="s">
+      <c r="C71" s="194" t="s">
         <v>434</v>
       </c>
-      <c r="D71" s="209" t="s">
+      <c r="D71" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="E71" s="211" t="s">
+      <c r="E71" s="196" t="s">
         <v>432</v>
       </c>
-      <c r="F71" s="209" t="s">
+      <c r="F71" s="194" t="s">
         <v>431</v>
       </c>
       <c r="G71" s="77" t="s">
@@ -20978,12 +21264,12 @@
       <c r="GX71" s="9"/>
     </row>
     <row r="72" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="191"/>
-      <c r="B72" s="191"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="210"/>
-      <c r="E72" s="212"/>
-      <c r="F72" s="210"/>
+      <c r="A72" s="193"/>
+      <c r="B72" s="193"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="197"/>
+      <c r="F72" s="195"/>
       <c r="G72" s="77" t="s">
         <v>429</v>
       </c>
@@ -21188,25 +21474,25 @@
       <c r="GX72" s="9"/>
     </row>
     <row r="73" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="232" t="s">
+      <c r="A73" s="198" t="s">
         <v>411</v>
       </c>
-      <c r="B73" s="232" t="s">
+      <c r="B73" s="198" t="s">
         <v>428</v>
       </c>
-      <c r="C73" s="220" t="s">
+      <c r="C73" s="200" t="s">
         <v>417</v>
       </c>
-      <c r="D73" s="220" t="s">
+      <c r="D73" s="200" t="s">
         <v>416</v>
       </c>
-      <c r="E73" s="222" t="s">
+      <c r="E73" s="202" t="s">
         <v>415</v>
       </c>
-      <c r="F73" s="220" t="s">
+      <c r="F73" s="200" t="s">
         <v>414</v>
       </c>
-      <c r="G73" s="224" t="s">
+      <c r="G73" s="212" t="s">
         <v>413</v>
       </c>
       <c r="H73" s="9"/>
@@ -21410,13 +21696,13 @@
       <c r="GX73" s="9"/>
     </row>
     <row r="74" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="233"/>
-      <c r="B74" s="233"/>
-      <c r="C74" s="221"/>
-      <c r="D74" s="221"/>
-      <c r="E74" s="223"/>
-      <c r="F74" s="221"/>
-      <c r="G74" s="225"/>
+      <c r="A74" s="199"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="201"/>
+      <c r="D74" s="201"/>
+      <c r="E74" s="203"/>
+      <c r="F74" s="201"/>
+      <c r="G74" s="213"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -21618,22 +21904,22 @@
       <c r="GX74" s="9"/>
     </row>
     <row r="75" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="226" t="s">
+      <c r="A75" s="210" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="226" t="s">
+      <c r="B75" s="210" t="s">
         <v>421</v>
       </c>
-      <c r="C75" s="228" t="s">
+      <c r="C75" s="211" t="s">
         <v>427</v>
       </c>
-      <c r="D75" s="228" t="s">
+      <c r="D75" s="211" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="230" t="s">
+      <c r="E75" s="214" t="s">
         <v>425</v>
       </c>
-      <c r="F75" s="228" t="s">
+      <c r="F75" s="211" t="s">
         <v>424</v>
       </c>
       <c r="G75" s="80" t="s">
@@ -21840,12 +22126,12 @@
       <c r="GX75" s="9"/>
     </row>
     <row r="76" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="227"/>
-      <c r="B76" s="227"/>
-      <c r="C76" s="229"/>
-      <c r="D76" s="229"/>
-      <c r="E76" s="231"/>
-      <c r="F76" s="229"/>
+      <c r="A76" s="205"/>
+      <c r="B76" s="205"/>
+      <c r="C76" s="207"/>
+      <c r="D76" s="207"/>
+      <c r="E76" s="209"/>
+      <c r="F76" s="207"/>
       <c r="G76" s="80" t="s">
         <v>422</v>
       </c>
@@ -22050,25 +22336,25 @@
       <c r="GX76" s="9"/>
     </row>
     <row r="77" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="234" t="s">
+      <c r="A77" s="204" t="s">
         <v>411</v>
       </c>
-      <c r="B77" s="234" t="s">
+      <c r="B77" s="204" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="235" t="s">
+      <c r="C77" s="206" t="s">
         <v>420</v>
       </c>
-      <c r="D77" s="235" t="s">
+      <c r="D77" s="206" t="s">
         <v>416</v>
       </c>
-      <c r="E77" s="236" t="s">
+      <c r="E77" s="208" t="s">
         <v>415</v>
       </c>
-      <c r="F77" s="235" t="s">
+      <c r="F77" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="G77" s="237" t="s">
+      <c r="G77" s="215" t="s">
         <v>413</v>
       </c>
       <c r="H77" s="9"/>
@@ -22272,13 +22558,13 @@
       <c r="GX77" s="9"/>
     </row>
     <row r="78" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="233"/>
-      <c r="B78" s="233"/>
-      <c r="C78" s="221"/>
-      <c r="D78" s="221"/>
-      <c r="E78" s="223"/>
-      <c r="F78" s="221"/>
-      <c r="G78" s="225"/>
+      <c r="A78" s="199"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="201"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="203"/>
+      <c r="F78" s="201"/>
+      <c r="G78" s="213"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -22480,25 +22766,25 @@
       <c r="GX78" s="9"/>
     </row>
     <row r="79" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="232" t="s">
+      <c r="A79" s="198" t="s">
         <v>411</v>
       </c>
-      <c r="B79" s="232" t="s">
+      <c r="B79" s="198" t="s">
         <v>419</v>
       </c>
-      <c r="C79" s="220" t="s">
+      <c r="C79" s="200" t="s">
         <v>417</v>
       </c>
-      <c r="D79" s="220" t="s">
+      <c r="D79" s="200" t="s">
         <v>416</v>
       </c>
-      <c r="E79" s="222" t="s">
+      <c r="E79" s="202" t="s">
         <v>415</v>
       </c>
-      <c r="F79" s="220" t="s">
+      <c r="F79" s="200" t="s">
         <v>418</v>
       </c>
-      <c r="G79" s="224" t="s">
+      <c r="G79" s="212" t="s">
         <v>413</v>
       </c>
       <c r="H79" s="9"/>
@@ -22702,13 +22988,13 @@
       <c r="GX79" s="9"/>
     </row>
     <row r="80" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="233"/>
-      <c r="B80" s="233"/>
-      <c r="C80" s="221"/>
-      <c r="D80" s="221"/>
-      <c r="E80" s="223"/>
-      <c r="F80" s="221"/>
-      <c r="G80" s="225"/>
+      <c r="A80" s="199"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201"/>
+      <c r="E80" s="203"/>
+      <c r="F80" s="201"/>
+      <c r="G80" s="213"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -22910,25 +23196,25 @@
       <c r="GX80" s="9"/>
     </row>
     <row r="81" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="226" t="s">
+      <c r="A81" s="210" t="s">
         <v>411</v>
       </c>
-      <c r="B81" s="226" t="s">
+      <c r="B81" s="210" t="s">
         <v>412</v>
       </c>
-      <c r="C81" s="228" t="s">
+      <c r="C81" s="211" t="s">
         <v>417</v>
       </c>
-      <c r="D81" s="228" t="s">
+      <c r="D81" s="211" t="s">
         <v>416</v>
       </c>
-      <c r="E81" s="230" t="s">
+      <c r="E81" s="214" t="s">
         <v>415</v>
       </c>
-      <c r="F81" s="228" t="s">
+      <c r="F81" s="211" t="s">
         <v>414</v>
       </c>
-      <c r="G81" s="238" t="s">
+      <c r="G81" s="216" t="s">
         <v>413</v>
       </c>
       <c r="H81" s="9"/>
@@ -23132,13 +23418,13 @@
       <c r="GX81" s="9"/>
     </row>
     <row r="82" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="227"/>
-      <c r="B82" s="227"/>
-      <c r="C82" s="229"/>
-      <c r="D82" s="229"/>
-      <c r="E82" s="231"/>
-      <c r="F82" s="229"/>
-      <c r="G82" s="239"/>
+      <c r="A82" s="205"/>
+      <c r="B82" s="205"/>
+      <c r="C82" s="207"/>
+      <c r="D82" s="207"/>
+      <c r="E82" s="209"/>
+      <c r="F82" s="207"/>
+      <c r="G82" s="217"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -23340,22 +23626,22 @@
       <c r="GX82" s="9"/>
     </row>
     <row r="83" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="234" t="s">
+      <c r="A83" s="204" t="s">
         <v>411</v>
       </c>
-      <c r="B83" s="234" t="s">
+      <c r="B83" s="204" t="s">
         <v>412</v>
       </c>
-      <c r="C83" s="235" t="s">
+      <c r="C83" s="206" t="s">
         <v>400</v>
       </c>
-      <c r="D83" s="235" t="s">
+      <c r="D83" s="206" t="s">
         <v>382</v>
       </c>
-      <c r="E83" s="236" t="s">
+      <c r="E83" s="208" t="s">
         <v>381</v>
       </c>
-      <c r="F83" s="235" t="s">
+      <c r="F83" s="206" t="s">
         <v>380</v>
       </c>
       <c r="G83" s="81" t="s">
@@ -23562,12 +23848,12 @@
       <c r="GX83" s="9"/>
     </row>
     <row r="84" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="227"/>
-      <c r="B84" s="227"/>
-      <c r="C84" s="229"/>
-      <c r="D84" s="229"/>
-      <c r="E84" s="231"/>
-      <c r="F84" s="229"/>
+      <c r="A84" s="205"/>
+      <c r="B84" s="205"/>
+      <c r="C84" s="207"/>
+      <c r="D84" s="207"/>
+      <c r="E84" s="209"/>
+      <c r="F84" s="207"/>
       <c r="G84" s="81" t="s">
         <v>378</v>
       </c>
@@ -23772,12 +24058,12 @@
       <c r="GX84" s="9"/>
     </row>
     <row r="85" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="227"/>
-      <c r="B85" s="227"/>
-      <c r="C85" s="229"/>
-      <c r="D85" s="229"/>
-      <c r="E85" s="231"/>
-      <c r="F85" s="229"/>
+      <c r="A85" s="205"/>
+      <c r="B85" s="205"/>
+      <c r="C85" s="207"/>
+      <c r="D85" s="207"/>
+      <c r="E85" s="209"/>
+      <c r="F85" s="207"/>
       <c r="G85" s="81" t="s">
         <v>377</v>
       </c>
@@ -23982,12 +24268,12 @@
       <c r="GX85" s="9"/>
     </row>
     <row r="86" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="227"/>
-      <c r="B86" s="227"/>
-      <c r="C86" s="229"/>
-      <c r="D86" s="229"/>
-      <c r="E86" s="231"/>
-      <c r="F86" s="229"/>
+      <c r="A86" s="205"/>
+      <c r="B86" s="205"/>
+      <c r="C86" s="207"/>
+      <c r="D86" s="207"/>
+      <c r="E86" s="209"/>
+      <c r="F86" s="207"/>
       <c r="G86" s="81" t="s">
         <v>376</v>
       </c>
@@ -24192,12 +24478,12 @@
       <c r="GX86" s="9"/>
     </row>
     <row r="87" spans="1:206" s="21" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="233"/>
-      <c r="B87" s="233"/>
-      <c r="C87" s="221"/>
-      <c r="D87" s="221"/>
-      <c r="E87" s="223"/>
-      <c r="F87" s="221"/>
+      <c r="A87" s="199"/>
+      <c r="B87" s="199"/>
+      <c r="C87" s="201"/>
+      <c r="D87" s="201"/>
+      <c r="E87" s="203"/>
+      <c r="F87" s="201"/>
       <c r="G87" s="81" t="s">
         <v>375</v>
       </c>
@@ -24402,22 +24688,22 @@
       <c r="GX87" s="9"/>
     </row>
     <row r="88" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="232" t="s">
+      <c r="A88" s="198" t="s">
         <v>411</v>
       </c>
-      <c r="B88" s="232" t="s">
+      <c r="B88" s="198" t="s">
         <v>410</v>
       </c>
-      <c r="C88" s="220" t="s">
+      <c r="C88" s="200" t="s">
         <v>409</v>
       </c>
-      <c r="D88" s="220" t="s">
+      <c r="D88" s="200" t="s">
         <v>396</v>
       </c>
-      <c r="E88" s="222" t="s">
+      <c r="E88" s="202" t="s">
         <v>408</v>
       </c>
-      <c r="F88" s="220" t="s">
+      <c r="F88" s="200" t="s">
         <v>407</v>
       </c>
       <c r="G88" s="82" t="s">
@@ -24624,12 +24910,12 @@
       <c r="GX88" s="9"/>
     </row>
     <row r="89" spans="1:206" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="233"/>
-      <c r="B89" s="233"/>
-      <c r="C89" s="221"/>
-      <c r="D89" s="221"/>
-      <c r="E89" s="223"/>
-      <c r="F89" s="221"/>
+      <c r="A89" s="199"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="201"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="201"/>
       <c r="G89" s="82" t="s">
         <v>405</v>
       </c>
@@ -24834,22 +25120,22 @@
       <c r="GX89" s="9"/>
     </row>
     <row r="90" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="184" t="s">
+      <c r="A90" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="184" t="s">
+      <c r="B90" s="183" t="s">
         <v>404</v>
       </c>
-      <c r="C90" s="240" t="s">
+      <c r="C90" s="186" t="s">
         <v>400</v>
       </c>
-      <c r="D90" s="240" t="s">
+      <c r="D90" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="242" t="s">
+      <c r="E90" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F90" s="240" t="s">
+      <c r="F90" s="186" t="s">
         <v>388</v>
       </c>
       <c r="G90" s="79" t="s">
@@ -25058,10 +25344,10 @@
     <row r="91" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="185"/>
       <c r="B91" s="185"/>
-      <c r="C91" s="241"/>
-      <c r="D91" s="241"/>
-      <c r="E91" s="243"/>
-      <c r="F91" s="241"/>
+      <c r="C91" s="188"/>
+      <c r="D91" s="188"/>
+      <c r="E91" s="191"/>
+      <c r="F91" s="188"/>
       <c r="G91" s="79" t="s">
         <v>386</v>
       </c>
@@ -25266,22 +25552,22 @@
       <c r="GX91" s="9"/>
     </row>
     <row r="92" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="184" t="s">
+      <c r="A92" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B92" s="184" t="s">
+      <c r="B92" s="183" t="s">
         <v>403</v>
       </c>
-      <c r="C92" s="240" t="s">
+      <c r="C92" s="186" t="s">
         <v>400</v>
       </c>
-      <c r="D92" s="240" t="s">
+      <c r="D92" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="242" t="s">
+      <c r="E92" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F92" s="240" t="s">
+      <c r="F92" s="186" t="s">
         <v>388</v>
       </c>
       <c r="G92" s="79" t="s">
@@ -25490,10 +25776,10 @@
     <row r="93" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="185"/>
       <c r="B93" s="185"/>
-      <c r="C93" s="241"/>
-      <c r="D93" s="241"/>
-      <c r="E93" s="243"/>
-      <c r="F93" s="241"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="188"/>
+      <c r="E93" s="191"/>
+      <c r="F93" s="188"/>
       <c r="G93" s="79" t="s">
         <v>386</v>
       </c>
@@ -25698,22 +25984,22 @@
       <c r="GX93" s="9"/>
     </row>
     <row r="94" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="184" t="s">
+      <c r="A94" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B94" s="184" t="s">
+      <c r="B94" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="C94" s="240" t="s">
+      <c r="C94" s="186" t="s">
         <v>400</v>
       </c>
-      <c r="D94" s="240" t="s">
+      <c r="D94" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="242" t="s">
+      <c r="E94" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F94" s="240" t="s">
+      <c r="F94" s="186" t="s">
         <v>388</v>
       </c>
       <c r="G94" s="79" t="s">
@@ -25922,10 +26208,10 @@
     <row r="95" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="185"/>
       <c r="B95" s="185"/>
-      <c r="C95" s="241"/>
-      <c r="D95" s="241"/>
-      <c r="E95" s="243"/>
-      <c r="F95" s="241"/>
+      <c r="C95" s="188"/>
+      <c r="D95" s="188"/>
+      <c r="E95" s="191"/>
+      <c r="F95" s="188"/>
       <c r="G95" s="79" t="s">
         <v>386</v>
       </c>
@@ -26130,22 +26416,22 @@
       <c r="GX95" s="9"/>
     </row>
     <row r="96" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="184" t="s">
+      <c r="A96" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B96" s="184" t="s">
+      <c r="B96" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C96" s="240" t="s">
+      <c r="C96" s="186" t="s">
         <v>400</v>
       </c>
-      <c r="D96" s="240" t="s">
+      <c r="D96" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E96" s="242" t="s">
+      <c r="E96" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F96" s="240" t="s">
+      <c r="F96" s="186" t="s">
         <v>388</v>
       </c>
       <c r="G96" s="79" t="s">
@@ -26354,10 +26640,10 @@
     <row r="97" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="185"/>
       <c r="B97" s="185"/>
-      <c r="C97" s="241"/>
-      <c r="D97" s="241"/>
-      <c r="E97" s="243"/>
-      <c r="F97" s="241"/>
+      <c r="C97" s="188"/>
+      <c r="D97" s="188"/>
+      <c r="E97" s="191"/>
+      <c r="F97" s="188"/>
       <c r="G97" s="79" t="s">
         <v>386</v>
       </c>
@@ -26562,22 +26848,22 @@
       <c r="GX97" s="9"/>
     </row>
     <row r="98" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="184" t="s">
+      <c r="A98" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="184" t="s">
+      <c r="B98" s="183" t="s">
         <v>399</v>
       </c>
-      <c r="C98" s="240" t="s">
+      <c r="C98" s="186" t="s">
         <v>398</v>
       </c>
-      <c r="D98" s="240" t="s">
+      <c r="D98" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E98" s="242" t="s">
+      <c r="E98" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F98" s="240" t="s">
+      <c r="F98" s="186" t="s">
         <v>388</v>
       </c>
       <c r="G98" s="79" t="s">
@@ -26786,10 +27072,10 @@
     <row r="99" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="185"/>
       <c r="B99" s="185"/>
-      <c r="C99" s="241"/>
-      <c r="D99" s="241"/>
-      <c r="E99" s="243"/>
-      <c r="F99" s="241"/>
+      <c r="C99" s="188"/>
+      <c r="D99" s="188"/>
+      <c r="E99" s="191"/>
+      <c r="F99" s="188"/>
       <c r="G99" s="79" t="s">
         <v>386</v>
       </c>
@@ -26994,22 +27280,22 @@
       <c r="GX99" s="9"/>
     </row>
     <row r="100" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="184" t="s">
+      <c r="A100" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B100" s="184" t="s">
+      <c r="B100" s="183" t="s">
         <v>384</v>
       </c>
-      <c r="C100" s="240" t="s">
+      <c r="C100" s="186" t="s">
         <v>397</v>
       </c>
-      <c r="D100" s="240" t="s">
+      <c r="D100" s="186" t="s">
         <v>396</v>
       </c>
-      <c r="E100" s="242" t="s">
+      <c r="E100" s="189" t="s">
         <v>395</v>
       </c>
-      <c r="F100" s="240" t="s">
+      <c r="F100" s="186" t="s">
         <v>394</v>
       </c>
       <c r="G100" s="79" t="s">
@@ -27216,12 +27502,12 @@
       <c r="GX100" s="9"/>
     </row>
     <row r="101" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="244"/>
-      <c r="B101" s="244"/>
-      <c r="C101" s="245"/>
-      <c r="D101" s="245"/>
-      <c r="E101" s="246"/>
-      <c r="F101" s="245"/>
+      <c r="A101" s="184"/>
+      <c r="B101" s="184"/>
+      <c r="C101" s="187"/>
+      <c r="D101" s="187"/>
+      <c r="E101" s="190"/>
+      <c r="F101" s="187"/>
       <c r="G101" s="79" t="s">
         <v>392</v>
       </c>
@@ -27428,10 +27714,10 @@
     <row r="102" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="185"/>
       <c r="B102" s="185"/>
-      <c r="C102" s="241"/>
-      <c r="D102" s="241"/>
-      <c r="E102" s="243"/>
-      <c r="F102" s="241"/>
+      <c r="C102" s="188"/>
+      <c r="D102" s="188"/>
+      <c r="E102" s="191"/>
+      <c r="F102" s="188"/>
       <c r="G102" s="79" t="s">
         <v>391</v>
       </c>
@@ -27636,22 +27922,22 @@
       <c r="GX102" s="9"/>
     </row>
     <row r="103" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="184" t="s">
+      <c r="A103" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B103" s="184" t="s">
+      <c r="B103" s="183" t="s">
         <v>384</v>
       </c>
-      <c r="C103" s="240" t="s">
+      <c r="C103" s="186" t="s">
         <v>390</v>
       </c>
-      <c r="D103" s="240" t="s">
+      <c r="D103" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="242" t="s">
+      <c r="E103" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F103" s="240" t="s">
+      <c r="F103" s="186" t="s">
         <v>388</v>
       </c>
       <c r="G103" s="79" t="s">
@@ -27860,10 +28146,10 @@
     <row r="104" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="185"/>
       <c r="B104" s="185"/>
-      <c r="C104" s="241"/>
-      <c r="D104" s="241"/>
-      <c r="E104" s="243"/>
-      <c r="F104" s="241"/>
+      <c r="C104" s="188"/>
+      <c r="D104" s="188"/>
+      <c r="E104" s="191"/>
+      <c r="F104" s="188"/>
       <c r="G104" s="79" t="s">
         <v>386</v>
       </c>
@@ -28068,22 +28354,22 @@
       <c r="GX104" s="9"/>
     </row>
     <row r="105" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="184" t="s">
+      <c r="A105" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="184" t="s">
+      <c r="B105" s="183" t="s">
         <v>384</v>
       </c>
-      <c r="C105" s="240" t="s">
+      <c r="C105" s="186" t="s">
         <v>383</v>
       </c>
-      <c r="D105" s="240" t="s">
+      <c r="D105" s="186" t="s">
         <v>382</v>
       </c>
-      <c r="E105" s="242" t="s">
+      <c r="E105" s="189" t="s">
         <v>381</v>
       </c>
-      <c r="F105" s="240" t="s">
+      <c r="F105" s="186" t="s">
         <v>380</v>
       </c>
       <c r="G105" s="79" t="s">
@@ -28290,12 +28576,12 @@
       <c r="GX105" s="9"/>
     </row>
     <row r="106" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="244"/>
-      <c r="B106" s="244"/>
-      <c r="C106" s="245"/>
-      <c r="D106" s="245"/>
-      <c r="E106" s="246"/>
-      <c r="F106" s="245"/>
+      <c r="A106" s="184"/>
+      <c r="B106" s="184"/>
+      <c r="C106" s="187"/>
+      <c r="D106" s="187"/>
+      <c r="E106" s="190"/>
+      <c r="F106" s="187"/>
       <c r="G106" s="79" t="s">
         <v>378</v>
       </c>
@@ -28500,12 +28786,12 @@
       <c r="GX106" s="9"/>
     </row>
     <row r="107" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="244"/>
-      <c r="B107" s="244"/>
-      <c r="C107" s="245"/>
-      <c r="D107" s="245"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="245"/>
+      <c r="A107" s="184"/>
+      <c r="B107" s="184"/>
+      <c r="C107" s="187"/>
+      <c r="D107" s="187"/>
+      <c r="E107" s="190"/>
+      <c r="F107" s="187"/>
       <c r="G107" s="79" t="s">
         <v>377</v>
       </c>
@@ -28710,12 +28996,12 @@
       <c r="GX107" s="9"/>
     </row>
     <row r="108" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="244"/>
-      <c r="B108" s="244"/>
-      <c r="C108" s="245"/>
-      <c r="D108" s="245"/>
-      <c r="E108" s="246"/>
-      <c r="F108" s="245"/>
+      <c r="A108" s="184"/>
+      <c r="B108" s="184"/>
+      <c r="C108" s="187"/>
+      <c r="D108" s="187"/>
+      <c r="E108" s="190"/>
+      <c r="F108" s="187"/>
       <c r="G108" s="79" t="s">
         <v>376</v>
       </c>
@@ -28922,10 +29208,10 @@
     <row r="109" spans="1:206" s="20" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="185"/>
       <c r="B109" s="185"/>
-      <c r="C109" s="241"/>
-      <c r="D109" s="241"/>
-      <c r="E109" s="243"/>
-      <c r="F109" s="241"/>
+      <c r="C109" s="188"/>
+      <c r="D109" s="188"/>
+      <c r="E109" s="191"/>
+      <c r="F109" s="188"/>
       <c r="G109" s="79" t="s">
         <v>375</v>
       </c>
@@ -29130,22 +29416,22 @@
       <c r="GX109" s="9"/>
     </row>
     <row r="110" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="190" t="s">
+      <c r="A110" s="192" t="s">
         <v>374</v>
       </c>
-      <c r="B110" s="190" t="s">
+      <c r="B110" s="192" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="209" t="s">
+      <c r="C110" s="194" t="s">
         <v>372</v>
       </c>
-      <c r="D110" s="209" t="s">
+      <c r="D110" s="194" t="s">
         <v>371</v>
       </c>
-      <c r="E110" s="211" t="s">
+      <c r="E110" s="196" t="s">
         <v>370</v>
       </c>
-      <c r="F110" s="209" t="s">
+      <c r="F110" s="194" t="s">
         <v>369</v>
       </c>
       <c r="G110" s="78" t="s">
@@ -29352,12 +29638,12 @@
       <c r="GX110" s="9"/>
     </row>
     <row r="111" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="191"/>
-      <c r="B111" s="191"/>
-      <c r="C111" s="210"/>
-      <c r="D111" s="210"/>
-      <c r="E111" s="212"/>
-      <c r="F111" s="210"/>
+      <c r="A111" s="193"/>
+      <c r="B111" s="193"/>
+      <c r="C111" s="195"/>
+      <c r="D111" s="195"/>
+      <c r="E111" s="197"/>
+      <c r="F111" s="195"/>
       <c r="G111" s="78" t="s">
         <v>367</v>
       </c>
@@ -29562,22 +29848,22 @@
       <c r="GX111" s="9"/>
     </row>
     <row r="112" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="182" t="s">
+      <c r="A112" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="182" t="s">
+      <c r="B112" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="C112" s="247" t="s">
+      <c r="C112" s="177" t="s">
         <v>365</v>
       </c>
-      <c r="D112" s="247" t="s">
+      <c r="D112" s="177" t="s">
         <v>363</v>
       </c>
-      <c r="E112" s="249" t="s">
+      <c r="E112" s="181" t="s">
         <v>362</v>
       </c>
-      <c r="F112" s="247" t="s">
+      <c r="F112" s="177" t="s">
         <v>361</v>
       </c>
       <c r="G112" s="19" t="s">
@@ -29585,12 +29871,12 @@
       </c>
     </row>
     <row r="113" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="183"/>
-      <c r="B113" s="183"/>
-      <c r="C113" s="248"/>
-      <c r="D113" s="248"/>
-      <c r="E113" s="250"/>
-      <c r="F113" s="248"/>
+      <c r="A113" s="180"/>
+      <c r="B113" s="180"/>
+      <c r="C113" s="178"/>
+      <c r="D113" s="178"/>
+      <c r="E113" s="182"/>
+      <c r="F113" s="178"/>
       <c r="G113" s="19" t="s">
         <v>359</v>
       </c>
@@ -29795,22 +30081,22 @@
       <c r="GX113" s="9"/>
     </row>
     <row r="114" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="182" t="s">
+      <c r="A114" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="B114" s="182" t="s">
+      <c r="B114" s="179" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="247" t="s">
+      <c r="C114" s="177" t="s">
         <v>364</v>
       </c>
-      <c r="D114" s="247" t="s">
+      <c r="D114" s="177" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="249" t="s">
+      <c r="E114" s="181" t="s">
         <v>362</v>
       </c>
-      <c r="F114" s="247" t="s">
+      <c r="F114" s="177" t="s">
         <v>361</v>
       </c>
       <c r="G114" s="19" t="s">
@@ -29818,12 +30104,12 @@
       </c>
     </row>
     <row r="115" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="183"/>
-      <c r="B115" s="183"/>
-      <c r="C115" s="248"/>
-      <c r="D115" s="248"/>
-      <c r="E115" s="250"/>
-      <c r="F115" s="248"/>
+      <c r="A115" s="180"/>
+      <c r="B115" s="180"/>
+      <c r="C115" s="178"/>
+      <c r="D115" s="178"/>
+      <c r="E115" s="182"/>
+      <c r="F115" s="178"/>
       <c r="G115" s="19" t="s">
         <v>359</v>
       </c>
@@ -30028,22 +30314,22 @@
       <c r="GX115" s="9"/>
     </row>
     <row r="116" spans="1:206" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="182" t="s">
+      <c r="A116" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="182" t="s">
+      <c r="B116" s="179" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="247" t="s">
+      <c r="C116" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="D116" s="247" t="s">
+      <c r="D116" s="177" t="s">
         <v>355</v>
       </c>
-      <c r="E116" s="249" t="s">
+      <c r="E116" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="F116" s="247" t="s">
+      <c r="F116" s="177" t="s">
         <v>353</v>
       </c>
       <c r="G116" s="40" t="s">
@@ -30051,12 +30337,12 @@
       </c>
     </row>
     <row r="117" spans="1:206" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="183"/>
-      <c r="B117" s="183"/>
-      <c r="C117" s="248"/>
-      <c r="D117" s="248"/>
-      <c r="E117" s="250"/>
-      <c r="F117" s="248"/>
+      <c r="A117" s="180"/>
+      <c r="B117" s="180"/>
+      <c r="C117" s="178"/>
+      <c r="D117" s="178"/>
+      <c r="E117" s="182"/>
+      <c r="F117" s="178"/>
       <c r="G117" s="19" t="s">
         <v>351</v>
       </c>
@@ -30318,210 +30604,6 @@
   </sheetData>
   <autoFilter ref="A1:GX117" xr:uid="{C19CED52-092A-4B65-8B9F-589DB1FD1B9C}"/>
   <mergeCells count="228">
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="F105:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="A58:A59"/>
@@ -30546,6 +30628,210 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30571,55 +30857,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="264" t="s">
         <v>613</v>
       </c>
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="326" t="s">
+      <c r="C1" s="253" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="264" t="s">
         <v>614</v>
       </c>
-      <c r="E1" s="251" t="s">
+      <c r="E1" s="264" t="s">
         <v>615</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="264" t="s">
         <v>616</v>
       </c>
-      <c r="G1" s="251"/>
+      <c r="G1" s="264"/>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="252"/>
-      <c r="B2" s="324"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
+      <c r="A2" s="265"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253"/>
-      <c r="B3" s="325"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="318" t="s">
+      <c r="A4" s="256" t="s">
         <v>564</v>
       </c>
       <c r="B4" s="50">
@@ -30631,7 +30917,7 @@
       <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="329"/>
+      <c r="A5" s="257"/>
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
         <v>565</v>
@@ -30639,7 +30925,7 @@
       <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="258" t="s">
         <v>566</v>
       </c>
       <c r="B6" s="50">
@@ -30648,10 +30934,10 @@
       <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="254" t="s">
+      <c r="D6" s="315" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="256" t="s">
+      <c r="E6" s="307" t="s">
         <v>584</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -30670,13 +30956,13 @@
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="331"/>
-      <c r="B7" s="289"/>
-      <c r="C7" s="309" t="s">
+      <c r="A7" s="259"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="262" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="257"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="308"/>
       <c r="F7" s="46"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
@@ -30689,11 +30975,11 @@
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="331"/>
-      <c r="B8" s="290"/>
-      <c r="C8" s="310"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="257"/>
+      <c r="A8" s="259"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="308"/>
       <c r="F8" s="29" t="s">
         <v>432</v>
       </c>
@@ -30710,11 +30996,11 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="331"/>
+      <c r="A9" s="259"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="257"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="308"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -30727,7 +31013,7 @@
       <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="318" t="s">
+      <c r="A10" s="256" t="s">
         <v>564</v>
       </c>
       <c r="B10" s="50">
@@ -30739,21 +31025,21 @@
       <c r="D10" s="105"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="319"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="309" t="s">
+      <c r="A11" s="267"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="262" t="s">
         <v>568</v>
       </c>
       <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="319"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="310"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="261"/>
+      <c r="C12" s="263"/>
       <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="320" t="s">
+      <c r="A13" s="268" t="s">
         <v>569</v>
       </c>
       <c r="B13" s="50">
@@ -30762,146 +31048,146 @@
       <c r="C13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="270" t="s">
+      <c r="D13" s="329" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="320"/>
-      <c r="B14" s="289"/>
-      <c r="C14" s="309" t="s">
+      <c r="A14" s="268"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="262" t="s">
         <v>570</v>
       </c>
-      <c r="D14" s="270"/>
+      <c r="D14" s="329"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="320"/>
-      <c r="B15" s="290"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="270"/>
+      <c r="A15" s="268"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="329"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="320"/>
+      <c r="A16" s="268"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="310"/>
-      <c r="D16" s="270"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="329"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="320"/>
+      <c r="A17" s="268"/>
       <c r="B17" s="50">
         <v>5</v>
       </c>
       <c r="C17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="270"/>
+      <c r="D17" s="329"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="300" t="s">
+      <c r="A18" s="268"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="269" t="s">
         <v>571</v>
       </c>
-      <c r="D18" s="270"/>
+      <c r="D18" s="329"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="320"/>
-      <c r="B19" s="290"/>
-      <c r="C19" s="301"/>
-      <c r="D19" s="270"/>
+      <c r="A19" s="268"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="329"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="320"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="270"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="329"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="320"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="329"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="320"/>
+      <c r="A22" s="268"/>
       <c r="B22" s="50">
         <v>6</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="270"/>
+      <c r="D22" s="329"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="320"/>
-      <c r="B23" s="289"/>
-      <c r="C23" s="300" t="s">
+      <c r="A23" s="268"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="269" t="s">
         <v>572</v>
       </c>
-      <c r="D23" s="270"/>
+      <c r="D23" s="329"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="320"/>
-      <c r="B24" s="290"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="270"/>
+      <c r="A24" s="268"/>
+      <c r="B24" s="261"/>
+      <c r="C24" s="270"/>
+      <c r="D24" s="329"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="320"/>
+      <c r="A25" s="268"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="329"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="320"/>
+      <c r="A26" s="268"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="301"/>
-      <c r="D26" s="270"/>
+      <c r="C26" s="270"/>
+      <c r="D26" s="329"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="320"/>
+      <c r="A27" s="268"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="270"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="329"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="320"/>
+      <c r="A28" s="268"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="301"/>
-      <c r="D28" s="270"/>
+      <c r="C28" s="270"/>
+      <c r="D28" s="329"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="320"/>
+      <c r="A29" s="268"/>
       <c r="B29" s="50">
         <v>7</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="270"/>
+      <c r="D29" s="329"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="320"/>
-      <c r="B30" s="289"/>
-      <c r="C30" s="321" t="s">
+      <c r="A30" s="268"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="271" t="s">
         <v>573</v>
       </c>
-      <c r="D30" s="270"/>
+      <c r="D30" s="329"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="320"/>
-      <c r="B31" s="290"/>
-      <c r="C31" s="322"/>
-      <c r="D31" s="270"/>
+      <c r="A31" s="268"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="329"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="320"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="322"/>
-      <c r="D32" s="271"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="330"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="297" t="s">
+      <c r="A33" s="273" t="s">
         <v>566</v>
       </c>
       <c r="B33" s="50">
@@ -30910,38 +31196,38 @@
       <c r="C33" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="267" t="s">
+      <c r="D33" s="326" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="298"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="300" t="s">
+      <c r="A34" s="274"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="269" t="s">
         <v>574</v>
       </c>
-      <c r="D34" s="268"/>
+      <c r="D34" s="327"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="298"/>
-      <c r="B35" s="290"/>
-      <c r="C35" s="301"/>
-      <c r="D35" s="268"/>
+      <c r="A35" s="274"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="327"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="298"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="54"/>
-      <c r="C36" s="301"/>
-      <c r="D36" s="268"/>
+      <c r="C36" s="270"/>
+      <c r="D36" s="327"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="299"/>
+      <c r="A37" s="275"/>
       <c r="B37" s="54"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="268"/>
+      <c r="C37" s="270"/>
+      <c r="D37" s="327"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="303" t="s">
+      <c r="A38" s="276" t="s">
         <v>575</v>
       </c>
       <c r="B38" s="50">
@@ -30950,162 +31236,162 @@
       <c r="C38" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D38" s="262" t="s">
+      <c r="D38" s="321" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="304"/>
-      <c r="B39" s="289"/>
-      <c r="C39" s="309" t="s">
+      <c r="A39" s="277"/>
+      <c r="B39" s="260"/>
+      <c r="C39" s="262" t="s">
         <v>576</v>
       </c>
-      <c r="D39" s="264"/>
+      <c r="D39" s="323"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="304"/>
-      <c r="B40" s="290"/>
-      <c r="C40" s="310"/>
-      <c r="D40" s="264"/>
+      <c r="A40" s="277"/>
+      <c r="B40" s="261"/>
+      <c r="C40" s="263"/>
+      <c r="D40" s="323"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="304"/>
+      <c r="A41" s="277"/>
       <c r="B41" s="54"/>
-      <c r="C41" s="310"/>
-      <c r="D41" s="264"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="323"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="304"/>
+      <c r="A42" s="277"/>
       <c r="B42" s="50">
         <v>10</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="D42" s="264"/>
+      <c r="D42" s="323"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="304"/>
-      <c r="B43" s="289"/>
-      <c r="C43" s="309" t="s">
+      <c r="A43" s="277"/>
+      <c r="B43" s="260"/>
+      <c r="C43" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="D43" s="264"/>
+      <c r="D43" s="323"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="304"/>
-      <c r="B44" s="290"/>
-      <c r="C44" s="310"/>
-      <c r="D44" s="264"/>
+      <c r="A44" s="277"/>
+      <c r="B44" s="261"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="323"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="304"/>
+      <c r="A45" s="277"/>
       <c r="B45" s="54"/>
-      <c r="C45" s="310"/>
-      <c r="D45" s="264"/>
+      <c r="C45" s="263"/>
+      <c r="D45" s="323"/>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="304"/>
+      <c r="A46" s="277"/>
       <c r="B46" s="50">
         <v>11</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>579</v>
       </c>
-      <c r="D46" s="269" t="s">
+      <c r="D46" s="328" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="304"/>
-      <c r="B47" s="289"/>
-      <c r="C47" s="309" t="s">
+      <c r="A47" s="277"/>
+      <c r="B47" s="260"/>
+      <c r="C47" s="262" t="s">
         <v>580</v>
       </c>
-      <c r="D47" s="269"/>
+      <c r="D47" s="328"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="304"/>
-      <c r="B48" s="290"/>
-      <c r="C48" s="310"/>
-      <c r="D48" s="269"/>
+      <c r="A48" s="277"/>
+      <c r="B48" s="261"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="328"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="304"/>
+      <c r="A49" s="277"/>
       <c r="B49" s="50">
         <v>12</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D49" s="262" t="s">
+      <c r="D49" s="321" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="304"/>
-      <c r="B50" s="289"/>
-      <c r="C50" s="309" t="s">
+      <c r="A50" s="277"/>
+      <c r="B50" s="260"/>
+      <c r="C50" s="262" t="s">
         <v>581</v>
       </c>
-      <c r="D50" s="264"/>
+      <c r="D50" s="323"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="304"/>
-      <c r="B51" s="290"/>
-      <c r="C51" s="310"/>
-      <c r="D51" s="264"/>
+      <c r="A51" s="277"/>
+      <c r="B51" s="261"/>
+      <c r="C51" s="263"/>
+      <c r="D51" s="323"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="304"/>
+      <c r="A52" s="277"/>
       <c r="B52" s="54"/>
-      <c r="C52" s="310"/>
-      <c r="D52" s="264"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="323"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="304"/>
+      <c r="A53" s="277"/>
       <c r="B53" s="50">
         <v>13</v>
       </c>
       <c r="C53" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="264"/>
+      <c r="D53" s="323"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="304"/>
-      <c r="B54" s="289"/>
-      <c r="C54" s="309" t="s">
+      <c r="A54" s="277"/>
+      <c r="B54" s="260"/>
+      <c r="C54" s="262" t="s">
         <v>582</v>
       </c>
-      <c r="D54" s="264"/>
+      <c r="D54" s="323"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="304"/>
-      <c r="B55" s="290"/>
-      <c r="C55" s="310"/>
-      <c r="D55" s="264"/>
+      <c r="A55" s="277"/>
+      <c r="B55" s="261"/>
+      <c r="C55" s="263"/>
+      <c r="D55" s="323"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="304"/>
+      <c r="A56" s="277"/>
       <c r="B56" s="50">
         <v>14</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="264"/>
+      <c r="D56" s="323"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="305"/>
+      <c r="A57" s="278"/>
       <c r="B57" s="52"/>
       <c r="C57" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="D57" s="263"/>
+      <c r="D57" s="322"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="315" t="s">
+      <c r="A58" s="279" t="s">
         <v>584</v>
       </c>
       <c r="B58" s="50">
@@ -31114,38 +31400,38 @@
       <c r="C58" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="D58" s="256" t="s">
+      <c r="D58" s="307" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="316"/>
-      <c r="B59" s="289"/>
-      <c r="C59" s="309" t="s">
+      <c r="A59" s="280"/>
+      <c r="B59" s="260"/>
+      <c r="C59" s="262" t="s">
         <v>585</v>
       </c>
-      <c r="D59" s="257"/>
+      <c r="D59" s="308"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="316"/>
-      <c r="B60" s="290"/>
-      <c r="C60" s="310"/>
-      <c r="D60" s="257"/>
+      <c r="A60" s="280"/>
+      <c r="B60" s="261"/>
+      <c r="C60" s="263"/>
+      <c r="D60" s="308"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="316"/>
+      <c r="A61" s="280"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="310"/>
-      <c r="D61" s="257"/>
+      <c r="C61" s="263"/>
+      <c r="D61" s="308"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="317"/>
+      <c r="A62" s="281"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="301"/>
-      <c r="D62" s="274"/>
+      <c r="C62" s="270"/>
+      <c r="D62" s="309"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="303" t="s">
+      <c r="A63" s="276" t="s">
         <v>586</v>
       </c>
       <c r="B63" s="50">
@@ -31154,20 +31440,20 @@
       <c r="C63" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="D63" s="262" t="s">
+      <c r="D63" s="321" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="305"/>
+      <c r="A64" s="278"/>
       <c r="B64" s="52"/>
       <c r="C64" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="D64" s="263"/>
+      <c r="D64" s="322"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="315" t="s">
+      <c r="A65" s="279" t="s">
         <v>588</v>
       </c>
       <c r="B65" s="50">
@@ -31176,74 +31462,74 @@
       <c r="C65" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D65" s="275" t="s">
+      <c r="D65" s="310" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="316"/>
+      <c r="A66" s="280"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="300" t="s">
+      <c r="C66" s="269" t="s">
         <v>589</v>
       </c>
-      <c r="D66" s="276"/>
+      <c r="D66" s="311"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="316"/>
+      <c r="A67" s="280"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="301"/>
-      <c r="D67" s="276"/>
+      <c r="C67" s="270"/>
+      <c r="D67" s="311"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="316"/>
+      <c r="A68" s="280"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="301"/>
-      <c r="D68" s="276"/>
+      <c r="C68" s="270"/>
+      <c r="D68" s="311"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="316"/>
+      <c r="A69" s="280"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="301"/>
-      <c r="D69" s="276"/>
+      <c r="C69" s="270"/>
+      <c r="D69" s="311"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="316"/>
+      <c r="A70" s="280"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="301"/>
-      <c r="D70" s="276"/>
+      <c r="C70" s="270"/>
+      <c r="D70" s="311"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="316"/>
+      <c r="A71" s="280"/>
       <c r="B71" s="56"/>
-      <c r="C71" s="301"/>
-      <c r="D71" s="276"/>
+      <c r="C71" s="270"/>
+      <c r="D71" s="311"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="316"/>
+      <c r="A72" s="280"/>
       <c r="B72" s="54"/>
-      <c r="C72" s="301"/>
-      <c r="D72" s="276"/>
+      <c r="C72" s="270"/>
+      <c r="D72" s="311"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="316"/>
+      <c r="A73" s="280"/>
       <c r="B73" s="54"/>
-      <c r="C73" s="301"/>
-      <c r="D73" s="276"/>
+      <c r="C73" s="270"/>
+      <c r="D73" s="311"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="316"/>
+      <c r="A74" s="280"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="301"/>
-      <c r="D74" s="276"/>
+      <c r="C74" s="270"/>
+      <c r="D74" s="311"/>
     </row>
     <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="316"/>
+      <c r="A75" s="280"/>
       <c r="B75" s="56"/>
-      <c r="C75" s="301"/>
-      <c r="D75" s="276"/>
+      <c r="C75" s="270"/>
+      <c r="D75" s="311"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="297" t="s">
+      <c r="A76" s="273" t="s">
         <v>566</v>
       </c>
       <c r="B76" s="50">
@@ -31252,50 +31538,50 @@
       <c r="C76" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="D76" s="265" t="s">
+      <c r="D76" s="324" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="298"/>
-      <c r="B77" s="289"/>
-      <c r="C77" s="300" t="s">
+      <c r="A77" s="274"/>
+      <c r="B77" s="260"/>
+      <c r="C77" s="269" t="s">
         <v>591</v>
       </c>
-      <c r="D77" s="266"/>
+      <c r="D77" s="325"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="298"/>
-      <c r="B78" s="290"/>
-      <c r="C78" s="301"/>
-      <c r="D78" s="266"/>
+      <c r="A78" s="274"/>
+      <c r="B78" s="261"/>
+      <c r="C78" s="270"/>
+      <c r="D78" s="325"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="298"/>
+      <c r="A79" s="274"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="301"/>
-      <c r="D79" s="266"/>
+      <c r="C79" s="270"/>
+      <c r="D79" s="325"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="298"/>
+      <c r="A80" s="274"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="301"/>
-      <c r="D80" s="266"/>
+      <c r="C80" s="270"/>
+      <c r="D80" s="325"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="298"/>
+      <c r="A81" s="274"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="301"/>
-      <c r="D81" s="266"/>
+      <c r="C81" s="270"/>
+      <c r="D81" s="325"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="299"/>
+      <c r="A82" s="275"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="302"/>
-      <c r="D82" s="266"/>
+      <c r="C82" s="285"/>
+      <c r="D82" s="325"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="303" t="s">
+      <c r="A83" s="276" t="s">
         <v>592</v>
       </c>
       <c r="B83" s="50">
@@ -31304,38 +31590,38 @@
       <c r="C83" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="259" t="s">
+      <c r="D83" s="318" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="304"/>
+      <c r="A84" s="277"/>
       <c r="B84" s="52"/>
-      <c r="C84" s="300" t="s">
+      <c r="C84" s="269" t="s">
         <v>593</v>
       </c>
-      <c r="D84" s="260"/>
+      <c r="D84" s="319"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="304"/>
+      <c r="A85" s="277"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="301"/>
-      <c r="D85" s="260"/>
+      <c r="C85" s="270"/>
+      <c r="D85" s="319"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="304"/>
+      <c r="A86" s="277"/>
       <c r="B86" s="54"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="260"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="319"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="305"/>
+      <c r="A87" s="278"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="302"/>
-      <c r="D87" s="261"/>
+      <c r="C87" s="285"/>
+      <c r="D87" s="320"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="306" t="s">
+      <c r="A88" s="282" t="s">
         <v>594</v>
       </c>
       <c r="B88" s="50">
@@ -31344,173 +31630,173 @@
       <c r="C88" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="258" t="s">
+      <c r="D88" s="317" t="s">
         <v>594</v>
       </c>
       <c r="I88" s="60"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="307"/>
-      <c r="B89" s="289"/>
-      <c r="C89" s="300" t="s">
+      <c r="A89" s="283"/>
+      <c r="B89" s="260"/>
+      <c r="C89" s="269" t="s">
         <v>595</v>
       </c>
-      <c r="D89" s="258"/>
+      <c r="D89" s="317"/>
       <c r="I89" s="60"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="307"/>
-      <c r="B90" s="290"/>
-      <c r="C90" s="301"/>
-      <c r="D90" s="258"/>
+      <c r="A90" s="283"/>
+      <c r="B90" s="261"/>
+      <c r="C90" s="270"/>
+      <c r="D90" s="317"/>
       <c r="I90" s="60"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="307"/>
+      <c r="A91" s="283"/>
       <c r="B91" s="54"/>
-      <c r="C91" s="301"/>
-      <c r="D91" s="258"/>
+      <c r="C91" s="270"/>
+      <c r="D91" s="317"/>
       <c r="I91" s="60"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="307"/>
+      <c r="A92" s="283"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="302"/>
-      <c r="D92" s="258"/>
+      <c r="C92" s="285"/>
+      <c r="D92" s="317"/>
       <c r="I92" s="60"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="307"/>
+      <c r="A93" s="283"/>
       <c r="B93" s="50">
         <v>21</v>
       </c>
       <c r="C93" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="258"/>
+      <c r="D93" s="317"/>
       <c r="I93" s="60"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="307"/>
-      <c r="B94" s="289"/>
-      <c r="C94" s="309" t="s">
+      <c r="A94" s="283"/>
+      <c r="B94" s="260"/>
+      <c r="C94" s="262" t="s">
         <v>596</v>
       </c>
-      <c r="D94" s="258"/>
+      <c r="D94" s="317"/>
       <c r="I94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="307"/>
-      <c r="B95" s="290"/>
-      <c r="C95" s="310"/>
-      <c r="D95" s="258"/>
+      <c r="A95" s="283"/>
+      <c r="B95" s="261"/>
+      <c r="C95" s="263"/>
+      <c r="D95" s="317"/>
       <c r="I95" s="60"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="307"/>
+      <c r="A96" s="283"/>
       <c r="B96" s="54"/>
-      <c r="C96" s="310"/>
-      <c r="D96" s="258"/>
+      <c r="C96" s="263"/>
+      <c r="D96" s="317"/>
       <c r="I96" s="60"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="307"/>
+      <c r="A97" s="283"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="301"/>
-      <c r="D97" s="258"/>
+      <c r="C97" s="270"/>
+      <c r="D97" s="317"/>
       <c r="I97" s="60"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="307"/>
+      <c r="A98" s="283"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="301"/>
-      <c r="D98" s="258"/>
+      <c r="C98" s="270"/>
+      <c r="D98" s="317"/>
       <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="307"/>
+      <c r="A99" s="283"/>
       <c r="B99" s="54"/>
-      <c r="C99" s="301"/>
-      <c r="D99" s="258"/>
+      <c r="C99" s="270"/>
+      <c r="D99" s="317"/>
       <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="307"/>
+      <c r="A100" s="283"/>
       <c r="B100" s="54"/>
-      <c r="C100" s="310"/>
-      <c r="D100" s="258"/>
+      <c r="C100" s="263"/>
+      <c r="D100" s="317"/>
       <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="307"/>
+      <c r="A101" s="283"/>
       <c r="B101" s="50">
         <v>22</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="258"/>
+      <c r="D101" s="317"/>
       <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="307"/>
-      <c r="B102" s="289"/>
-      <c r="C102" s="309" t="s">
+      <c r="A102" s="283"/>
+      <c r="B102" s="260"/>
+      <c r="C102" s="262" t="s">
         <v>597</v>
       </c>
-      <c r="D102" s="258"/>
+      <c r="D102" s="317"/>
       <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="307"/>
-      <c r="B103" s="290"/>
-      <c r="C103" s="310"/>
-      <c r="D103" s="258"/>
+      <c r="A103" s="283"/>
+      <c r="B103" s="261"/>
+      <c r="C103" s="263"/>
+      <c r="D103" s="317"/>
       <c r="I103" s="60"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="307"/>
+      <c r="A104" s="283"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="310"/>
-      <c r="D104" s="258"/>
+      <c r="C104" s="263"/>
+      <c r="D104" s="317"/>
       <c r="I104" s="60"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="307"/>
+      <c r="A105" s="283"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="301"/>
-      <c r="D105" s="258"/>
+      <c r="C105" s="270"/>
+      <c r="D105" s="317"/>
       <c r="I105" s="60"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="307"/>
+      <c r="A106" s="283"/>
       <c r="B106" s="54"/>
-      <c r="C106" s="301"/>
-      <c r="D106" s="258"/>
+      <c r="C106" s="270"/>
+      <c r="D106" s="317"/>
       <c r="I106" s="60"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="307"/>
+      <c r="A107" s="283"/>
       <c r="B107" s="50">
         <v>23</v>
       </c>
       <c r="C107" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D107" s="258"/>
-      <c r="E107" s="277" t="s">
+      <c r="D107" s="317"/>
+      <c r="E107" s="312" t="s">
         <v>600</v>
       </c>
       <c r="I107" s="60"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="307"/>
-      <c r="B108" s="289"/>
-      <c r="C108" s="312" t="s">
+      <c r="A108" s="283"/>
+      <c r="B108" s="260"/>
+      <c r="C108" s="287" t="s">
         <v>598</v>
       </c>
-      <c r="D108" s="258"/>
-      <c r="E108" s="277"/>
+      <c r="D108" s="317"/>
+      <c r="E108" s="312"/>
       <c r="F108" s="96" t="s">
         <v>415</v>
       </c>
@@ -31529,19 +31815,19 @@
       <c r="Q108" s="97"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="307"/>
-      <c r="B109" s="290"/>
-      <c r="C109" s="313"/>
-      <c r="D109" s="258"/>
-      <c r="E109" s="277"/>
+      <c r="A109" s="283"/>
+      <c r="B109" s="261"/>
+      <c r="C109" s="288"/>
+      <c r="D109" s="317"/>
+      <c r="E109" s="312"/>
       <c r="I109" s="60"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="307"/>
+      <c r="A110" s="283"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="313"/>
-      <c r="D110" s="258"/>
-      <c r="E110" s="277"/>
+      <c r="C110" s="288"/>
+      <c r="D110" s="317"/>
+      <c r="E110" s="312"/>
       <c r="F110" s="98" t="s">
         <v>381</v>
       </c>
@@ -31559,100 +31845,100 @@
       <c r="P110" s="99"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="307"/>
+      <c r="A111" s="283"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="313"/>
-      <c r="D111" s="258"/>
-      <c r="E111" s="277"/>
+      <c r="C111" s="288"/>
+      <c r="D111" s="317"/>
+      <c r="E111" s="312"/>
       <c r="I111" s="60"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="307"/>
+      <c r="A112" s="283"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="313"/>
-      <c r="D112" s="258"/>
-      <c r="E112" s="277"/>
+      <c r="C112" s="288"/>
+      <c r="D112" s="317"/>
+      <c r="E112" s="312"/>
       <c r="I112" s="60"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="307"/>
+      <c r="A113" s="283"/>
       <c r="B113" s="54"/>
-      <c r="C113" s="314"/>
-      <c r="D113" s="258"/>
-      <c r="E113" s="277"/>
+      <c r="C113" s="289"/>
+      <c r="D113" s="317"/>
+      <c r="E113" s="312"/>
       <c r="I113" s="60"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="307"/>
+      <c r="A114" s="283"/>
       <c r="B114" s="50">
         <v>24</v>
       </c>
       <c r="C114" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="258"/>
+      <c r="D114" s="317"/>
       <c r="I114" s="60"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="307"/>
-      <c r="B115" s="289"/>
-      <c r="C115" s="309" t="s">
+      <c r="A115" s="283"/>
+      <c r="B115" s="260"/>
+      <c r="C115" s="262" t="s">
         <v>599</v>
       </c>
-      <c r="D115" s="258"/>
+      <c r="D115" s="317"/>
       <c r="I115" s="60"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="307"/>
-      <c r="B116" s="290"/>
-      <c r="C116" s="310"/>
-      <c r="D116" s="258"/>
+      <c r="A116" s="283"/>
+      <c r="B116" s="261"/>
+      <c r="C116" s="263"/>
+      <c r="D116" s="317"/>
       <c r="I116" s="60"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="307"/>
+      <c r="A117" s="283"/>
       <c r="B117" s="54"/>
-      <c r="C117" s="310"/>
-      <c r="D117" s="258"/>
+      <c r="C117" s="263"/>
+      <c r="D117" s="317"/>
       <c r="I117" s="60"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="307"/>
+      <c r="A118" s="283"/>
       <c r="B118" s="54"/>
-      <c r="C118" s="310"/>
-      <c r="D118" s="258"/>
+      <c r="C118" s="263"/>
+      <c r="D118" s="317"/>
       <c r="I118" s="60"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="307"/>
+      <c r="A119" s="283"/>
       <c r="B119" s="54"/>
-      <c r="C119" s="310"/>
-      <c r="D119" s="258"/>
+      <c r="C119" s="263"/>
+      <c r="D119" s="317"/>
       <c r="I119" s="60"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="307"/>
+      <c r="A120" s="283"/>
       <c r="B120" s="54"/>
-      <c r="C120" s="310"/>
-      <c r="D120" s="258"/>
+      <c r="C120" s="263"/>
+      <c r="D120" s="317"/>
       <c r="I120" s="60"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="307"/>
+      <c r="A121" s="283"/>
       <c r="B121" s="54"/>
-      <c r="C121" s="310"/>
-      <c r="D121" s="258"/>
+      <c r="C121" s="263"/>
+      <c r="D121" s="317"/>
       <c r="I121" s="60"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="308"/>
+      <c r="A122" s="284"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="311"/>
-      <c r="D122" s="258"/>
+      <c r="C122" s="286"/>
+      <c r="D122" s="317"/>
       <c r="I122" s="60"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="287" t="s">
+      <c r="A123" s="290" t="s">
         <v>600</v>
       </c>
       <c r="B123" s="50">
@@ -31661,299 +31947,299 @@
       <c r="C123" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D123" s="277" t="s">
+      <c r="D123" s="312" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="288"/>
-      <c r="B124" s="289"/>
-      <c r="C124" s="291" t="s">
+      <c r="A124" s="291"/>
+      <c r="B124" s="260"/>
+      <c r="C124" s="292" t="s">
         <v>601</v>
       </c>
-      <c r="D124" s="277"/>
+      <c r="D124" s="312"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="288"/>
-      <c r="B125" s="290"/>
-      <c r="C125" s="292"/>
-      <c r="D125" s="277"/>
+      <c r="A125" s="291"/>
+      <c r="B125" s="261"/>
+      <c r="C125" s="293"/>
+      <c r="D125" s="312"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="288"/>
+      <c r="A126" s="291"/>
       <c r="B126" s="54"/>
-      <c r="C126" s="292"/>
-      <c r="D126" s="277"/>
+      <c r="C126" s="293"/>
+      <c r="D126" s="312"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="288"/>
+      <c r="A127" s="291"/>
       <c r="B127" s="54"/>
-      <c r="C127" s="292"/>
-      <c r="D127" s="277"/>
+      <c r="C127" s="293"/>
+      <c r="D127" s="312"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="288"/>
+      <c r="A128" s="291"/>
       <c r="B128" s="54"/>
-      <c r="C128" s="292"/>
-      <c r="D128" s="277"/>
+      <c r="C128" s="293"/>
+      <c r="D128" s="312"/>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="288"/>
+      <c r="A129" s="291"/>
       <c r="B129" s="54"/>
-      <c r="C129" s="292"/>
-      <c r="D129" s="277"/>
+      <c r="C129" s="293"/>
+      <c r="D129" s="312"/>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="288"/>
+      <c r="A130" s="291"/>
       <c r="B130" s="54"/>
-      <c r="C130" s="292"/>
-      <c r="D130" s="277"/>
+      <c r="C130" s="293"/>
+      <c r="D130" s="312"/>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="288"/>
+      <c r="A131" s="291"/>
       <c r="B131" s="57"/>
-      <c r="C131" s="293"/>
-      <c r="D131" s="277"/>
+      <c r="C131" s="294"/>
+      <c r="D131" s="312"/>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="288"/>
+      <c r="A132" s="291"/>
       <c r="B132" s="50">
         <v>26</v>
       </c>
       <c r="C132" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="277"/>
+      <c r="D132" s="312"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="288"/>
-      <c r="B133" s="289"/>
-      <c r="C133" s="291" t="s">
+      <c r="A133" s="291"/>
+      <c r="B133" s="260"/>
+      <c r="C133" s="292" t="s">
         <v>602</v>
       </c>
-      <c r="D133" s="277"/>
+      <c r="D133" s="312"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="288"/>
-      <c r="B134" s="290"/>
-      <c r="C134" s="292"/>
-      <c r="D134" s="277"/>
+      <c r="A134" s="291"/>
+      <c r="B134" s="261"/>
+      <c r="C134" s="293"/>
+      <c r="D134" s="312"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="288"/>
+      <c r="A135" s="291"/>
       <c r="B135" s="54"/>
-      <c r="C135" s="292"/>
-      <c r="D135" s="277"/>
+      <c r="C135" s="293"/>
+      <c r="D135" s="312"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="288"/>
+      <c r="A136" s="291"/>
       <c r="B136" s="54"/>
-      <c r="C136" s="292"/>
-      <c r="D136" s="277"/>
+      <c r="C136" s="293"/>
+      <c r="D136" s="312"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="288"/>
+      <c r="A137" s="291"/>
       <c r="B137" s="54"/>
-      <c r="C137" s="292"/>
-      <c r="D137" s="277"/>
+      <c r="C137" s="293"/>
+      <c r="D137" s="312"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="288"/>
+      <c r="A138" s="291"/>
       <c r="B138" s="54"/>
-      <c r="C138" s="292"/>
-      <c r="D138" s="277"/>
+      <c r="C138" s="293"/>
+      <c r="D138" s="312"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="288"/>
+      <c r="A139" s="291"/>
       <c r="B139" s="54"/>
-      <c r="C139" s="292"/>
-      <c r="D139" s="277"/>
+      <c r="C139" s="293"/>
+      <c r="D139" s="312"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="288"/>
+      <c r="A140" s="291"/>
       <c r="B140" s="57"/>
-      <c r="C140" s="293"/>
-      <c r="D140" s="277"/>
+      <c r="C140" s="294"/>
+      <c r="D140" s="312"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="288"/>
+      <c r="A141" s="291"/>
       <c r="B141" s="50">
         <v>27</v>
       </c>
       <c r="C141" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D141" s="277"/>
+      <c r="D141" s="312"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="288"/>
-      <c r="B142" s="289"/>
-      <c r="C142" s="291" t="s">
+      <c r="A142" s="291"/>
+      <c r="B142" s="260"/>
+      <c r="C142" s="292" t="s">
         <v>603</v>
       </c>
-      <c r="D142" s="277"/>
+      <c r="D142" s="312"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="288"/>
-      <c r="B143" s="290"/>
-      <c r="C143" s="292"/>
-      <c r="D143" s="277"/>
+      <c r="A143" s="291"/>
+      <c r="B143" s="261"/>
+      <c r="C143" s="293"/>
+      <c r="D143" s="312"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="288"/>
+      <c r="A144" s="291"/>
       <c r="B144" s="54"/>
-      <c r="C144" s="292"/>
-      <c r="D144" s="277"/>
+      <c r="C144" s="293"/>
+      <c r="D144" s="312"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="288"/>
+      <c r="A145" s="291"/>
       <c r="B145" s="54"/>
-      <c r="C145" s="292"/>
-      <c r="D145" s="277"/>
+      <c r="C145" s="293"/>
+      <c r="D145" s="312"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="288"/>
+      <c r="A146" s="291"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="292"/>
-      <c r="D146" s="277"/>
+      <c r="C146" s="293"/>
+      <c r="D146" s="312"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="288"/>
+      <c r="A147" s="291"/>
       <c r="B147" s="54"/>
-      <c r="C147" s="292"/>
-      <c r="D147" s="277"/>
+      <c r="C147" s="293"/>
+      <c r="D147" s="312"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="288"/>
+      <c r="A148" s="291"/>
       <c r="B148" s="54"/>
-      <c r="C148" s="292"/>
-      <c r="D148" s="277"/>
+      <c r="C148" s="293"/>
+      <c r="D148" s="312"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="288"/>
+      <c r="A149" s="291"/>
       <c r="B149" s="57"/>
-      <c r="C149" s="293"/>
-      <c r="D149" s="277"/>
+      <c r="C149" s="294"/>
+      <c r="D149" s="312"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="288"/>
+      <c r="A150" s="291"/>
       <c r="B150" s="50">
         <v>28</v>
       </c>
       <c r="C150" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D150" s="277"/>
-      <c r="E150" s="272" t="s">
+      <c r="D150" s="312"/>
+      <c r="E150" s="305" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="288"/>
-      <c r="B151" s="289"/>
-      <c r="C151" s="291" t="s">
+      <c r="A151" s="291"/>
+      <c r="B151" s="260"/>
+      <c r="C151" s="292" t="s">
         <v>604</v>
       </c>
-      <c r="D151" s="277"/>
-      <c r="E151" s="273"/>
+      <c r="D151" s="312"/>
+      <c r="E151" s="306"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="288"/>
-      <c r="B152" s="290"/>
-      <c r="C152" s="292"/>
-      <c r="D152" s="277"/>
-      <c r="E152" s="273"/>
+      <c r="A152" s="291"/>
+      <c r="B152" s="261"/>
+      <c r="C152" s="293"/>
+      <c r="D152" s="312"/>
+      <c r="E152" s="306"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="288"/>
+      <c r="A153" s="291"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="292"/>
-      <c r="D153" s="277"/>
-      <c r="E153" s="273"/>
+      <c r="C153" s="293"/>
+      <c r="D153" s="312"/>
+      <c r="E153" s="306"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="288"/>
+      <c r="A154" s="291"/>
       <c r="B154" s="54"/>
-      <c r="C154" s="292"/>
-      <c r="D154" s="277"/>
-      <c r="E154" s="273"/>
+      <c r="C154" s="293"/>
+      <c r="D154" s="312"/>
+      <c r="E154" s="306"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="288"/>
+      <c r="A155" s="291"/>
       <c r="B155" s="54"/>
-      <c r="C155" s="292"/>
-      <c r="D155" s="277"/>
-      <c r="E155" s="273"/>
+      <c r="C155" s="293"/>
+      <c r="D155" s="312"/>
+      <c r="E155" s="306"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="288"/>
+      <c r="A156" s="291"/>
       <c r="B156" s="54"/>
-      <c r="C156" s="292"/>
-      <c r="D156" s="277"/>
-      <c r="E156" s="273"/>
+      <c r="C156" s="293"/>
+      <c r="D156" s="312"/>
+      <c r="E156" s="306"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="288"/>
+      <c r="A157" s="291"/>
       <c r="B157" s="54"/>
-      <c r="C157" s="292"/>
-      <c r="D157" s="277"/>
-      <c r="E157" s="273"/>
+      <c r="C157" s="293"/>
+      <c r="D157" s="312"/>
+      <c r="E157" s="306"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="288"/>
+      <c r="A158" s="291"/>
       <c r="B158" s="57"/>
-      <c r="C158" s="293"/>
-      <c r="D158" s="277"/>
-      <c r="E158" s="273"/>
+      <c r="C158" s="294"/>
+      <c r="D158" s="312"/>
+      <c r="E158" s="306"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="288"/>
+      <c r="A159" s="291"/>
       <c r="B159" s="50">
         <v>29</v>
       </c>
       <c r="C159" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="D159" s="277"/>
+      <c r="D159" s="312"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="288"/>
-      <c r="B160" s="289"/>
-      <c r="C160" s="291" t="s">
+      <c r="A160" s="291"/>
+      <c r="B160" s="260"/>
+      <c r="C160" s="292" t="s">
         <v>605</v>
       </c>
-      <c r="D160" s="277"/>
+      <c r="D160" s="312"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="288"/>
-      <c r="B161" s="290"/>
-      <c r="C161" s="292"/>
-      <c r="D161" s="277"/>
+      <c r="A161" s="291"/>
+      <c r="B161" s="261"/>
+      <c r="C161" s="293"/>
+      <c r="D161" s="312"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="288"/>
+      <c r="A162" s="291"/>
       <c r="B162" s="54"/>
-      <c r="C162" s="292"/>
-      <c r="D162" s="277"/>
+      <c r="C162" s="293"/>
+      <c r="D162" s="312"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="288"/>
+      <c r="A163" s="291"/>
       <c r="B163" s="54"/>
-      <c r="C163" s="293"/>
-      <c r="D163" s="277"/>
+      <c r="C163" s="294"/>
+      <c r="D163" s="312"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="288"/>
+      <c r="A164" s="291"/>
       <c r="B164" s="50">
         <v>30</v>
       </c>
       <c r="C164" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="D164" s="279" t="s">
+      <c r="D164" s="314" t="s">
         <v>594</v>
       </c>
-      <c r="E164" s="278" t="s">
+      <c r="E164" s="313" t="s">
         <v>600</v>
       </c>
       <c r="F164" s="102" t="s">
@@ -31968,20 +32254,20 @@
       <c r="K164" s="103"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="288"/>
+      <c r="A165" s="291"/>
       <c r="B165" s="58"/>
-      <c r="C165" s="294" t="s">
+      <c r="C165" s="295" t="s">
         <v>606</v>
       </c>
-      <c r="D165" s="279"/>
-      <c r="E165" s="278"/>
+      <c r="D165" s="314"/>
+      <c r="E165" s="313"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="288"/>
+      <c r="A166" s="291"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="295"/>
-      <c r="D166" s="279"/>
-      <c r="E166" s="278"/>
+      <c r="C166" s="296"/>
+      <c r="D166" s="314"/>
+      <c r="E166" s="313"/>
       <c r="F166" s="100" t="s">
         <v>381</v>
       </c>
@@ -31994,11 +32280,11 @@
       <c r="K166" s="104"/>
     </row>
     <row r="167" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="288"/>
+      <c r="A167" s="291"/>
       <c r="B167" s="54"/>
-      <c r="C167" s="296"/>
-      <c r="D167" s="279"/>
-      <c r="E167" s="278"/>
+      <c r="C167" s="297"/>
+      <c r="D167" s="314"/>
+      <c r="E167" s="313"/>
       <c r="F167" s="100" t="s">
         <v>389</v>
       </c>
@@ -32011,7 +32297,7 @@
       <c r="K167" s="104"/>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="280" t="s">
+      <c r="A168" s="298" t="s">
         <v>607</v>
       </c>
       <c r="B168" s="50">
@@ -32020,62 +32306,62 @@
       <c r="C168" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D168" s="278" t="s">
+      <c r="D168" s="313" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="280"/>
-      <c r="B169" s="281"/>
-      <c r="C169" s="283" t="s">
+      <c r="A169" s="298"/>
+      <c r="B169" s="299"/>
+      <c r="C169" s="301" t="s">
         <v>608</v>
       </c>
-      <c r="D169" s="278"/>
+      <c r="D169" s="313"/>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="280"/>
-      <c r="B170" s="282"/>
-      <c r="C170" s="284"/>
-      <c r="D170" s="278"/>
+      <c r="A170" s="298"/>
+      <c r="B170" s="300"/>
+      <c r="C170" s="302"/>
+      <c r="D170" s="313"/>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="280"/>
+      <c r="A171" s="298"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="284"/>
-      <c r="D171" s="278"/>
+      <c r="C171" s="302"/>
+      <c r="D171" s="313"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="280"/>
+      <c r="A172" s="298"/>
       <c r="B172" s="54"/>
-      <c r="C172" s="284"/>
-      <c r="D172" s="278"/>
+      <c r="C172" s="302"/>
+      <c r="D172" s="313"/>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="280"/>
+      <c r="A173" s="298"/>
       <c r="B173" s="54"/>
-      <c r="C173" s="284"/>
-      <c r="D173" s="278"/>
+      <c r="C173" s="302"/>
+      <c r="D173" s="313"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="280"/>
+      <c r="A174" s="298"/>
       <c r="B174" s="54"/>
-      <c r="C174" s="284"/>
-      <c r="D174" s="278"/>
+      <c r="C174" s="302"/>
+      <c r="D174" s="313"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="280"/>
+      <c r="A175" s="298"/>
       <c r="B175" s="54"/>
-      <c r="C175" s="284"/>
-      <c r="D175" s="278"/>
+      <c r="C175" s="302"/>
+      <c r="D175" s="313"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="280"/>
+      <c r="A176" s="298"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="285"/>
-      <c r="D176" s="278"/>
+      <c r="C176" s="303"/>
+      <c r="D176" s="313"/>
     </row>
     <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="286" t="s">
+      <c r="A177" s="304" t="s">
         <v>566</v>
       </c>
       <c r="B177" s="50">
@@ -32084,121 +32370,121 @@
       <c r="C177" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D177" s="272" t="s">
+      <c r="D177" s="305" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="286"/>
-      <c r="B178" s="281"/>
-      <c r="C178" s="283" t="s">
+      <c r="A178" s="304"/>
+      <c r="B178" s="299"/>
+      <c r="C178" s="301" t="s">
         <v>609</v>
       </c>
-      <c r="D178" s="273"/>
+      <c r="D178" s="306"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="286"/>
-      <c r="B179" s="282"/>
-      <c r="C179" s="284"/>
-      <c r="D179" s="273"/>
+      <c r="A179" s="304"/>
+      <c r="B179" s="300"/>
+      <c r="C179" s="302"/>
+      <c r="D179" s="306"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="286"/>
+      <c r="A180" s="304"/>
       <c r="B180" s="54"/>
-      <c r="C180" s="284"/>
-      <c r="D180" s="273"/>
+      <c r="C180" s="302"/>
+      <c r="D180" s="306"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="286"/>
+      <c r="A181" s="304"/>
       <c r="B181" s="54"/>
-      <c r="C181" s="284"/>
-      <c r="D181" s="273"/>
+      <c r="C181" s="302"/>
+      <c r="D181" s="306"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="286"/>
+      <c r="A182" s="304"/>
       <c r="B182" s="54"/>
-      <c r="C182" s="284"/>
-      <c r="D182" s="273"/>
+      <c r="C182" s="302"/>
+      <c r="D182" s="306"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="286"/>
+      <c r="A183" s="304"/>
       <c r="B183" s="54"/>
-      <c r="C183" s="284"/>
-      <c r="D183" s="273"/>
+      <c r="C183" s="302"/>
+      <c r="D183" s="306"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="286"/>
+      <c r="A184" s="304"/>
       <c r="B184" s="54"/>
-      <c r="C184" s="284"/>
-      <c r="D184" s="273"/>
+      <c r="C184" s="302"/>
+      <c r="D184" s="306"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="286"/>
+      <c r="A185" s="304"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="284"/>
-      <c r="D185" s="273"/>
+      <c r="C185" s="302"/>
+      <c r="D185" s="306"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="286"/>
+      <c r="A186" s="304"/>
       <c r="B186" s="50">
         <v>33</v>
       </c>
       <c r="C186" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="D186" s="272" t="s">
+      <c r="D186" s="305" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="286"/>
-      <c r="B187" s="281"/>
-      <c r="C187" s="284" t="s">
+      <c r="A187" s="304"/>
+      <c r="B187" s="299"/>
+      <c r="C187" s="302" t="s">
         <v>611</v>
       </c>
-      <c r="D187" s="273"/>
+      <c r="D187" s="306"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="286"/>
-      <c r="B188" s="282"/>
-      <c r="C188" s="284"/>
-      <c r="D188" s="273"/>
+      <c r="A188" s="304"/>
+      <c r="B188" s="300"/>
+      <c r="C188" s="302"/>
+      <c r="D188" s="306"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="286"/>
+      <c r="A189" s="304"/>
       <c r="B189" s="54"/>
-      <c r="C189" s="284"/>
-      <c r="D189" s="273"/>
+      <c r="C189" s="302"/>
+      <c r="D189" s="306"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="286"/>
+      <c r="A190" s="304"/>
       <c r="B190" s="54"/>
-      <c r="C190" s="284"/>
-      <c r="D190" s="273"/>
+      <c r="C190" s="302"/>
+      <c r="D190" s="306"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="286"/>
+      <c r="A191" s="304"/>
       <c r="B191" s="54"/>
-      <c r="C191" s="284"/>
-      <c r="D191" s="273"/>
+      <c r="C191" s="302"/>
+      <c r="D191" s="306"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="286"/>
+      <c r="A192" s="304"/>
       <c r="B192" s="54"/>
-      <c r="C192" s="284"/>
-      <c r="D192" s="273"/>
+      <c r="C192" s="302"/>
+      <c r="D192" s="306"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="286"/>
+      <c r="A193" s="304"/>
       <c r="B193" s="54"/>
-      <c r="C193" s="284"/>
-      <c r="D193" s="273"/>
+      <c r="C193" s="302"/>
+      <c r="D193" s="306"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="286"/>
+      <c r="A194" s="304"/>
       <c r="B194" s="57"/>
-      <c r="C194" s="285"/>
-      <c r="D194" s="273"/>
+      <c r="C194" s="303"/>
+      <c r="D194" s="306"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
@@ -32207,25 +32493,72 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A32"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D88:D122"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D49:D57"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D13:D32"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D177:D185"/>
+    <mergeCell ref="D186:D194"/>
+    <mergeCell ref="E150:E158"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D65:D75"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="D123:D163"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C176"/>
+    <mergeCell ref="A177:A194"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C185"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C194"/>
+    <mergeCell ref="A123:A167"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A88:A122"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="C66:C75"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C37"/>
@@ -32240,72 +32573,25 @@
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="A88:A122"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A123:A167"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C149"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C176"/>
-    <mergeCell ref="A177:A194"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C185"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C194"/>
-    <mergeCell ref="D177:D185"/>
-    <mergeCell ref="D186:D194"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D65:D75"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="D123:D163"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D88:D122"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D49:D57"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D13:D32"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
